--- a/Distress diary/item_info.xlsx
+++ b/Distress diary/item_info.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="301">
   <si>
     <t>종류</t>
   </si>
@@ -1009,6 +1009,9 @@
   </si>
   <si>
     <t>잠긴 철제 상자</t>
+  </si>
+  <si>
+    <t>잠긴 대형 철제 상자</t>
   </si>
 </sst>
 </file>
@@ -3877,8 +3880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AN137"/>
   <sheetViews>
-    <sheetView topLeftCell="F71" tabSelected="1" zoomScale="110" workbookViewId="0">
-      <selection activeCell="H91" sqref="H91"/>
+    <sheetView topLeftCell="F74" tabSelected="1" zoomScale="110" workbookViewId="0">
+      <selection activeCell="O85" sqref="O85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -8958,7 +8961,7 @@
       <c r="F93" s="55"/>
       <c r="G93" s="56"/>
       <c r="H93" s="36" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="I93" s="44" t="s">
         <v>132</v>

--- a/Distress diary/item_info.xlsx
+++ b/Distress diary/item_info.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="303">
   <si>
     <t>종류</t>
   </si>
@@ -1013,13 +1013,19 @@
   <si>
     <t>잠긴 대형 철제 상자</t>
   </si>
+  <si>
+    <t>High Quality Metal ㅑngot</t>
+  </si>
+  <si>
+    <t>High Quality Metal ingot</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="23">
+  <fonts count="21">
     <font>
       <sz val="11.0"/>
       <name val="맑은 고딕"/>
@@ -1129,17 +1135,6 @@
       <sz val="11.0"/>
       <name val="맑은 고딕"/>
       <color rgb="FF7F7F7F"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <color rgb="FFFF0000"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <color theme="1"/>
     </font>
     <font>
       <b/>
@@ -1351,13 +1346,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="115">
+  <borders count="113">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1372,7 +1366,6 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1381,7 +1374,6 @@
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1390,7 +1382,6 @@
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1399,7 +1390,6 @@
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1414,7 +1404,6 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1429,7 +1418,6 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -1444,7 +1432,6 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1453,7 +1440,6 @@
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1464,7 +1450,6 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1479,7 +1464,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1488,7 +1472,6 @@
       <bottom style="thin">
         <color theme="0"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1503,7 +1486,6 @@
       <bottom style="thin">
         <color theme="0"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1516,7 +1498,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1527,7 +1508,6 @@
       <bottom style="thin">
         <color theme="0"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1542,7 +1522,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1557,7 +1536,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1572,7 +1550,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1587,7 +1564,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1602,7 +1578,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1617,7 +1592,6 @@
       <bottom style="thin">
         <color theme="0"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1632,7 +1606,6 @@
       <bottom style="thin">
         <color theme="0"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1645,7 +1618,6 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1658,7 +1630,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1671,7 +1642,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1684,7 +1654,6 @@
       <bottom style="thin">
         <color theme="0"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1695,7 +1664,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1710,7 +1678,6 @@
       <bottom style="thin">
         <color theme="0"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1725,7 +1692,6 @@
       <bottom style="thin">
         <color theme="0"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1740,7 +1706,6 @@
       <bottom style="thin">
         <color theme="0"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1755,7 +1720,6 @@
       <bottom style="thin">
         <color theme="0"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1770,7 +1734,6 @@
       <bottom style="thin">
         <color theme="0"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1785,7 +1748,6 @@
       <bottom style="thin">
         <color theme="0" tint="-0.499980"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1800,7 +1762,6 @@
       <bottom style="thin">
         <color theme="0" tint="-0.499980"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1813,7 +1774,6 @@
         <color theme="0"/>
       </top>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1826,7 +1786,6 @@
       <bottom style="thin">
         <color theme="0"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1839,7 +1798,6 @@
       <bottom style="thin">
         <color theme="0"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1852,7 +1810,6 @@
       <bottom style="thin">
         <color theme="0"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1867,7 +1824,6 @@
       <bottom style="thin">
         <color theme="0" tint="-0.499980"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1882,7 +1838,6 @@
       <bottom style="thin">
         <color theme="0" tint="-0.499980"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1897,7 +1852,6 @@
       <bottom style="thin">
         <color theme="0" tint="-0.499980"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1912,7 +1866,6 @@
       <bottom style="thin">
         <color theme="0" tint="-0.499980"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1927,7 +1880,6 @@
       <bottom style="thin">
         <color theme="0" tint="-0.499980"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1942,7 +1894,6 @@
       <bottom style="thin">
         <color theme="0" tint="-0.499980"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1957,7 +1908,6 @@
       <bottom style="thin">
         <color theme="1"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1972,7 +1922,6 @@
       <bottom style="thin">
         <color theme="1"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1987,7 +1936,6 @@
       <bottom style="thin">
         <color theme="1"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2000,7 +1948,6 @@
         <color theme="0" tint="-0.499980"/>
       </top>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2013,7 +1960,6 @@
       <bottom style="thin">
         <color theme="0" tint="-0.499980"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -2026,7 +1972,6 @@
       <bottom style="thin">
         <color theme="0" tint="-0.499980"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2041,7 +1986,6 @@
       <bottom style="thick">
         <color theme="1"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2056,7 +2000,6 @@
       <bottom style="thin">
         <color theme="0" tint="-0.499980"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2069,7 +2012,6 @@
       <bottom style="thin">
         <color theme="0" tint="-0.499980"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thick">
@@ -2084,7 +2026,6 @@
       <bottom style="thin">
         <color theme="0" tint="-0.499980"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2099,7 +2040,6 @@
       <bottom style="thin">
         <color theme="0" tint="-0.499980"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2114,7 +2054,6 @@
       <bottom style="thin">
         <color theme="0" tint="-0.499980"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thick">
@@ -2129,7 +2068,6 @@
       <bottom style="thin">
         <color theme="0" tint="-0.499980"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thick">
@@ -2144,7 +2082,6 @@
       <bottom style="thick">
         <color theme="1"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2159,7 +2096,6 @@
       <bottom style="thick">
         <color theme="1"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -2174,7 +2110,6 @@
       <bottom style="thin">
         <color theme="0" tint="-0.499980"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2189,7 +2124,6 @@
       <bottom style="thin">
         <color theme="0" tint="-0.499980"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2204,7 +2138,6 @@
       <bottom style="thin">
         <color theme="0" tint="-0.499980"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -2219,7 +2152,6 @@
       <bottom style="thin">
         <color theme="0" tint="-0.499980"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2234,7 +2166,6 @@
       <bottom style="thin">
         <color theme="0" tint="-0.499980"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -2249,7 +2180,6 @@
       <bottom style="thin">
         <color theme="1"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2264,7 +2194,6 @@
       <bottom style="thin">
         <color theme="1"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -2277,7 +2206,6 @@
       <bottom style="medium">
         <color theme="1"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2290,7 +2218,6 @@
       <bottom style="medium">
         <color theme="1"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2303,20 +2230,6 @@
       <bottom style="medium">
         <color theme="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.499980"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.499980"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.499980"/>
-      </top>
-      <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -2331,7 +2244,6 @@
       <bottom style="medium">
         <color theme="1"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2346,7 +2258,6 @@
       <bottom style="medium">
         <color theme="1"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2361,7 +2272,6 @@
       <bottom style="medium">
         <color theme="1"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -2372,7 +2282,6 @@
       <bottom style="thin">
         <color theme="0" tint="-0.499980"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -2385,7 +2294,6 @@
       <bottom style="thin">
         <color theme="0" tint="-0.499980"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -2398,7 +2306,6 @@
       <bottom style="medium">
         <color theme="1"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2413,7 +2320,6 @@
       <bottom style="thin">
         <color theme="0" tint="-0.499980"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2428,7 +2334,6 @@
       <bottom style="thin">
         <color theme="0" tint="-0.499980"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2443,7 +2348,6 @@
       <bottom style="thin">
         <color theme="0" tint="-0.499980"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2458,7 +2362,6 @@
       <bottom style="thin">
         <color theme="0" tint="-0.499980"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2473,7 +2376,6 @@
       <bottom style="medium">
         <color theme="1"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2488,7 +2390,6 @@
       <bottom style="thin">
         <color theme="1"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2501,7 +2402,6 @@
       <bottom style="medium">
         <color theme="1"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thick">
@@ -2516,7 +2416,6 @@
       <bottom style="thick">
         <color theme="0" tint="-0.249980"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2529,7 +2428,6 @@
       <bottom style="thin">
         <color theme="0" tint="-0.499980"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -2542,7 +2440,6 @@
       <bottom style="thin">
         <color theme="0" tint="-0.499980"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2555,7 +2452,6 @@
         <color theme="0" tint="-0.249980"/>
       </top>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2570,7 +2466,6 @@
       <bottom style="thin">
         <color theme="0" tint="-0.249980"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2583,20 +2478,6 @@
       <bottom style="thin">
         <color theme="0" tint="-0.249980"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.499980"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.499980"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.499980"/>
-      </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2611,7 +2492,6 @@
       <bottom style="thin">
         <color theme="0" tint="-0.249980"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2622,7 +2502,6 @@
       <bottom style="thin">
         <color theme="0" tint="-0.249980"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2635,7 +2514,6 @@
       <bottom style="thin">
         <color theme="0" tint="-0.249980"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -2650,7 +2528,6 @@
       <bottom style="thin">
         <color theme="0" tint="-0.499980"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2665,7 +2542,6 @@
       <bottom style="thin">
         <color theme="0" tint="-0.499980"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2680,7 +2556,6 @@
       <bottom style="thin">
         <color theme="0" tint="-0.499980"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -2695,7 +2570,6 @@
       <bottom style="thin">
         <color theme="0" tint="-0.499980"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2710,7 +2584,6 @@
       <bottom style="thin">
         <color theme="0" tint="-0.499980"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -2719,7 +2592,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -2734,7 +2606,6 @@
       <bottom style="medium">
         <color theme="0" tint="-0.249980"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2749,7 +2620,6 @@
       <bottom style="medium">
         <color theme="0" tint="-0.249980"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -2758,7 +2628,6 @@
       <bottom style="medium">
         <color theme="0" tint="-0.249980"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -2769,7 +2638,6 @@
       <bottom style="medium">
         <color theme="0" tint="-0.249980"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2784,7 +2652,6 @@
       <bottom style="thin">
         <color theme="0" tint="-0.249980"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2799,7 +2666,6 @@
       <bottom style="thin">
         <color theme="0" tint="-0.249980"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2814,7 +2680,6 @@
       <bottom style="thin">
         <color theme="0" tint="-0.249980"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2829,7 +2694,6 @@
       <bottom style="thin">
         <color theme="0" tint="-0.249980"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2844,7 +2708,6 @@
       <bottom style="thin">
         <color theme="0" tint="-0.249980"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2859,7 +2722,6 @@
       <bottom style="thin">
         <color theme="0" tint="-0.349990"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2874,7 +2736,6 @@
       <bottom style="thin">
         <color theme="0" tint="-0.349990"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2889,7 +2750,6 @@
       <bottom style="thin">
         <color theme="0" tint="-0.349990"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -2902,7 +2762,6 @@
       <bottom style="thin">
         <color theme="0" tint="-0.249980"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2917,7 +2776,6 @@
       <bottom style="thin">
         <color theme="0" tint="-0.349990"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2932,7 +2790,6 @@
       <bottom style="thin">
         <color theme="0" tint="-0.349990"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -2945,7 +2802,6 @@
       <bottom style="thin">
         <color theme="0" tint="-0.349990"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -3097,14 +2953,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="154">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1">
@@ -3206,10 +3062,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="38" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="38" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3227,7 +3083,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3254,28 +3110,13 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="27" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="38" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3284,7 +3125,7 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3293,7 +3134,7 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3302,13 +3143,13 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3320,22 +3161,16 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3344,19 +3179,19 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3365,7 +3200,7 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3374,13 +3209,13 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="65" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="67" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3389,39 +3224,33 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="69" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="70" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="69" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="70" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="71" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="69" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="72" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="70" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="73" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="73" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="74" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="75" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="71" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="72" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="76" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3434,12 +3263,12 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="79" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="78" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="80" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="79" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="81" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3449,15 +3278,9 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="83" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="84" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="85" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3476,10 +3299,10 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="90" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="91" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="92" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="91" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="92" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="93" xfId="0" applyFill="1" applyBorder="1">
@@ -3506,58 +3329,52 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="100" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="47" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="83" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="88" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="101" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="102" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="47" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="84" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="103" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="104" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="105" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="106" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="107" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="108" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="90" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="103" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="104" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="105" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="106" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="107" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="108" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="109" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="110" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="92" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="111" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="112" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="113" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="114" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3880,8 +3697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AN137"/>
   <sheetViews>
-    <sheetView topLeftCell="F74" tabSelected="1" zoomScale="110" workbookViewId="0">
-      <selection activeCell="O85" sqref="O85"/>
+    <sheetView topLeftCell="H22" tabSelected="1" zoomScale="110" workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -3913,42 +3730,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="110"/>
-      <c r="V1" s="104"/>
-      <c r="W1" s="87"/>
-      <c r="X1" s="87"/>
-      <c r="Y1" s="87"/>
-      <c r="Z1" s="87"/>
-      <c r="AA1" s="87"/>
-      <c r="AB1" s="87"/>
-      <c r="AC1" s="87"/>
-      <c r="AD1" s="87"/>
-      <c r="AE1" s="87"/>
-      <c r="AF1" s="87"/>
-      <c r="AG1" s="87"/>
-      <c r="AH1" s="88"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="100"/>
+      <c r="V1" s="96"/>
+      <c r="W1" s="80"/>
+      <c r="X1" s="80"/>
+      <c r="Y1" s="80"/>
+      <c r="Z1" s="80"/>
+      <c r="AA1" s="80"/>
+      <c r="AB1" s="80"/>
+      <c r="AC1" s="80"/>
+      <c r="AD1" s="80"/>
+      <c r="AE1" s="80"/>
+      <c r="AF1" s="80"/>
+      <c r="AG1" s="80"/>
+      <c r="AH1" s="81"/>
       <c r="AI1" s="45"/>
       <c r="AJ1" s="46"/>
       <c r="AK1" s="40"/>
@@ -3957,7 +3774,7 @@
       <c r="AN1" s="41"/>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="82" t="s">
         <v>102</v>
       </c>
       <c r="B2" s="44" t="s">
@@ -4017,10 +3834,10 @@
       <c r="T2" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="U2" s="111" t="s">
+      <c r="U2" s="101" t="s">
         <v>131</v>
       </c>
-      <c r="V2" s="72"/>
+      <c r="V2" s="67"/>
       <c r="W2" s="44"/>
       <c r="X2" s="44"/>
       <c r="Y2" s="44"/>
@@ -4032,7 +3849,7 @@
       <c r="AE2" s="44"/>
       <c r="AF2" s="44"/>
       <c r="AG2" s="44"/>
-      <c r="AH2" s="90"/>
+      <c r="AH2" s="83"/>
       <c r="AI2" s="45"/>
       <c r="AJ2" s="46"/>
       <c r="AK2" s="40"/>
@@ -4041,7 +3858,7 @@
       <c r="AN2" s="41"/>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="82" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="44" t="s">
@@ -4101,10 +3918,10 @@
       <c r="T3" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="U3" s="111" t="s">
+      <c r="U3" s="101" t="s">
         <v>130</v>
       </c>
-      <c r="V3" s="72"/>
+      <c r="V3" s="67"/>
       <c r="W3" s="44"/>
       <c r="X3" s="44"/>
       <c r="Y3" s="44"/>
@@ -4116,7 +3933,7 @@
       <c r="AE3" s="44"/>
       <c r="AF3" s="44"/>
       <c r="AG3" s="44"/>
-      <c r="AH3" s="90"/>
+      <c r="AH3" s="83"/>
       <c r="AI3" s="45"/>
       <c r="AJ3" s="46"/>
       <c r="AK3" s="40"/>
@@ -4125,7 +3942,7 @@
       <c r="AN3" s="41"/>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="82" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="44">
@@ -4185,10 +4002,10 @@
       <c r="T4" s="44">
         <v>11</v>
       </c>
-      <c r="U4" s="111">
+      <c r="U4" s="101">
         <v>16</v>
       </c>
-      <c r="V4" s="72"/>
+      <c r="V4" s="67"/>
       <c r="W4" s="44"/>
       <c r="X4" s="44"/>
       <c r="Y4" s="44"/>
@@ -4200,7 +4017,7 @@
       <c r="AE4" s="44"/>
       <c r="AF4" s="44"/>
       <c r="AG4" s="44"/>
-      <c r="AH4" s="90"/>
+      <c r="AH4" s="83"/>
       <c r="AI4" s="45"/>
       <c r="AJ4" s="46"/>
       <c r="AK4" s="40"/>
@@ -4209,7 +4026,7 @@
       <c r="AN4" s="41"/>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="82" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="44">
@@ -4269,10 +4086,10 @@
       <c r="T5" s="44">
         <v>0.58</v>
       </c>
-      <c r="U5" s="111">
+      <c r="U5" s="101">
         <v>0.2</v>
       </c>
-      <c r="V5" s="72"/>
+      <c r="V5" s="67"/>
       <c r="W5" s="44"/>
       <c r="X5" s="44"/>
       <c r="Y5" s="44"/>
@@ -4284,7 +4101,7 @@
       <c r="AE5" s="44"/>
       <c r="AF5" s="44"/>
       <c r="AG5" s="44"/>
-      <c r="AH5" s="90"/>
+      <c r="AH5" s="83"/>
       <c r="AI5" s="45"/>
       <c r="AJ5" s="46"/>
       <c r="AK5" s="40"/>
@@ -4293,7 +4110,7 @@
       <c r="AN5" s="41"/>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" s="89" t="s">
+      <c r="A6" s="82" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="44">
@@ -4353,10 +4170,10 @@
       <c r="T6" s="44">
         <v>0</v>
       </c>
-      <c r="U6" s="111">
+      <c r="U6" s="101">
         <v>-35</v>
       </c>
-      <c r="V6" s="72"/>
+      <c r="V6" s="67"/>
       <c r="W6" s="44"/>
       <c r="X6" s="44"/>
       <c r="Y6" s="44"/>
@@ -4368,7 +4185,7 @@
       <c r="AE6" s="44"/>
       <c r="AF6" s="44"/>
       <c r="AG6" s="44"/>
-      <c r="AH6" s="90"/>
+      <c r="AH6" s="83"/>
       <c r="AI6" s="45"/>
       <c r="AJ6" s="46"/>
       <c r="AK6" s="40"/>
@@ -4377,7 +4194,7 @@
       <c r="AN6" s="41"/>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" s="89" t="s">
+      <c r="A7" s="82" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="44">
@@ -4437,10 +4254,10 @@
       <c r="T7" s="44">
         <v>65</v>
       </c>
-      <c r="U7" s="111">
+      <c r="U7" s="101">
         <v>100</v>
       </c>
-      <c r="V7" s="72"/>
+      <c r="V7" s="67"/>
       <c r="W7" s="44"/>
       <c r="X7" s="44"/>
       <c r="Y7" s="44"/>
@@ -4452,7 +4269,7 @@
       <c r="AE7" s="44"/>
       <c r="AF7" s="44"/>
       <c r="AG7" s="44"/>
-      <c r="AH7" s="90"/>
+      <c r="AH7" s="83"/>
       <c r="AI7" s="45"/>
       <c r="AJ7" s="46"/>
       <c r="AK7" s="40"/>
@@ -4461,7 +4278,7 @@
       <c r="AN7" s="41"/>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" s="89" t="s">
+      <c r="A8" s="82" t="s">
         <v>178</v>
       </c>
       <c r="B8" s="48" t="s">
@@ -4501,10 +4318,10 @@
       <c r="T8" s="48" t="s">
         <v>180</v>
       </c>
-      <c r="U8" s="113" t="s">
+      <c r="U8" s="103" t="s">
         <v>94</v>
       </c>
-      <c r="V8" s="103"/>
+      <c r="V8" s="95"/>
       <c r="W8" s="48"/>
       <c r="X8" s="48"/>
       <c r="Y8" s="48"/>
@@ -4516,7 +4333,7 @@
       <c r="AE8" s="44"/>
       <c r="AF8" s="44"/>
       <c r="AG8" s="44"/>
-      <c r="AH8" s="90"/>
+      <c r="AH8" s="83"/>
       <c r="AI8" s="45"/>
       <c r="AJ8" s="46"/>
       <c r="AK8" s="40"/>
@@ -4525,7 +4342,7 @@
       <c r="AN8" s="41"/>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" s="89" t="s">
+      <c r="A9" s="82" t="s">
         <v>229</v>
       </c>
       <c r="B9" s="44"/>
@@ -4551,10 +4368,10 @@
       <c r="R9" s="44"/>
       <c r="S9" s="44"/>
       <c r="T9" s="44"/>
-      <c r="U9" s="113" t="s">
+      <c r="U9" s="103" t="s">
         <v>180</v>
       </c>
-      <c r="V9" s="72"/>
+      <c r="V9" s="67"/>
       <c r="W9" s="44"/>
       <c r="X9" s="44"/>
       <c r="Y9" s="44"/>
@@ -4566,7 +4383,7 @@
       <c r="AE9" s="44"/>
       <c r="AF9" s="44"/>
       <c r="AG9" s="44"/>
-      <c r="AH9" s="90"/>
+      <c r="AH9" s="83"/>
       <c r="AI9" s="45"/>
       <c r="AJ9" s="46"/>
       <c r="AK9" s="40"/>
@@ -4575,40 +4392,40 @@
       <c r="AN9" s="41"/>
     </row>
     <row r="10" spans="1:40" ht="17.250000">
-      <c r="A10" s="98"/>
-      <c r="B10" s="99"/>
-      <c r="C10" s="99"/>
-      <c r="D10" s="99"/>
-      <c r="E10" s="99"/>
-      <c r="F10" s="99"/>
-      <c r="G10" s="99"/>
-      <c r="H10" s="99"/>
-      <c r="I10" s="99"/>
-      <c r="J10" s="99"/>
-      <c r="K10" s="99"/>
-      <c r="L10" s="99"/>
-      <c r="M10" s="99"/>
-      <c r="N10" s="99"/>
-      <c r="O10" s="99"/>
-      <c r="P10" s="99"/>
-      <c r="Q10" s="99"/>
-      <c r="R10" s="99"/>
-      <c r="S10" s="99"/>
-      <c r="T10" s="99"/>
-      <c r="U10" s="112"/>
-      <c r="V10" s="105"/>
-      <c r="W10" s="99"/>
-      <c r="X10" s="99"/>
-      <c r="Y10" s="99"/>
-      <c r="Z10" s="99"/>
-      <c r="AA10" s="99"/>
-      <c r="AB10" s="99"/>
-      <c r="AC10" s="99"/>
-      <c r="AD10" s="99"/>
-      <c r="AE10" s="99"/>
-      <c r="AF10" s="99"/>
-      <c r="AG10" s="99"/>
-      <c r="AH10" s="100"/>
+      <c r="A10" s="90"/>
+      <c r="B10" s="91"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="91"/>
+      <c r="E10" s="91"/>
+      <c r="F10" s="91"/>
+      <c r="G10" s="91"/>
+      <c r="H10" s="91"/>
+      <c r="I10" s="91"/>
+      <c r="J10" s="91"/>
+      <c r="K10" s="91"/>
+      <c r="L10" s="91"/>
+      <c r="M10" s="91"/>
+      <c r="N10" s="91"/>
+      <c r="O10" s="91"/>
+      <c r="P10" s="91"/>
+      <c r="Q10" s="91"/>
+      <c r="R10" s="91"/>
+      <c r="S10" s="91"/>
+      <c r="T10" s="91"/>
+      <c r="U10" s="102"/>
+      <c r="V10" s="97"/>
+      <c r="W10" s="91"/>
+      <c r="X10" s="91"/>
+      <c r="Y10" s="91"/>
+      <c r="Z10" s="91"/>
+      <c r="AA10" s="91"/>
+      <c r="AB10" s="91"/>
+      <c r="AC10" s="91"/>
+      <c r="AD10" s="91"/>
+      <c r="AE10" s="91"/>
+      <c r="AF10" s="91"/>
+      <c r="AG10" s="91"/>
+      <c r="AH10" s="92"/>
       <c r="AI10" s="45"/>
       <c r="AJ10" s="46"/>
       <c r="AK10" s="40"/>
@@ -4617,42 +4434,42 @@
       <c r="AN10" s="41"/>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" s="86" t="s">
+      <c r="A11" s="79" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="87"/>
-      <c r="C11" s="87"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="87"/>
-      <c r="H11" s="87"/>
-      <c r="I11" s="87"/>
-      <c r="J11" s="87"/>
-      <c r="K11" s="87"/>
-      <c r="L11" s="87"/>
-      <c r="M11" s="87"/>
-      <c r="N11" s="87"/>
-      <c r="O11" s="87"/>
-      <c r="P11" s="87"/>
-      <c r="Q11" s="87"/>
-      <c r="R11" s="87"/>
-      <c r="S11" s="87"/>
-      <c r="T11" s="87"/>
-      <c r="U11" s="87"/>
-      <c r="V11" s="87"/>
-      <c r="W11" s="87"/>
-      <c r="X11" s="110"/>
-      <c r="Y11" s="104"/>
-      <c r="Z11" s="87"/>
-      <c r="AA11" s="87"/>
-      <c r="AB11" s="87"/>
-      <c r="AC11" s="87"/>
-      <c r="AD11" s="87"/>
-      <c r="AE11" s="87"/>
-      <c r="AF11" s="87"/>
-      <c r="AG11" s="87"/>
-      <c r="AH11" s="88"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="80"/>
+      <c r="J11" s="80"/>
+      <c r="K11" s="80"/>
+      <c r="L11" s="80"/>
+      <c r="M11" s="80"/>
+      <c r="N11" s="80"/>
+      <c r="O11" s="80"/>
+      <c r="P11" s="80"/>
+      <c r="Q11" s="80"/>
+      <c r="R11" s="80"/>
+      <c r="S11" s="80"/>
+      <c r="T11" s="80"/>
+      <c r="U11" s="80"/>
+      <c r="V11" s="80"/>
+      <c r="W11" s="80"/>
+      <c r="X11" s="100"/>
+      <c r="Y11" s="96"/>
+      <c r="Z11" s="80"/>
+      <c r="AA11" s="80"/>
+      <c r="AB11" s="80"/>
+      <c r="AC11" s="80"/>
+      <c r="AD11" s="80"/>
+      <c r="AE11" s="80"/>
+      <c r="AF11" s="80"/>
+      <c r="AG11" s="80"/>
+      <c r="AH11" s="81"/>
       <c r="AI11" s="45"/>
       <c r="AJ11" s="46"/>
       <c r="AK11" s="40"/>
@@ -4661,7 +4478,7 @@
       <c r="AN11" s="41"/>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" s="89" t="s">
+      <c r="A12" s="82" t="s">
         <v>102</v>
       </c>
       <c r="B12" s="44" t="s">
@@ -4730,10 +4547,10 @@
       <c r="W12" s="44" t="s">
         <v>156</v>
       </c>
-      <c r="X12" s="111" t="s">
+      <c r="X12" s="101" t="s">
         <v>157</v>
       </c>
-      <c r="Y12" s="72"/>
+      <c r="Y12" s="67"/>
       <c r="Z12" s="44"/>
       <c r="AA12" s="44"/>
       <c r="AB12" s="44"/>
@@ -4742,7 +4559,7 @@
       <c r="AE12" s="44"/>
       <c r="AF12" s="44"/>
       <c r="AG12" s="44"/>
-      <c r="AH12" s="90"/>
+      <c r="AH12" s="83"/>
       <c r="AI12" s="45"/>
       <c r="AJ12" s="46"/>
       <c r="AK12" s="40"/>
@@ -4751,7 +4568,7 @@
       <c r="AN12" s="41"/>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" s="89" t="s">
+      <c r="A13" s="82" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="44" t="s">
@@ -4806,7 +4623,7 @@
         <v>77</v>
       </c>
       <c r="S13" s="44" t="s">
-        <v>78</v>
+        <v>302</v>
       </c>
       <c r="T13" s="44" t="s">
         <v>83</v>
@@ -4820,10 +4637,10 @@
       <c r="W13" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="X13" s="111" t="s">
+      <c r="X13" s="101" t="s">
         <v>89</v>
       </c>
-      <c r="Y13" s="72"/>
+      <c r="Y13" s="67"/>
       <c r="Z13" s="44"/>
       <c r="AA13" s="44"/>
       <c r="AB13" s="44"/>
@@ -4832,7 +4649,7 @@
       <c r="AE13" s="44"/>
       <c r="AF13" s="44"/>
       <c r="AG13" s="44"/>
-      <c r="AH13" s="90"/>
+      <c r="AH13" s="83"/>
       <c r="AI13" s="45"/>
       <c r="AJ13" s="46"/>
       <c r="AK13" s="40"/>
@@ -4841,7 +4658,7 @@
       <c r="AN13" s="41"/>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" s="89" t="s">
+      <c r="A14" s="82" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="44">
@@ -4910,10 +4727,10 @@
       <c r="W14" s="44">
         <v>3</v>
       </c>
-      <c r="X14" s="111">
+      <c r="X14" s="101">
         <v>11</v>
       </c>
-      <c r="Y14" s="72"/>
+      <c r="Y14" s="67"/>
       <c r="Z14" s="44"/>
       <c r="AA14" s="44"/>
       <c r="AB14" s="44"/>
@@ -4922,7 +4739,7 @@
       <c r="AE14" s="44"/>
       <c r="AF14" s="44"/>
       <c r="AG14" s="44"/>
-      <c r="AH14" s="90"/>
+      <c r="AH14" s="83"/>
       <c r="AI14" s="45"/>
       <c r="AJ14" s="46"/>
       <c r="AK14" s="40"/>
@@ -4931,7 +4748,7 @@
       <c r="AN14" s="41"/>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" s="89" t="s">
+      <c r="A15" s="82" t="s">
         <v>3</v>
       </c>
       <c r="B15" s="44">
@@ -5000,10 +4817,10 @@
       <c r="W15" s="44">
         <v>0.2</v>
       </c>
-      <c r="X15" s="111">
+      <c r="X15" s="101">
         <v>2</v>
       </c>
-      <c r="Y15" s="72"/>
+      <c r="Y15" s="67"/>
       <c r="Z15" s="44"/>
       <c r="AA15" s="44"/>
       <c r="AB15" s="44"/>
@@ -5012,7 +4829,7 @@
       <c r="AE15" s="44"/>
       <c r="AF15" s="44"/>
       <c r="AG15" s="44"/>
-      <c r="AH15" s="90"/>
+      <c r="AH15" s="83"/>
       <c r="AI15" s="45"/>
       <c r="AJ15" s="46"/>
       <c r="AK15" s="40"/>
@@ -5021,7 +4838,7 @@
       <c r="AN15" s="41"/>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" s="89" t="s">
+      <c r="A16" s="82" t="s">
         <v>178</v>
       </c>
       <c r="B16" s="48" t="s">
@@ -5058,8 +4875,8 @@
       </c>
       <c r="V16" s="48"/>
       <c r="W16" s="48"/>
-      <c r="X16" s="113"/>
-      <c r="Y16" s="103"/>
+      <c r="X16" s="103"/>
+      <c r="Y16" s="95"/>
       <c r="Z16" s="48"/>
       <c r="AA16" s="48"/>
       <c r="AB16" s="48"/>
@@ -5068,7 +4885,7 @@
       <c r="AE16" s="44"/>
       <c r="AF16" s="44"/>
       <c r="AG16" s="44"/>
-      <c r="AH16" s="90"/>
+      <c r="AH16" s="83"/>
       <c r="AI16" s="45"/>
       <c r="AJ16" s="46"/>
       <c r="AK16" s="40"/>
@@ -5077,7 +4894,7 @@
       <c r="AN16" s="41"/>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" s="89" t="s">
+      <c r="A17" s="82" t="s">
         <v>229</v>
       </c>
       <c r="B17" s="44"/>
@@ -5126,10 +4943,10 @@
       </c>
       <c r="V17" s="44"/>
       <c r="W17" s="44"/>
-      <c r="X17" s="113" t="s">
+      <c r="X17" s="103" t="s">
         <v>180</v>
       </c>
-      <c r="Y17" s="72"/>
+      <c r="Y17" s="67"/>
       <c r="Z17" s="44"/>
       <c r="AA17" s="44"/>
       <c r="AB17" s="44"/>
@@ -5138,7 +4955,7 @@
       <c r="AE17" s="44"/>
       <c r="AF17" s="44"/>
       <c r="AG17" s="44"/>
-      <c r="AH17" s="90"/>
+      <c r="AH17" s="83"/>
       <c r="AI17" s="45"/>
       <c r="AJ17" s="46"/>
       <c r="AK17" s="40"/>
@@ -5147,40 +4964,40 @@
       <c r="AN17" s="41"/>
     </row>
     <row r="18" spans="1:40" ht="17.250000">
-      <c r="A18" s="98"/>
-      <c r="B18" s="99"/>
-      <c r="C18" s="99"/>
-      <c r="D18" s="99"/>
-      <c r="E18" s="99"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="99"/>
-      <c r="H18" s="99"/>
-      <c r="I18" s="99"/>
-      <c r="J18" s="99"/>
-      <c r="K18" s="99"/>
-      <c r="L18" s="99"/>
-      <c r="M18" s="99"/>
-      <c r="N18" s="99"/>
-      <c r="O18" s="99"/>
-      <c r="P18" s="99"/>
-      <c r="Q18" s="99"/>
-      <c r="R18" s="99"/>
-      <c r="S18" s="99"/>
-      <c r="T18" s="99"/>
-      <c r="U18" s="99"/>
-      <c r="V18" s="99"/>
-      <c r="W18" s="99"/>
-      <c r="X18" s="112"/>
-      <c r="Y18" s="105"/>
-      <c r="Z18" s="99"/>
-      <c r="AA18" s="99"/>
-      <c r="AB18" s="99"/>
-      <c r="AC18" s="99"/>
-      <c r="AD18" s="99"/>
-      <c r="AE18" s="99"/>
-      <c r="AF18" s="99"/>
-      <c r="AG18" s="99"/>
-      <c r="AH18" s="100"/>
+      <c r="A18" s="90"/>
+      <c r="B18" s="91"/>
+      <c r="C18" s="91"/>
+      <c r="D18" s="91"/>
+      <c r="E18" s="91"/>
+      <c r="F18" s="91"/>
+      <c r="G18" s="91"/>
+      <c r="H18" s="91"/>
+      <c r="I18" s="91"/>
+      <c r="J18" s="91"/>
+      <c r="K18" s="91"/>
+      <c r="L18" s="91"/>
+      <c r="M18" s="91"/>
+      <c r="N18" s="91"/>
+      <c r="O18" s="91"/>
+      <c r="P18" s="91"/>
+      <c r="Q18" s="91"/>
+      <c r="R18" s="91"/>
+      <c r="S18" s="91"/>
+      <c r="T18" s="91"/>
+      <c r="U18" s="91"/>
+      <c r="V18" s="91"/>
+      <c r="W18" s="91"/>
+      <c r="X18" s="102"/>
+      <c r="Y18" s="97"/>
+      <c r="Z18" s="91"/>
+      <c r="AA18" s="91"/>
+      <c r="AB18" s="91"/>
+      <c r="AC18" s="91"/>
+      <c r="AD18" s="91"/>
+      <c r="AE18" s="91"/>
+      <c r="AF18" s="91"/>
+      <c r="AG18" s="91"/>
+      <c r="AH18" s="92"/>
       <c r="AI18" s="45"/>
       <c r="AJ18" s="46"/>
       <c r="AK18" s="40"/>
@@ -5189,42 +5006,42 @@
       <c r="AN18" s="41"/>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" s="86" t="s">
+      <c r="A19" s="79" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="87"/>
-      <c r="C19" s="87"/>
-      <c r="D19" s="87"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="87"/>
-      <c r="G19" s="87"/>
-      <c r="H19" s="87"/>
-      <c r="I19" s="110"/>
-      <c r="J19" s="104"/>
-      <c r="K19" s="87"/>
-      <c r="L19" s="87"/>
-      <c r="M19" s="87"/>
-      <c r="N19" s="87"/>
-      <c r="O19" s="87"/>
-      <c r="P19" s="87"/>
-      <c r="Q19" s="87"/>
-      <c r="R19" s="87"/>
-      <c r="S19" s="87"/>
-      <c r="T19" s="87"/>
-      <c r="U19" s="87"/>
-      <c r="V19" s="87"/>
-      <c r="W19" s="87"/>
-      <c r="X19" s="87"/>
-      <c r="Y19" s="87"/>
-      <c r="Z19" s="87"/>
-      <c r="AA19" s="87"/>
-      <c r="AB19" s="87"/>
-      <c r="AC19" s="87"/>
-      <c r="AD19" s="87"/>
-      <c r="AE19" s="87"/>
-      <c r="AF19" s="87"/>
-      <c r="AG19" s="87"/>
-      <c r="AH19" s="88"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="80"/>
+      <c r="I19" s="100"/>
+      <c r="J19" s="96"/>
+      <c r="K19" s="80"/>
+      <c r="L19" s="80"/>
+      <c r="M19" s="80"/>
+      <c r="N19" s="80"/>
+      <c r="O19" s="80"/>
+      <c r="P19" s="80"/>
+      <c r="Q19" s="80"/>
+      <c r="R19" s="80"/>
+      <c r="S19" s="80"/>
+      <c r="T19" s="80"/>
+      <c r="U19" s="80"/>
+      <c r="V19" s="80"/>
+      <c r="W19" s="80"/>
+      <c r="X19" s="80"/>
+      <c r="Y19" s="80"/>
+      <c r="Z19" s="80"/>
+      <c r="AA19" s="80"/>
+      <c r="AB19" s="80"/>
+      <c r="AC19" s="80"/>
+      <c r="AD19" s="80"/>
+      <c r="AE19" s="80"/>
+      <c r="AF19" s="80"/>
+      <c r="AG19" s="80"/>
+      <c r="AH19" s="81"/>
       <c r="AI19" s="45"/>
       <c r="AJ19" s="46"/>
       <c r="AK19" s="40"/>
@@ -5233,7 +5050,7 @@
       <c r="AN19" s="41"/>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" s="89" t="s">
+      <c r="A20" s="82" t="s">
         <v>102</v>
       </c>
       <c r="B20" s="44" t="s">
@@ -5257,10 +5074,10 @@
       <c r="H20" s="44" t="s">
         <v>168</v>
       </c>
-      <c r="I20" s="111" t="s">
+      <c r="I20" s="101" t="s">
         <v>171</v>
       </c>
-      <c r="J20" s="72"/>
+      <c r="J20" s="67"/>
       <c r="K20" s="44"/>
       <c r="L20" s="44"/>
       <c r="M20" s="44"/>
@@ -5284,7 +5101,7 @@
       <c r="AE20" s="44"/>
       <c r="AF20" s="44"/>
       <c r="AG20" s="44"/>
-      <c r="AH20" s="90"/>
+      <c r="AH20" s="83"/>
       <c r="AI20" s="45"/>
       <c r="AJ20" s="46"/>
       <c r="AK20" s="40"/>
@@ -5293,7 +5110,7 @@
       <c r="AN20" s="41"/>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" s="89" t="s">
+      <c r="A21" s="82" t="s">
         <v>4</v>
       </c>
       <c r="B21" s="44" t="s">
@@ -5317,10 +5134,10 @@
       <c r="H21" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="I21" s="111" t="s">
+      <c r="I21" s="101" t="s">
         <v>93</v>
       </c>
-      <c r="J21" s="72"/>
+      <c r="J21" s="67"/>
       <c r="K21" s="44"/>
       <c r="L21" s="44"/>
       <c r="M21" s="44"/>
@@ -5344,7 +5161,7 @@
       <c r="AE21" s="44"/>
       <c r="AF21" s="44"/>
       <c r="AG21" s="44"/>
-      <c r="AH21" s="90"/>
+      <c r="AH21" s="83"/>
       <c r="AI21" s="45"/>
       <c r="AJ21" s="46"/>
       <c r="AK21" s="40"/>
@@ -5353,7 +5170,7 @@
       <c r="AN21" s="41"/>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" s="89" t="s">
+      <c r="A22" s="82" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="44">
@@ -5377,10 +5194,10 @@
       <c r="H22" s="44">
         <v>16</v>
       </c>
-      <c r="I22" s="111">
+      <c r="I22" s="101">
         <v>1</v>
       </c>
-      <c r="J22" s="72"/>
+      <c r="J22" s="67"/>
       <c r="K22" s="44"/>
       <c r="L22" s="44"/>
       <c r="M22" s="44"/>
@@ -5404,7 +5221,7 @@
       <c r="AE22" s="44"/>
       <c r="AF22" s="44"/>
       <c r="AG22" s="44"/>
-      <c r="AH22" s="90"/>
+      <c r="AH22" s="83"/>
       <c r="AI22" s="45"/>
       <c r="AJ22" s="46"/>
       <c r="AK22" s="40"/>
@@ -5413,7 +5230,7 @@
       <c r="AN22" s="41"/>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" s="89" t="s">
+      <c r="A23" s="82" t="s">
         <v>3</v>
       </c>
       <c r="B23" s="44">
@@ -5437,10 +5254,10 @@
       <c r="H23" s="44">
         <v>0.4</v>
       </c>
-      <c r="I23" s="111">
+      <c r="I23" s="101">
         <v>0.002</v>
       </c>
-      <c r="J23" s="72"/>
+      <c r="J23" s="67"/>
       <c r="K23" s="44"/>
       <c r="L23" s="44"/>
       <c r="M23" s="44"/>
@@ -5464,7 +5281,7 @@
       <c r="AE23" s="44"/>
       <c r="AF23" s="44"/>
       <c r="AG23" s="44"/>
-      <c r="AH23" s="90"/>
+      <c r="AH23" s="83"/>
       <c r="AI23" s="45"/>
       <c r="AJ23" s="46"/>
       <c r="AK23" s="40"/>
@@ -5473,7 +5290,7 @@
       <c r="AN23" s="41"/>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" s="89" t="s">
+      <c r="A24" s="82" t="s">
         <v>178</v>
       </c>
       <c r="B24" s="48"/>
@@ -5483,8 +5300,8 @@
       <c r="F24" s="48"/>
       <c r="G24" s="48"/>
       <c r="H24" s="48"/>
-      <c r="I24" s="113"/>
-      <c r="J24" s="103"/>
+      <c r="I24" s="103"/>
+      <c r="J24" s="95"/>
       <c r="K24" s="48"/>
       <c r="L24" s="44"/>
       <c r="M24" s="44"/>
@@ -5508,7 +5325,7 @@
       <c r="AE24" s="44"/>
       <c r="AF24" s="44"/>
       <c r="AG24" s="44"/>
-      <c r="AH24" s="90"/>
+      <c r="AH24" s="83"/>
       <c r="AI24" s="45"/>
       <c r="AJ24" s="46"/>
       <c r="AK24" s="40"/>
@@ -5517,7 +5334,7 @@
       <c r="AN24" s="41"/>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" s="89" t="s">
+      <c r="A25" s="82" t="s">
         <v>229</v>
       </c>
       <c r="B25" s="44"/>
@@ -5527,8 +5344,8 @@
       <c r="F25" s="44"/>
       <c r="G25" s="44"/>
       <c r="H25" s="44"/>
-      <c r="I25" s="111"/>
-      <c r="J25" s="72"/>
+      <c r="I25" s="101"/>
+      <c r="J25" s="67"/>
       <c r="K25" s="44"/>
       <c r="L25" s="44"/>
       <c r="M25" s="44"/>
@@ -5552,7 +5369,7 @@
       <c r="AE25" s="44"/>
       <c r="AF25" s="44"/>
       <c r="AG25" s="44"/>
-      <c r="AH25" s="90"/>
+      <c r="AH25" s="83"/>
       <c r="AI25" s="45"/>
       <c r="AJ25" s="46"/>
       <c r="AK25" s="40"/>
@@ -5561,40 +5378,40 @@
       <c r="AN25" s="41"/>
     </row>
     <row r="26" spans="1:40" ht="17.250000">
-      <c r="A26" s="98"/>
-      <c r="B26" s="99"/>
-      <c r="C26" s="99"/>
-      <c r="D26" s="99"/>
-      <c r="E26" s="99"/>
-      <c r="F26" s="99"/>
-      <c r="G26" s="99"/>
-      <c r="H26" s="99"/>
-      <c r="I26" s="112"/>
-      <c r="J26" s="105"/>
-      <c r="K26" s="99"/>
-      <c r="L26" s="99"/>
-      <c r="M26" s="99"/>
-      <c r="N26" s="99"/>
-      <c r="O26" s="99"/>
-      <c r="P26" s="99"/>
-      <c r="Q26" s="99"/>
-      <c r="R26" s="99"/>
-      <c r="S26" s="99"/>
-      <c r="T26" s="99"/>
-      <c r="U26" s="99"/>
-      <c r="V26" s="99"/>
-      <c r="W26" s="99"/>
-      <c r="X26" s="99"/>
-      <c r="Y26" s="99"/>
-      <c r="Z26" s="99"/>
-      <c r="AA26" s="99"/>
-      <c r="AB26" s="99"/>
-      <c r="AC26" s="99"/>
-      <c r="AD26" s="99"/>
-      <c r="AE26" s="99"/>
-      <c r="AF26" s="99"/>
-      <c r="AG26" s="99"/>
-      <c r="AH26" s="100"/>
+      <c r="A26" s="90"/>
+      <c r="B26" s="91"/>
+      <c r="C26" s="91"/>
+      <c r="D26" s="91"/>
+      <c r="E26" s="91"/>
+      <c r="F26" s="91"/>
+      <c r="G26" s="91"/>
+      <c r="H26" s="91"/>
+      <c r="I26" s="102"/>
+      <c r="J26" s="97"/>
+      <c r="K26" s="91"/>
+      <c r="L26" s="91"/>
+      <c r="M26" s="91"/>
+      <c r="N26" s="91"/>
+      <c r="O26" s="91"/>
+      <c r="P26" s="91"/>
+      <c r="Q26" s="91"/>
+      <c r="R26" s="91"/>
+      <c r="S26" s="91"/>
+      <c r="T26" s="91"/>
+      <c r="U26" s="91"/>
+      <c r="V26" s="91"/>
+      <c r="W26" s="91"/>
+      <c r="X26" s="91"/>
+      <c r="Y26" s="91"/>
+      <c r="Z26" s="91"/>
+      <c r="AA26" s="91"/>
+      <c r="AB26" s="91"/>
+      <c r="AC26" s="91"/>
+      <c r="AD26" s="91"/>
+      <c r="AE26" s="91"/>
+      <c r="AF26" s="91"/>
+      <c r="AG26" s="91"/>
+      <c r="AH26" s="92"/>
       <c r="AI26" s="45"/>
       <c r="AJ26" s="46"/>
       <c r="AK26" s="40"/>
@@ -5603,42 +5420,42 @@
       <c r="AN26" s="41"/>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" s="86" t="s">
+      <c r="A27" s="79" t="s">
         <v>96</v>
       </c>
-      <c r="B27" s="87"/>
-      <c r="C27" s="87"/>
-      <c r="D27" s="87"/>
-      <c r="E27" s="87"/>
-      <c r="F27" s="87"/>
-      <c r="G27" s="87"/>
-      <c r="H27" s="110"/>
-      <c r="I27" s="104"/>
-      <c r="J27" s="87"/>
-      <c r="K27" s="87"/>
-      <c r="L27" s="87"/>
-      <c r="M27" s="87"/>
-      <c r="N27" s="87"/>
-      <c r="O27" s="87"/>
-      <c r="P27" s="87"/>
-      <c r="Q27" s="87"/>
-      <c r="R27" s="87"/>
-      <c r="S27" s="87"/>
-      <c r="T27" s="87"/>
-      <c r="U27" s="87"/>
-      <c r="V27" s="87"/>
-      <c r="W27" s="87"/>
-      <c r="X27" s="87"/>
-      <c r="Y27" s="87"/>
-      <c r="Z27" s="87"/>
-      <c r="AA27" s="87"/>
-      <c r="AB27" s="87"/>
-      <c r="AC27" s="87"/>
-      <c r="AD27" s="87"/>
-      <c r="AE27" s="87"/>
-      <c r="AF27" s="87"/>
-      <c r="AG27" s="87"/>
-      <c r="AH27" s="88"/>
+      <c r="B27" s="80"/>
+      <c r="C27" s="80"/>
+      <c r="D27" s="80"/>
+      <c r="E27" s="80"/>
+      <c r="F27" s="80"/>
+      <c r="G27" s="80"/>
+      <c r="H27" s="100"/>
+      <c r="I27" s="96"/>
+      <c r="J27" s="80"/>
+      <c r="K27" s="80"/>
+      <c r="L27" s="80"/>
+      <c r="M27" s="80"/>
+      <c r="N27" s="80"/>
+      <c r="O27" s="80"/>
+      <c r="P27" s="80"/>
+      <c r="Q27" s="80"/>
+      <c r="R27" s="80"/>
+      <c r="S27" s="80"/>
+      <c r="T27" s="80"/>
+      <c r="U27" s="80"/>
+      <c r="V27" s="80"/>
+      <c r="W27" s="80"/>
+      <c r="X27" s="80"/>
+      <c r="Y27" s="80"/>
+      <c r="Z27" s="80"/>
+      <c r="AA27" s="80"/>
+      <c r="AB27" s="80"/>
+      <c r="AC27" s="80"/>
+      <c r="AD27" s="80"/>
+      <c r="AE27" s="80"/>
+      <c r="AF27" s="80"/>
+      <c r="AG27" s="80"/>
+      <c r="AH27" s="81"/>
       <c r="AI27" s="45"/>
       <c r="AJ27" s="46"/>
       <c r="AK27" s="40"/>
@@ -5647,7 +5464,7 @@
       <c r="AN27" s="41"/>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" s="89" t="s">
+      <c r="A28" s="82" t="s">
         <v>102</v>
       </c>
       <c r="B28" s="44" t="s">
@@ -5662,8 +5479,8 @@
       <c r="E28" s="44"/>
       <c r="F28" s="44"/>
       <c r="G28" s="44"/>
-      <c r="H28" s="111"/>
-      <c r="I28" s="72"/>
+      <c r="H28" s="101"/>
+      <c r="I28" s="67"/>
       <c r="J28" s="44"/>
       <c r="K28" s="44"/>
       <c r="L28" s="44"/>
@@ -5688,7 +5505,7 @@
       <c r="AE28" s="44"/>
       <c r="AF28" s="44"/>
       <c r="AG28" s="44"/>
-      <c r="AH28" s="90"/>
+      <c r="AH28" s="83"/>
       <c r="AI28" s="45"/>
       <c r="AJ28" s="46"/>
       <c r="AK28" s="40"/>
@@ -5697,7 +5514,7 @@
       <c r="AN28" s="41"/>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" s="89" t="s">
+      <c r="A29" s="82" t="s">
         <v>4</v>
       </c>
       <c r="B29" s="44" t="s">
@@ -5712,8 +5529,8 @@
       <c r="E29" s="44"/>
       <c r="F29" s="44"/>
       <c r="G29" s="44"/>
-      <c r="H29" s="111"/>
-      <c r="I29" s="72"/>
+      <c r="H29" s="101"/>
+      <c r="I29" s="67"/>
       <c r="J29" s="44"/>
       <c r="K29" s="44"/>
       <c r="L29" s="44"/>
@@ -5738,7 +5555,7 @@
       <c r="AE29" s="44"/>
       <c r="AF29" s="44"/>
       <c r="AG29" s="44"/>
-      <c r="AH29" s="90"/>
+      <c r="AH29" s="83"/>
       <c r="AI29" s="45"/>
       <c r="AJ29" s="46"/>
       <c r="AK29" s="40"/>
@@ -5747,7 +5564,7 @@
       <c r="AN29" s="41"/>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" s="89" t="s">
+      <c r="A30" s="82" t="s">
         <v>22</v>
       </c>
       <c r="B30" s="44">
@@ -5762,8 +5579,8 @@
       <c r="E30" s="44"/>
       <c r="F30" s="44"/>
       <c r="G30" s="44"/>
-      <c r="H30" s="111"/>
-      <c r="I30" s="72"/>
+      <c r="H30" s="101"/>
+      <c r="I30" s="67"/>
       <c r="J30" s="44"/>
       <c r="K30" s="44"/>
       <c r="L30" s="44"/>
@@ -5788,7 +5605,7 @@
       <c r="AE30" s="44"/>
       <c r="AF30" s="44"/>
       <c r="AG30" s="44"/>
-      <c r="AH30" s="90"/>
+      <c r="AH30" s="83"/>
       <c r="AI30" s="45"/>
       <c r="AJ30" s="46"/>
       <c r="AK30" s="40"/>
@@ -5797,7 +5614,7 @@
       <c r="AN30" s="41"/>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" s="89" t="s">
+      <c r="A31" s="82" t="s">
         <v>3</v>
       </c>
       <c r="B31" s="44">
@@ -5812,8 +5629,8 @@
       <c r="E31" s="44"/>
       <c r="F31" s="44"/>
       <c r="G31" s="44"/>
-      <c r="H31" s="111"/>
-      <c r="I31" s="72"/>
+      <c r="H31" s="101"/>
+      <c r="I31" s="67"/>
       <c r="J31" s="44"/>
       <c r="K31" s="44"/>
       <c r="L31" s="44"/>
@@ -5838,7 +5655,7 @@
       <c r="AE31" s="44"/>
       <c r="AF31" s="44"/>
       <c r="AG31" s="44"/>
-      <c r="AH31" s="90"/>
+      <c r="AH31" s="83"/>
       <c r="AI31" s="45"/>
       <c r="AJ31" s="46"/>
       <c r="AK31" s="40"/>
@@ -5847,7 +5664,7 @@
       <c r="AN31" s="41"/>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" s="89" t="s">
+      <c r="A32" s="82" t="s">
         <v>178</v>
       </c>
       <c r="B32" s="48" t="s">
@@ -5862,8 +5679,8 @@
       <c r="E32" s="48"/>
       <c r="F32" s="44"/>
       <c r="G32" s="44"/>
-      <c r="H32" s="111"/>
-      <c r="I32" s="72"/>
+      <c r="H32" s="101"/>
+      <c r="I32" s="67"/>
       <c r="J32" s="44"/>
       <c r="K32" s="44"/>
       <c r="L32" s="44"/>
@@ -5888,7 +5705,7 @@
       <c r="AE32" s="44"/>
       <c r="AF32" s="44"/>
       <c r="AG32" s="44"/>
-      <c r="AH32" s="90"/>
+      <c r="AH32" s="83"/>
       <c r="AI32" s="45"/>
       <c r="AJ32" s="46"/>
       <c r="AK32" s="40"/>
@@ -5897,7 +5714,7 @@
       <c r="AN32" s="41"/>
     </row>
     <row r="33" spans="1:40">
-      <c r="A33" s="89" t="s">
+      <c r="A33" s="82" t="s">
         <v>229</v>
       </c>
       <c r="B33" s="44"/>
@@ -5910,8 +5727,8 @@
       <c r="E33" s="44"/>
       <c r="F33" s="44"/>
       <c r="G33" s="44"/>
-      <c r="H33" s="111"/>
-      <c r="I33" s="72"/>
+      <c r="H33" s="101"/>
+      <c r="I33" s="67"/>
       <c r="J33" s="44"/>
       <c r="K33" s="44"/>
       <c r="L33" s="44"/>
@@ -5936,7 +5753,7 @@
       <c r="AE33" s="44"/>
       <c r="AF33" s="44"/>
       <c r="AG33" s="44"/>
-      <c r="AH33" s="90"/>
+      <c r="AH33" s="83"/>
       <c r="AI33" s="45"/>
       <c r="AJ33" s="46"/>
       <c r="AK33" s="40"/>
@@ -5945,40 +5762,40 @@
       <c r="AN33" s="41"/>
     </row>
     <row r="34" spans="1:40" ht="17.250000">
-      <c r="A34" s="98"/>
-      <c r="B34" s="99"/>
-      <c r="C34" s="99"/>
-      <c r="D34" s="99"/>
-      <c r="E34" s="99"/>
-      <c r="F34" s="99"/>
-      <c r="G34" s="99"/>
-      <c r="H34" s="112"/>
-      <c r="I34" s="105"/>
-      <c r="J34" s="99"/>
-      <c r="K34" s="99"/>
-      <c r="L34" s="99"/>
-      <c r="M34" s="99"/>
-      <c r="N34" s="99"/>
-      <c r="O34" s="99"/>
-      <c r="P34" s="99"/>
-      <c r="Q34" s="99"/>
-      <c r="R34" s="99"/>
-      <c r="S34" s="99"/>
-      <c r="T34" s="99"/>
-      <c r="U34" s="99"/>
-      <c r="V34" s="99"/>
-      <c r="W34" s="99"/>
-      <c r="X34" s="99"/>
-      <c r="Y34" s="99"/>
-      <c r="Z34" s="99"/>
-      <c r="AA34" s="99"/>
-      <c r="AB34" s="99"/>
-      <c r="AC34" s="99"/>
-      <c r="AD34" s="99"/>
-      <c r="AE34" s="99"/>
-      <c r="AF34" s="99"/>
-      <c r="AG34" s="99"/>
-      <c r="AH34" s="100"/>
+      <c r="A34" s="90"/>
+      <c r="B34" s="91"/>
+      <c r="C34" s="91"/>
+      <c r="D34" s="91"/>
+      <c r="E34" s="91"/>
+      <c r="F34" s="91"/>
+      <c r="G34" s="91"/>
+      <c r="H34" s="102"/>
+      <c r="I34" s="97"/>
+      <c r="J34" s="91"/>
+      <c r="K34" s="91"/>
+      <c r="L34" s="91"/>
+      <c r="M34" s="91"/>
+      <c r="N34" s="91"/>
+      <c r="O34" s="91"/>
+      <c r="P34" s="91"/>
+      <c r="Q34" s="91"/>
+      <c r="R34" s="91"/>
+      <c r="S34" s="91"/>
+      <c r="T34" s="91"/>
+      <c r="U34" s="91"/>
+      <c r="V34" s="91"/>
+      <c r="W34" s="91"/>
+      <c r="X34" s="91"/>
+      <c r="Y34" s="91"/>
+      <c r="Z34" s="91"/>
+      <c r="AA34" s="91"/>
+      <c r="AB34" s="91"/>
+      <c r="AC34" s="91"/>
+      <c r="AD34" s="91"/>
+      <c r="AE34" s="91"/>
+      <c r="AF34" s="91"/>
+      <c r="AG34" s="91"/>
+      <c r="AH34" s="92"/>
       <c r="AI34" s="45"/>
       <c r="AJ34" s="46"/>
       <c r="AK34" s="40"/>
@@ -5987,42 +5804,42 @@
       <c r="AN34" s="41"/>
     </row>
     <row r="35" spans="1:40">
-      <c r="A35" s="86" t="s">
+      <c r="A35" s="79" t="s">
         <v>192</v>
       </c>
-      <c r="B35" s="87"/>
-      <c r="C35" s="87"/>
-      <c r="D35" s="87"/>
-      <c r="E35" s="87"/>
-      <c r="F35" s="87"/>
-      <c r="G35" s="87"/>
-      <c r="H35" s="110"/>
-      <c r="I35" s="104"/>
-      <c r="J35" s="87"/>
-      <c r="K35" s="87"/>
-      <c r="L35" s="87"/>
-      <c r="M35" s="87"/>
-      <c r="N35" s="87"/>
-      <c r="O35" s="87"/>
-      <c r="P35" s="87"/>
-      <c r="Q35" s="87"/>
-      <c r="R35" s="87"/>
-      <c r="S35" s="87"/>
-      <c r="T35" s="87"/>
-      <c r="U35" s="87"/>
-      <c r="V35" s="87"/>
-      <c r="W35" s="87"/>
-      <c r="X35" s="87"/>
-      <c r="Y35" s="87"/>
-      <c r="Z35" s="87"/>
-      <c r="AA35" s="87"/>
-      <c r="AB35" s="87"/>
-      <c r="AC35" s="87"/>
-      <c r="AD35" s="87"/>
-      <c r="AE35" s="87"/>
-      <c r="AF35" s="87"/>
-      <c r="AG35" s="87"/>
-      <c r="AH35" s="88"/>
+      <c r="B35" s="80"/>
+      <c r="C35" s="80"/>
+      <c r="D35" s="80"/>
+      <c r="E35" s="80"/>
+      <c r="F35" s="80"/>
+      <c r="G35" s="80"/>
+      <c r="H35" s="100"/>
+      <c r="I35" s="96"/>
+      <c r="J35" s="80"/>
+      <c r="K35" s="80"/>
+      <c r="L35" s="80"/>
+      <c r="M35" s="80"/>
+      <c r="N35" s="80"/>
+      <c r="O35" s="80"/>
+      <c r="P35" s="80"/>
+      <c r="Q35" s="80"/>
+      <c r="R35" s="80"/>
+      <c r="S35" s="80"/>
+      <c r="T35" s="80"/>
+      <c r="U35" s="80"/>
+      <c r="V35" s="80"/>
+      <c r="W35" s="80"/>
+      <c r="X35" s="80"/>
+      <c r="Y35" s="80"/>
+      <c r="Z35" s="80"/>
+      <c r="AA35" s="80"/>
+      <c r="AB35" s="80"/>
+      <c r="AC35" s="80"/>
+      <c r="AD35" s="80"/>
+      <c r="AE35" s="80"/>
+      <c r="AF35" s="80"/>
+      <c r="AG35" s="80"/>
+      <c r="AH35" s="81"/>
       <c r="AI35" s="45"/>
       <c r="AJ35" s="46"/>
       <c r="AK35" s="40"/>
@@ -6031,7 +5848,7 @@
       <c r="AN35" s="41"/>
     </row>
     <row r="36" spans="1:40">
-      <c r="A36" s="89" t="s">
+      <c r="A36" s="82" t="s">
         <v>102</v>
       </c>
       <c r="B36" s="44" t="s">
@@ -6052,10 +5869,10 @@
       <c r="G36" s="44" t="s">
         <v>203</v>
       </c>
-      <c r="H36" s="111" t="s">
+      <c r="H36" s="101" t="s">
         <v>206</v>
       </c>
-      <c r="I36" s="72"/>
+      <c r="I36" s="67"/>
       <c r="J36" s="44"/>
       <c r="K36" s="44"/>
       <c r="L36" s="44"/>
@@ -6080,7 +5897,7 @@
       <c r="AE36" s="44"/>
       <c r="AF36" s="44"/>
       <c r="AG36" s="44"/>
-      <c r="AH36" s="90"/>
+      <c r="AH36" s="83"/>
       <c r="AI36" s="45"/>
       <c r="AJ36" s="46"/>
       <c r="AK36" s="40"/>
@@ -6089,7 +5906,7 @@
       <c r="AN36" s="41"/>
     </row>
     <row r="37" spans="1:40">
-      <c r="A37" s="89" t="s">
+      <c r="A37" s="82" t="s">
         <v>4</v>
       </c>
       <c r="B37" s="44" t="s">
@@ -6110,10 +5927,10 @@
       <c r="G37" s="44" t="s">
         <v>208</v>
       </c>
-      <c r="H37" s="111" t="s">
-        <v>205</v>
-      </c>
-      <c r="I37" s="72"/>
+      <c r="H37" s="101" t="s">
+        <v>204</v>
+      </c>
+      <c r="I37" s="67"/>
       <c r="J37" s="44"/>
       <c r="K37" s="44"/>
       <c r="L37" s="44"/>
@@ -6138,7 +5955,7 @@
       <c r="AE37" s="44"/>
       <c r="AF37" s="44"/>
       <c r="AG37" s="44"/>
-      <c r="AH37" s="90"/>
+      <c r="AH37" s="83"/>
       <c r="AI37" s="45"/>
       <c r="AJ37" s="46"/>
       <c r="AK37" s="40"/>
@@ -6147,7 +5964,7 @@
       <c r="AN37" s="41"/>
     </row>
     <row r="38" spans="1:40">
-      <c r="A38" s="89" t="s">
+      <c r="A38" s="82" t="s">
         <v>22</v>
       </c>
       <c r="B38" s="44">
@@ -6168,10 +5985,10 @@
       <c r="G38" s="44">
         <v>10</v>
       </c>
-      <c r="H38" s="111">
+      <c r="H38" s="101">
         <v>11</v>
       </c>
-      <c r="I38" s="72"/>
+      <c r="I38" s="67"/>
       <c r="J38" s="44"/>
       <c r="K38" s="44"/>
       <c r="L38" s="44"/>
@@ -6196,7 +6013,7 @@
       <c r="AE38" s="44"/>
       <c r="AF38" s="44"/>
       <c r="AG38" s="44"/>
-      <c r="AH38" s="90"/>
+      <c r="AH38" s="83"/>
       <c r="AI38" s="45"/>
       <c r="AJ38" s="46"/>
       <c r="AK38" s="40"/>
@@ -6205,7 +6022,7 @@
       <c r="AN38" s="41"/>
     </row>
     <row r="39" spans="1:40">
-      <c r="A39" s="89" t="s">
+      <c r="A39" s="82" t="s">
         <v>3</v>
       </c>
       <c r="B39" s="44">
@@ -6226,10 +6043,10 @@
       <c r="G39" s="44">
         <v>0.5</v>
       </c>
-      <c r="H39" s="111">
+      <c r="H39" s="101">
         <v>0.05</v>
       </c>
-      <c r="I39" s="72"/>
+      <c r="I39" s="67"/>
       <c r="J39" s="44"/>
       <c r="K39" s="44"/>
       <c r="L39" s="44"/>
@@ -6254,7 +6071,7 @@
       <c r="AE39" s="44"/>
       <c r="AF39" s="44"/>
       <c r="AG39" s="44"/>
-      <c r="AH39" s="90"/>
+      <c r="AH39" s="83"/>
       <c r="AI39" s="45"/>
       <c r="AJ39" s="46"/>
       <c r="AK39" s="40"/>
@@ -6263,7 +6080,7 @@
       <c r="AN39" s="41"/>
     </row>
     <row r="40" spans="1:40">
-      <c r="A40" s="89" t="s">
+      <c r="A40" s="82" t="s">
         <v>178</v>
       </c>
       <c r="B40" s="48" t="s">
@@ -6282,8 +6099,8 @@
       <c r="G40" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="H40" s="113"/>
-      <c r="I40" s="72"/>
+      <c r="H40" s="103"/>
+      <c r="I40" s="67"/>
       <c r="J40" s="44"/>
       <c r="K40" s="44"/>
       <c r="L40" s="44"/>
@@ -6308,7 +6125,7 @@
       <c r="AE40" s="44"/>
       <c r="AF40" s="44"/>
       <c r="AG40" s="44"/>
-      <c r="AH40" s="90"/>
+      <c r="AH40" s="83"/>
       <c r="AI40" s="45"/>
       <c r="AJ40" s="46"/>
       <c r="AK40" s="40"/>
@@ -6317,7 +6134,7 @@
       <c r="AN40" s="41"/>
     </row>
     <row r="41" spans="1:40">
-      <c r="A41" s="89" t="s">
+      <c r="A41" s="82" t="s">
         <v>229</v>
       </c>
       <c r="B41" s="48" t="s">
@@ -6330,10 +6147,10 @@
       <c r="E41" s="44"/>
       <c r="F41" s="44"/>
       <c r="G41" s="44"/>
-      <c r="H41" s="113" t="s">
+      <c r="H41" s="103" t="s">
         <v>180</v>
       </c>
-      <c r="I41" s="72"/>
+      <c r="I41" s="67"/>
       <c r="J41" s="44"/>
       <c r="K41" s="44"/>
       <c r="L41" s="44"/>
@@ -6358,7 +6175,7 @@
       <c r="AE41" s="44"/>
       <c r="AF41" s="44"/>
       <c r="AG41" s="44"/>
-      <c r="AH41" s="90"/>
+      <c r="AH41" s="83"/>
       <c r="AI41" s="45"/>
       <c r="AJ41" s="46"/>
       <c r="AK41" s="40"/>
@@ -6367,40 +6184,40 @@
       <c r="AN41" s="41"/>
     </row>
     <row r="42" spans="1:40" ht="17.250000">
-      <c r="A42" s="98"/>
-      <c r="B42" s="99"/>
-      <c r="C42" s="99"/>
-      <c r="D42" s="99"/>
-      <c r="E42" s="99"/>
-      <c r="F42" s="99"/>
-      <c r="G42" s="99"/>
-      <c r="H42" s="112"/>
-      <c r="I42" s="105"/>
-      <c r="J42" s="99"/>
-      <c r="K42" s="99"/>
-      <c r="L42" s="99"/>
-      <c r="M42" s="99"/>
-      <c r="N42" s="99"/>
-      <c r="O42" s="99"/>
-      <c r="P42" s="99"/>
-      <c r="Q42" s="99"/>
-      <c r="R42" s="99"/>
-      <c r="S42" s="99"/>
-      <c r="T42" s="99"/>
-      <c r="U42" s="99"/>
-      <c r="V42" s="99"/>
-      <c r="W42" s="99"/>
-      <c r="X42" s="99"/>
-      <c r="Y42" s="99"/>
-      <c r="Z42" s="99"/>
-      <c r="AA42" s="99"/>
-      <c r="AB42" s="99"/>
-      <c r="AC42" s="99"/>
-      <c r="AD42" s="99"/>
-      <c r="AE42" s="99"/>
-      <c r="AF42" s="99"/>
-      <c r="AG42" s="99"/>
-      <c r="AH42" s="100"/>
+      <c r="A42" s="90"/>
+      <c r="B42" s="91"/>
+      <c r="C42" s="91"/>
+      <c r="D42" s="91"/>
+      <c r="E42" s="91"/>
+      <c r="F42" s="91"/>
+      <c r="G42" s="91"/>
+      <c r="H42" s="102"/>
+      <c r="I42" s="97"/>
+      <c r="J42" s="91"/>
+      <c r="K42" s="91"/>
+      <c r="L42" s="91"/>
+      <c r="M42" s="91"/>
+      <c r="N42" s="91"/>
+      <c r="O42" s="91"/>
+      <c r="P42" s="91"/>
+      <c r="Q42" s="91"/>
+      <c r="R42" s="91"/>
+      <c r="S42" s="91"/>
+      <c r="T42" s="91"/>
+      <c r="U42" s="91"/>
+      <c r="V42" s="91"/>
+      <c r="W42" s="91"/>
+      <c r="X42" s="91"/>
+      <c r="Y42" s="91"/>
+      <c r="Z42" s="91"/>
+      <c r="AA42" s="91"/>
+      <c r="AB42" s="91"/>
+      <c r="AC42" s="91"/>
+      <c r="AD42" s="91"/>
+      <c r="AE42" s="91"/>
+      <c r="AF42" s="91"/>
+      <c r="AG42" s="91"/>
+      <c r="AH42" s="92"/>
       <c r="AI42" s="45"/>
       <c r="AJ42" s="46"/>
       <c r="AK42" s="40"/>
@@ -6409,42 +6226,42 @@
       <c r="AN42" s="41"/>
     </row>
     <row r="43" spans="1:40">
-      <c r="A43" s="86" t="s">
+      <c r="A43" s="79" t="s">
         <v>228</v>
       </c>
-      <c r="B43" s="87"/>
-      <c r="C43" s="87"/>
-      <c r="D43" s="87"/>
-      <c r="E43" s="87"/>
-      <c r="F43" s="87"/>
-      <c r="G43" s="87"/>
-      <c r="H43" s="110"/>
-      <c r="I43" s="104"/>
-      <c r="J43" s="87"/>
-      <c r="K43" s="87"/>
-      <c r="L43" s="87"/>
-      <c r="M43" s="87"/>
-      <c r="N43" s="87"/>
-      <c r="O43" s="87"/>
-      <c r="P43" s="87"/>
-      <c r="Q43" s="87"/>
-      <c r="R43" s="87"/>
-      <c r="S43" s="87"/>
-      <c r="T43" s="87"/>
-      <c r="U43" s="87"/>
-      <c r="V43" s="87"/>
-      <c r="W43" s="87"/>
-      <c r="X43" s="87"/>
-      <c r="Y43" s="87"/>
-      <c r="Z43" s="87"/>
-      <c r="AA43" s="87"/>
-      <c r="AB43" s="87"/>
-      <c r="AC43" s="87"/>
-      <c r="AD43" s="87"/>
-      <c r="AE43" s="87"/>
-      <c r="AF43" s="87"/>
-      <c r="AG43" s="87"/>
-      <c r="AH43" s="88"/>
+      <c r="B43" s="80"/>
+      <c r="C43" s="80"/>
+      <c r="D43" s="80"/>
+      <c r="E43" s="80"/>
+      <c r="F43" s="80"/>
+      <c r="G43" s="80"/>
+      <c r="H43" s="100"/>
+      <c r="I43" s="96"/>
+      <c r="J43" s="80"/>
+      <c r="K43" s="80"/>
+      <c r="L43" s="80"/>
+      <c r="M43" s="80"/>
+      <c r="N43" s="80"/>
+      <c r="O43" s="80"/>
+      <c r="P43" s="80"/>
+      <c r="Q43" s="80"/>
+      <c r="R43" s="80"/>
+      <c r="S43" s="80"/>
+      <c r="T43" s="80"/>
+      <c r="U43" s="80"/>
+      <c r="V43" s="80"/>
+      <c r="W43" s="80"/>
+      <c r="X43" s="80"/>
+      <c r="Y43" s="80"/>
+      <c r="Z43" s="80"/>
+      <c r="AA43" s="80"/>
+      <c r="AB43" s="80"/>
+      <c r="AC43" s="80"/>
+      <c r="AD43" s="80"/>
+      <c r="AE43" s="80"/>
+      <c r="AF43" s="80"/>
+      <c r="AG43" s="80"/>
+      <c r="AH43" s="81"/>
       <c r="AI43" s="45"/>
       <c r="AJ43" s="46"/>
       <c r="AK43" s="40"/>
@@ -6453,7 +6270,7 @@
       <c r="AN43" s="41"/>
     </row>
     <row r="44" spans="1:40">
-      <c r="A44" s="89" t="s">
+      <c r="A44" s="82" t="s">
         <v>102</v>
       </c>
       <c r="B44" s="44" t="s">
@@ -6474,10 +6291,10 @@
       <c r="G44" s="44" t="s">
         <v>252</v>
       </c>
-      <c r="H44" s="111" t="s">
+      <c r="H44" s="101" t="s">
         <v>253</v>
       </c>
-      <c r="I44" s="72"/>
+      <c r="I44" s="67"/>
       <c r="J44" s="44"/>
       <c r="K44" s="44"/>
       <c r="L44" s="44"/>
@@ -6502,7 +6319,7 @@
       <c r="AE44" s="44"/>
       <c r="AF44" s="44"/>
       <c r="AG44" s="44"/>
-      <c r="AH44" s="90"/>
+      <c r="AH44" s="83"/>
       <c r="AI44" s="45"/>
       <c r="AJ44" s="46"/>
       <c r="AK44" s="40"/>
@@ -6511,7 +6328,7 @@
       <c r="AN44" s="41"/>
     </row>
     <row r="45" spans="1:40">
-      <c r="A45" s="89" t="s">
+      <c r="A45" s="82" t="s">
         <v>4</v>
       </c>
       <c r="B45" s="44" t="s">
@@ -6532,10 +6349,10 @@
       <c r="G45" s="44" t="s">
         <v>251</v>
       </c>
-      <c r="H45" s="111" t="s">
+      <c r="H45" s="101" t="s">
         <v>242</v>
       </c>
-      <c r="I45" s="72"/>
+      <c r="I45" s="67"/>
       <c r="J45" s="44"/>
       <c r="K45" s="44"/>
       <c r="L45" s="44"/>
@@ -6560,7 +6377,7 @@
       <c r="AE45" s="44"/>
       <c r="AF45" s="44"/>
       <c r="AG45" s="44"/>
-      <c r="AH45" s="90"/>
+      <c r="AH45" s="83"/>
       <c r="AI45" s="45"/>
       <c r="AJ45" s="46"/>
       <c r="AK45" s="40"/>
@@ -6569,7 +6386,7 @@
       <c r="AN45" s="41"/>
     </row>
     <row r="46" spans="1:40">
-      <c r="A46" s="89" t="s">
+      <c r="A46" s="82" t="s">
         <v>22</v>
       </c>
       <c r="B46" s="44">
@@ -6590,10 +6407,10 @@
       <c r="G46" s="44">
         <v>15</v>
       </c>
-      <c r="H46" s="111">
+      <c r="H46" s="101">
         <v>20</v>
       </c>
-      <c r="I46" s="72"/>
+      <c r="I46" s="67"/>
       <c r="J46" s="44"/>
       <c r="K46" s="44"/>
       <c r="L46" s="44"/>
@@ -6618,7 +6435,7 @@
       <c r="AE46" s="44"/>
       <c r="AF46" s="44"/>
       <c r="AG46" s="44"/>
-      <c r="AH46" s="90"/>
+      <c r="AH46" s="83"/>
       <c r="AI46" s="45"/>
       <c r="AJ46" s="46"/>
       <c r="AK46" s="40"/>
@@ -6627,7 +6444,7 @@
       <c r="AN46" s="41"/>
     </row>
     <row r="47" spans="1:40">
-      <c r="A47" s="89" t="s">
+      <c r="A47" s="82" t="s">
         <v>3</v>
       </c>
       <c r="B47" s="44">
@@ -6648,10 +6465,10 @@
       <c r="G47" s="44">
         <v>1.6</v>
       </c>
-      <c r="H47" s="111">
+      <c r="H47" s="101">
         <v>2</v>
       </c>
-      <c r="I47" s="72"/>
+      <c r="I47" s="67"/>
       <c r="J47" s="44"/>
       <c r="K47" s="44"/>
       <c r="L47" s="44"/>
@@ -6676,7 +6493,7 @@
       <c r="AE47" s="44"/>
       <c r="AF47" s="44"/>
       <c r="AG47" s="44"/>
-      <c r="AH47" s="90"/>
+      <c r="AH47" s="83"/>
       <c r="AI47" s="45"/>
       <c r="AJ47" s="46"/>
       <c r="AK47" s="40"/>
@@ -6685,7 +6502,7 @@
       <c r="AN47" s="41"/>
     </row>
     <row r="48" spans="1:40">
-      <c r="A48" s="89" t="s">
+      <c r="A48" s="82" t="s">
         <v>178</v>
       </c>
       <c r="B48" s="48" t="s">
@@ -6698,8 +6515,8 @@
       <c r="E48" s="44"/>
       <c r="F48" s="44"/>
       <c r="G48" s="44"/>
-      <c r="H48" s="111"/>
-      <c r="I48" s="72"/>
+      <c r="H48" s="101"/>
+      <c r="I48" s="67"/>
       <c r="J48" s="44"/>
       <c r="K48" s="44"/>
       <c r="L48" s="44"/>
@@ -6724,7 +6541,7 @@
       <c r="AE48" s="44"/>
       <c r="AF48" s="44"/>
       <c r="AG48" s="44"/>
-      <c r="AH48" s="90"/>
+      <c r="AH48" s="83"/>
       <c r="AI48" s="45"/>
       <c r="AJ48" s="46"/>
       <c r="AK48" s="40"/>
@@ -6733,7 +6550,7 @@
       <c r="AN48" s="41"/>
     </row>
     <row r="49" spans="1:40">
-      <c r="A49" s="89" t="s">
+      <c r="A49" s="82" t="s">
         <v>254</v>
       </c>
       <c r="B49" s="48" t="s">
@@ -6754,10 +6571,10 @@
       <c r="G49" s="48" t="s">
         <v>259</v>
       </c>
-      <c r="H49" s="113" t="s">
+      <c r="H49" s="103" t="s">
         <v>264</v>
       </c>
-      <c r="I49" s="72"/>
+      <c r="I49" s="67"/>
       <c r="J49" s="44"/>
       <c r="K49" s="44"/>
       <c r="L49" s="44"/>
@@ -6782,7 +6599,7 @@
       <c r="AE49" s="44"/>
       <c r="AF49" s="44"/>
       <c r="AG49" s="44"/>
-      <c r="AH49" s="90"/>
+      <c r="AH49" s="83"/>
       <c r="AI49" s="45"/>
       <c r="AJ49" s="46"/>
       <c r="AK49" s="40"/>
@@ -6791,14 +6608,14 @@
       <c r="AN49" s="41"/>
     </row>
     <row r="50" spans="1:40">
-      <c r="A50" s="92" t="s">
+      <c r="A50" s="85" t="s">
         <v>229</v>
       </c>
-      <c r="B50" s="66"/>
+      <c r="B50" s="61"/>
       <c r="C50" s="48" t="s">
         <v>180</v>
       </c>
-      <c r="D50" s="66"/>
+      <c r="D50" s="61"/>
       <c r="E50" s="48" t="s">
         <v>180</v>
       </c>
@@ -6811,7 +6628,7 @@
       <c r="H50" s="48" t="s">
         <v>180</v>
       </c>
-      <c r="I50" s="72"/>
+      <c r="I50" s="67"/>
       <c r="J50" s="44"/>
       <c r="K50" s="44"/>
       <c r="L50" s="44"/>
@@ -6836,7 +6653,7 @@
       <c r="AE50" s="44"/>
       <c r="AF50" s="44"/>
       <c r="AG50" s="44"/>
-      <c r="AH50" s="90"/>
+      <c r="AH50" s="83"/>
       <c r="AI50" s="45"/>
       <c r="AJ50" s="46"/>
       <c r="AK50" s="40"/>
@@ -6845,40 +6662,40 @@
       <c r="AN50" s="41"/>
     </row>
     <row r="51" spans="1:40" ht="17.250000">
-      <c r="A51" s="98"/>
-      <c r="B51" s="95"/>
-      <c r="C51" s="95"/>
-      <c r="D51" s="95"/>
-      <c r="E51" s="95"/>
-      <c r="F51" s="95"/>
-      <c r="G51" s="95"/>
-      <c r="H51" s="115"/>
-      <c r="I51" s="105"/>
-      <c r="J51" s="99"/>
-      <c r="K51" s="99"/>
-      <c r="L51" s="99"/>
-      <c r="M51" s="106"/>
-      <c r="N51" s="106"/>
-      <c r="O51" s="106"/>
-      <c r="P51" s="106"/>
-      <c r="Q51" s="106"/>
-      <c r="R51" s="106"/>
-      <c r="S51" s="106"/>
-      <c r="T51" s="106"/>
-      <c r="U51" s="106"/>
-      <c r="V51" s="106"/>
-      <c r="W51" s="106"/>
-      <c r="X51" s="106"/>
-      <c r="Y51" s="106"/>
-      <c r="Z51" s="106"/>
-      <c r="AA51" s="106"/>
-      <c r="AB51" s="106"/>
-      <c r="AC51" s="106"/>
-      <c r="AD51" s="106"/>
-      <c r="AE51" s="106"/>
-      <c r="AF51" s="106"/>
-      <c r="AG51" s="106"/>
-      <c r="AH51" s="107"/>
+      <c r="A51" s="90"/>
+      <c r="B51" s="88"/>
+      <c r="C51" s="88"/>
+      <c r="D51" s="88"/>
+      <c r="E51" s="88"/>
+      <c r="F51" s="88"/>
+      <c r="G51" s="88"/>
+      <c r="H51" s="105"/>
+      <c r="I51" s="97"/>
+      <c r="J51" s="91"/>
+      <c r="K51" s="91"/>
+      <c r="L51" s="91"/>
+      <c r="M51" s="91"/>
+      <c r="N51" s="91"/>
+      <c r="O51" s="91"/>
+      <c r="P51" s="91"/>
+      <c r="Q51" s="91"/>
+      <c r="R51" s="91"/>
+      <c r="S51" s="91"/>
+      <c r="T51" s="91"/>
+      <c r="U51" s="91"/>
+      <c r="V51" s="91"/>
+      <c r="W51" s="91"/>
+      <c r="X51" s="91"/>
+      <c r="Y51" s="91"/>
+      <c r="Z51" s="91"/>
+      <c r="AA51" s="91"/>
+      <c r="AB51" s="91"/>
+      <c r="AC51" s="91"/>
+      <c r="AD51" s="91"/>
+      <c r="AE51" s="91"/>
+      <c r="AF51" s="91"/>
+      <c r="AG51" s="91"/>
+      <c r="AH51" s="92"/>
       <c r="AI51" s="45"/>
       <c r="AJ51" s="46"/>
       <c r="AK51" s="40"/>
@@ -6887,40 +6704,40 @@
       <c r="AN51" s="41"/>
     </row>
     <row r="52" spans="1:40">
-      <c r="A52" s="70"/>
-      <c r="B52" s="71"/>
-      <c r="C52" s="71"/>
-      <c r="D52" s="71"/>
-      <c r="E52" s="71"/>
-      <c r="F52" s="71"/>
-      <c r="G52" s="71"/>
-      <c r="H52" s="71"/>
-      <c r="I52" s="71"/>
-      <c r="J52" s="71"/>
-      <c r="K52" s="71"/>
-      <c r="L52" s="71"/>
-      <c r="M52" s="74"/>
-      <c r="N52" s="74"/>
-      <c r="O52" s="74"/>
-      <c r="P52" s="74"/>
-      <c r="Q52" s="74"/>
-      <c r="R52" s="74"/>
-      <c r="S52" s="74"/>
-      <c r="T52" s="74"/>
-      <c r="U52" s="74"/>
-      <c r="V52" s="74"/>
-      <c r="W52" s="74"/>
-      <c r="X52" s="74"/>
-      <c r="Y52" s="74"/>
-      <c r="Z52" s="74"/>
-      <c r="AA52" s="74"/>
-      <c r="AB52" s="74"/>
-      <c r="AC52" s="74"/>
-      <c r="AD52" s="74"/>
-      <c r="AE52" s="74"/>
-      <c r="AF52" s="74"/>
-      <c r="AG52" s="74"/>
-      <c r="AH52" s="74"/>
+      <c r="A52" s="65"/>
+      <c r="B52" s="66"/>
+      <c r="C52" s="66"/>
+      <c r="D52" s="66"/>
+      <c r="E52" s="66"/>
+      <c r="F52" s="66"/>
+      <c r="G52" s="66"/>
+      <c r="H52" s="66"/>
+      <c r="I52" s="66"/>
+      <c r="J52" s="66"/>
+      <c r="K52" s="66"/>
+      <c r="L52" s="66"/>
+      <c r="M52" s="66"/>
+      <c r="N52" s="66"/>
+      <c r="O52" s="66"/>
+      <c r="P52" s="66"/>
+      <c r="Q52" s="66"/>
+      <c r="R52" s="66"/>
+      <c r="S52" s="66"/>
+      <c r="T52" s="66"/>
+      <c r="U52" s="66"/>
+      <c r="V52" s="66"/>
+      <c r="W52" s="66"/>
+      <c r="X52" s="66"/>
+      <c r="Y52" s="66"/>
+      <c r="Z52" s="66"/>
+      <c r="AA52" s="66"/>
+      <c r="AB52" s="66"/>
+      <c r="AC52" s="66"/>
+      <c r="AD52" s="66"/>
+      <c r="AE52" s="66"/>
+      <c r="AF52" s="66"/>
+      <c r="AG52" s="66"/>
+      <c r="AH52" s="66"/>
       <c r="AI52" s="45"/>
       <c r="AJ52" s="46"/>
       <c r="AK52" s="40"/>
@@ -6941,28 +6758,28 @@
       <c r="J53" s="44"/>
       <c r="K53" s="44"/>
       <c r="L53" s="44"/>
-      <c r="M53" s="54"/>
-      <c r="N53" s="54"/>
-      <c r="O53" s="54"/>
-      <c r="P53" s="54"/>
-      <c r="Q53" s="54"/>
-      <c r="R53" s="54"/>
-      <c r="S53" s="54"/>
-      <c r="T53" s="54"/>
-      <c r="U53" s="54"/>
-      <c r="V53" s="54"/>
-      <c r="W53" s="54"/>
-      <c r="X53" s="54"/>
-      <c r="Y53" s="54"/>
-      <c r="Z53" s="54"/>
-      <c r="AA53" s="54"/>
-      <c r="AB53" s="54"/>
-      <c r="AC53" s="54"/>
-      <c r="AD53" s="54"/>
-      <c r="AE53" s="54"/>
-      <c r="AF53" s="54"/>
-      <c r="AG53" s="54"/>
-      <c r="AH53" s="54"/>
+      <c r="M53" s="44"/>
+      <c r="N53" s="44"/>
+      <c r="O53" s="44"/>
+      <c r="P53" s="44"/>
+      <c r="Q53" s="44"/>
+      <c r="R53" s="44"/>
+      <c r="S53" s="44"/>
+      <c r="T53" s="44"/>
+      <c r="U53" s="44"/>
+      <c r="V53" s="44"/>
+      <c r="W53" s="44"/>
+      <c r="X53" s="44"/>
+      <c r="Y53" s="44"/>
+      <c r="Z53" s="44"/>
+      <c r="AA53" s="44"/>
+      <c r="AB53" s="44"/>
+      <c r="AC53" s="44"/>
+      <c r="AD53" s="44"/>
+      <c r="AE53" s="44"/>
+      <c r="AF53" s="44"/>
+      <c r="AG53" s="44"/>
+      <c r="AH53" s="44"/>
       <c r="AI53" s="45"/>
       <c r="AJ53" s="46"/>
       <c r="AK53" s="40"/>
@@ -6983,28 +6800,28 @@
       <c r="J54" s="44"/>
       <c r="K54" s="44"/>
       <c r="L54" s="44"/>
-      <c r="M54" s="54"/>
-      <c r="N54" s="54"/>
-      <c r="O54" s="54"/>
-      <c r="P54" s="54"/>
-      <c r="Q54" s="54"/>
-      <c r="R54" s="54"/>
-      <c r="S54" s="54"/>
-      <c r="T54" s="54"/>
-      <c r="U54" s="54"/>
-      <c r="V54" s="54"/>
-      <c r="W54" s="54"/>
-      <c r="X54" s="54"/>
-      <c r="Y54" s="54"/>
-      <c r="Z54" s="54"/>
-      <c r="AA54" s="54"/>
-      <c r="AB54" s="54"/>
-      <c r="AC54" s="54"/>
-      <c r="AD54" s="54"/>
-      <c r="AE54" s="54"/>
-      <c r="AF54" s="54"/>
-      <c r="AG54" s="54"/>
-      <c r="AH54" s="54"/>
+      <c r="M54" s="44"/>
+      <c r="N54" s="44"/>
+      <c r="O54" s="44"/>
+      <c r="P54" s="44"/>
+      <c r="Q54" s="44"/>
+      <c r="R54" s="44"/>
+      <c r="S54" s="44"/>
+      <c r="T54" s="44"/>
+      <c r="U54" s="44"/>
+      <c r="V54" s="44"/>
+      <c r="W54" s="44"/>
+      <c r="X54" s="44"/>
+      <c r="Y54" s="44"/>
+      <c r="Z54" s="44"/>
+      <c r="AA54" s="44"/>
+      <c r="AB54" s="44"/>
+      <c r="AC54" s="44"/>
+      <c r="AD54" s="44"/>
+      <c r="AE54" s="44"/>
+      <c r="AF54" s="44"/>
+      <c r="AG54" s="44"/>
+      <c r="AH54" s="44"/>
       <c r="AI54" s="45"/>
       <c r="AJ54" s="46"/>
       <c r="AK54" s="40"/>
@@ -7015,9 +6832,9 @@
     <row r="55" spans="1:40">
       <c r="A55" s="43"/>
       <c r="B55" s="44"/>
-      <c r="C55" s="55"/>
+      <c r="C55" s="38"/>
       <c r="D55" s="44"/>
-      <c r="E55" s="69"/>
+      <c r="E55" s="64"/>
       <c r="F55" s="44"/>
       <c r="G55" s="44"/>
       <c r="H55" s="44"/>
@@ -7025,28 +6842,28 @@
       <c r="J55" s="44"/>
       <c r="K55" s="44"/>
       <c r="L55" s="44"/>
-      <c r="M55" s="54"/>
-      <c r="N55" s="54"/>
-      <c r="O55" s="54"/>
-      <c r="P55" s="54"/>
-      <c r="Q55" s="54"/>
-      <c r="R55" s="54"/>
-      <c r="S55" s="54"/>
-      <c r="T55" s="54"/>
-      <c r="U55" s="54"/>
-      <c r="V55" s="54"/>
-      <c r="W55" s="54"/>
-      <c r="X55" s="54"/>
-      <c r="Y55" s="54"/>
-      <c r="Z55" s="54"/>
-      <c r="AA55" s="54"/>
-      <c r="AB55" s="54"/>
-      <c r="AC55" s="54"/>
-      <c r="AD55" s="54"/>
-      <c r="AE55" s="54"/>
-      <c r="AF55" s="54"/>
-      <c r="AG55" s="54"/>
-      <c r="AH55" s="54"/>
+      <c r="M55" s="44"/>
+      <c r="N55" s="44"/>
+      <c r="O55" s="44"/>
+      <c r="P55" s="44"/>
+      <c r="Q55" s="44"/>
+      <c r="R55" s="44"/>
+      <c r="S55" s="44"/>
+      <c r="T55" s="44"/>
+      <c r="U55" s="44"/>
+      <c r="V55" s="44"/>
+      <c r="W55" s="44"/>
+      <c r="X55" s="44"/>
+      <c r="Y55" s="44"/>
+      <c r="Z55" s="44"/>
+      <c r="AA55" s="44"/>
+      <c r="AB55" s="44"/>
+      <c r="AC55" s="44"/>
+      <c r="AD55" s="44"/>
+      <c r="AE55" s="44"/>
+      <c r="AF55" s="44"/>
+      <c r="AG55" s="44"/>
+      <c r="AH55" s="44"/>
       <c r="AI55" s="45"/>
       <c r="AJ55" s="46"/>
       <c r="AK55" s="40"/>
@@ -7056,39 +6873,39 @@
     </row>
     <row r="56" spans="1:40">
       <c r="A56" s="43"/>
-      <c r="B56" s="54"/>
-      <c r="C56" s="54"/>
-      <c r="D56" s="123"/>
-      <c r="E56" s="125"/>
-      <c r="F56" s="119"/>
-      <c r="G56" s="54"/>
-      <c r="H56" s="54"/>
-      <c r="I56" s="54"/>
-      <c r="J56" s="54"/>
-      <c r="K56" s="54"/>
-      <c r="L56" s="54"/>
-      <c r="M56" s="54"/>
-      <c r="N56" s="54"/>
-      <c r="O56" s="54"/>
-      <c r="P56" s="54"/>
-      <c r="Q56" s="54"/>
-      <c r="R56" s="54"/>
-      <c r="S56" s="54"/>
-      <c r="T56" s="54"/>
-      <c r="U56" s="54"/>
-      <c r="V56" s="54"/>
-      <c r="W56" s="54"/>
-      <c r="X56" s="54"/>
-      <c r="Y56" s="54"/>
-      <c r="Z56" s="54"/>
-      <c r="AA56" s="54"/>
-      <c r="AB56" s="54"/>
-      <c r="AC56" s="54"/>
-      <c r="AD56" s="54"/>
-      <c r="AE56" s="54"/>
-      <c r="AF56" s="54"/>
-      <c r="AG56" s="54"/>
-      <c r="AH56" s="54"/>
+      <c r="B56" s="44"/>
+      <c r="C56" s="44"/>
+      <c r="D56" s="111"/>
+      <c r="E56" s="112"/>
+      <c r="F56" s="67"/>
+      <c r="G56" s="44"/>
+      <c r="H56" s="44"/>
+      <c r="I56" s="44"/>
+      <c r="J56" s="44"/>
+      <c r="K56" s="44"/>
+      <c r="L56" s="44"/>
+      <c r="M56" s="44"/>
+      <c r="N56" s="44"/>
+      <c r="O56" s="44"/>
+      <c r="P56" s="44"/>
+      <c r="Q56" s="44"/>
+      <c r="R56" s="44"/>
+      <c r="S56" s="44"/>
+      <c r="T56" s="44"/>
+      <c r="U56" s="44"/>
+      <c r="V56" s="44"/>
+      <c r="W56" s="44"/>
+      <c r="X56" s="44"/>
+      <c r="Y56" s="44"/>
+      <c r="Z56" s="44"/>
+      <c r="AA56" s="44"/>
+      <c r="AB56" s="44"/>
+      <c r="AC56" s="44"/>
+      <c r="AD56" s="44"/>
+      <c r="AE56" s="44"/>
+      <c r="AF56" s="44"/>
+      <c r="AG56" s="44"/>
+      <c r="AH56" s="44"/>
       <c r="AI56" s="45"/>
       <c r="AJ56" s="46"/>
       <c r="AK56" s="40"/>
@@ -7098,39 +6915,39 @@
     </row>
     <row r="57" spans="1:40" ht="17.250000">
       <c r="A57" s="43"/>
-      <c r="B57" s="54"/>
-      <c r="C57" s="54"/>
-      <c r="D57" s="126"/>
-      <c r="E57" s="127"/>
-      <c r="F57" s="120"/>
-      <c r="G57" s="119"/>
-      <c r="H57" s="54"/>
-      <c r="I57" s="54"/>
-      <c r="J57" s="54"/>
-      <c r="K57" s="54"/>
-      <c r="L57" s="54"/>
-      <c r="M57" s="54"/>
-      <c r="N57" s="54"/>
-      <c r="O57" s="54"/>
-      <c r="P57" s="54"/>
-      <c r="Q57" s="54"/>
-      <c r="R57" s="54"/>
-      <c r="S57" s="54"/>
-      <c r="T57" s="54"/>
-      <c r="U57" s="54"/>
-      <c r="V57" s="54"/>
-      <c r="W57" s="54"/>
-      <c r="X57" s="54"/>
-      <c r="Y57" s="54"/>
-      <c r="Z57" s="54"/>
-      <c r="AA57" s="54"/>
-      <c r="AB57" s="54"/>
-      <c r="AC57" s="54"/>
-      <c r="AD57" s="54"/>
-      <c r="AE57" s="54"/>
-      <c r="AF57" s="54"/>
-      <c r="AG57" s="54"/>
-      <c r="AH57" s="54"/>
+      <c r="B57" s="44"/>
+      <c r="C57" s="44"/>
+      <c r="D57" s="113"/>
+      <c r="E57" s="114"/>
+      <c r="F57" s="108"/>
+      <c r="G57" s="67"/>
+      <c r="H57" s="44"/>
+      <c r="I57" s="44"/>
+      <c r="J57" s="44"/>
+      <c r="K57" s="44"/>
+      <c r="L57" s="44"/>
+      <c r="M57" s="44"/>
+      <c r="N57" s="44"/>
+      <c r="O57" s="44"/>
+      <c r="P57" s="44"/>
+      <c r="Q57" s="44"/>
+      <c r="R57" s="44"/>
+      <c r="S57" s="44"/>
+      <c r="T57" s="44"/>
+      <c r="U57" s="44"/>
+      <c r="V57" s="44"/>
+      <c r="W57" s="44"/>
+      <c r="X57" s="44"/>
+      <c r="Y57" s="44"/>
+      <c r="Z57" s="44"/>
+      <c r="AA57" s="44"/>
+      <c r="AB57" s="44"/>
+      <c r="AC57" s="44"/>
+      <c r="AD57" s="44"/>
+      <c r="AE57" s="44"/>
+      <c r="AF57" s="44"/>
+      <c r="AG57" s="44"/>
+      <c r="AH57" s="44"/>
       <c r="AI57" s="45"/>
       <c r="AJ57" s="46"/>
       <c r="AK57" s="40"/>
@@ -7140,39 +6957,39 @@
     </row>
     <row r="58" spans="1:40">
       <c r="A58" s="43"/>
-      <c r="B58" s="54"/>
-      <c r="C58" s="54"/>
-      <c r="D58" s="124"/>
-      <c r="E58" s="74"/>
-      <c r="F58" s="54"/>
-      <c r="G58" s="54"/>
-      <c r="H58" s="54"/>
-      <c r="I58" s="54"/>
-      <c r="J58" s="54"/>
-      <c r="K58" s="54"/>
-      <c r="L58" s="54"/>
-      <c r="M58" s="54"/>
-      <c r="N58" s="54"/>
-      <c r="O58" s="54"/>
-      <c r="P58" s="54"/>
-      <c r="Q58" s="54"/>
-      <c r="R58" s="54"/>
-      <c r="S58" s="54"/>
-      <c r="T58" s="54"/>
-      <c r="U58" s="54"/>
-      <c r="V58" s="54"/>
-      <c r="W58" s="54"/>
-      <c r="X58" s="54"/>
-      <c r="Y58" s="54"/>
-      <c r="Z58" s="54"/>
-      <c r="AA58" s="54"/>
-      <c r="AB58" s="54"/>
-      <c r="AC58" s="54"/>
-      <c r="AD58" s="54"/>
-      <c r="AE58" s="54"/>
-      <c r="AF58" s="54"/>
-      <c r="AG58" s="54"/>
-      <c r="AH58" s="54"/>
+      <c r="B58" s="44"/>
+      <c r="C58" s="44"/>
+      <c r="D58" s="66"/>
+      <c r="E58" s="66"/>
+      <c r="F58" s="44"/>
+      <c r="G58" s="44"/>
+      <c r="H58" s="44"/>
+      <c r="I58" s="44"/>
+      <c r="J58" s="44"/>
+      <c r="K58" s="44"/>
+      <c r="L58" s="44"/>
+      <c r="M58" s="44"/>
+      <c r="N58" s="44"/>
+      <c r="O58" s="44"/>
+      <c r="P58" s="44"/>
+      <c r="Q58" s="44"/>
+      <c r="R58" s="44"/>
+      <c r="S58" s="44"/>
+      <c r="T58" s="44"/>
+      <c r="U58" s="44"/>
+      <c r="V58" s="44"/>
+      <c r="W58" s="44"/>
+      <c r="X58" s="44"/>
+      <c r="Y58" s="44"/>
+      <c r="Z58" s="44"/>
+      <c r="AA58" s="44"/>
+      <c r="AB58" s="44"/>
+      <c r="AC58" s="44"/>
+      <c r="AD58" s="44"/>
+      <c r="AE58" s="44"/>
+      <c r="AF58" s="44"/>
+      <c r="AG58" s="44"/>
+      <c r="AH58" s="44"/>
       <c r="AI58" s="45"/>
       <c r="AJ58" s="46"/>
       <c r="AK58" s="40"/>
@@ -7182,39 +6999,39 @@
     </row>
     <row r="59" spans="1:40">
       <c r="A59" s="43"/>
-      <c r="B59" s="54"/>
-      <c r="C59" s="54"/>
-      <c r="D59" s="54"/>
-      <c r="E59" s="54"/>
-      <c r="F59" s="54"/>
-      <c r="G59" s="54"/>
-      <c r="H59" s="54"/>
-      <c r="I59" s="54"/>
-      <c r="J59" s="54"/>
-      <c r="K59" s="54"/>
-      <c r="L59" s="54"/>
-      <c r="M59" s="54"/>
-      <c r="N59" s="54"/>
-      <c r="O59" s="54"/>
-      <c r="P59" s="54"/>
-      <c r="Q59" s="54"/>
-      <c r="R59" s="54"/>
-      <c r="S59" s="54"/>
-      <c r="T59" s="54"/>
-      <c r="U59" s="54"/>
-      <c r="V59" s="54"/>
-      <c r="W59" s="54"/>
-      <c r="X59" s="54"/>
-      <c r="Y59" s="54"/>
-      <c r="Z59" s="54"/>
-      <c r="AA59" s="54"/>
-      <c r="AB59" s="54"/>
-      <c r="AC59" s="54"/>
-      <c r="AD59" s="54"/>
-      <c r="AE59" s="54"/>
-      <c r="AF59" s="54"/>
-      <c r="AG59" s="54"/>
-      <c r="AH59" s="54"/>
+      <c r="B59" s="44"/>
+      <c r="C59" s="44"/>
+      <c r="D59" s="44"/>
+      <c r="E59" s="44"/>
+      <c r="F59" s="44"/>
+      <c r="G59" s="44"/>
+      <c r="H59" s="44"/>
+      <c r="I59" s="44"/>
+      <c r="J59" s="44"/>
+      <c r="K59" s="44"/>
+      <c r="L59" s="44"/>
+      <c r="M59" s="44"/>
+      <c r="N59" s="44"/>
+      <c r="O59" s="44"/>
+      <c r="P59" s="44"/>
+      <c r="Q59" s="44"/>
+      <c r="R59" s="44"/>
+      <c r="S59" s="44"/>
+      <c r="T59" s="44"/>
+      <c r="U59" s="44"/>
+      <c r="V59" s="44"/>
+      <c r="W59" s="44"/>
+      <c r="X59" s="44"/>
+      <c r="Y59" s="44"/>
+      <c r="Z59" s="44"/>
+      <c r="AA59" s="44"/>
+      <c r="AB59" s="44"/>
+      <c r="AC59" s="44"/>
+      <c r="AD59" s="44"/>
+      <c r="AE59" s="44"/>
+      <c r="AF59" s="44"/>
+      <c r="AG59" s="44"/>
+      <c r="AH59" s="44"/>
       <c r="AI59" s="45"/>
       <c r="AJ59" s="46"/>
       <c r="AK59" s="40"/>
@@ -7224,39 +7041,39 @@
     </row>
     <row r="60" spans="1:40">
       <c r="A60" s="37"/>
-      <c r="B60" s="55"/>
-      <c r="C60" s="55"/>
-      <c r="D60" s="55"/>
-      <c r="E60" s="55"/>
-      <c r="F60" s="55"/>
-      <c r="G60" s="55"/>
-      <c r="H60" s="55"/>
-      <c r="I60" s="55"/>
-      <c r="J60" s="55"/>
-      <c r="K60" s="55"/>
-      <c r="L60" s="55"/>
-      <c r="M60" s="55"/>
-      <c r="N60" s="55"/>
-      <c r="O60" s="55"/>
-      <c r="P60" s="55"/>
-      <c r="Q60" s="55"/>
-      <c r="R60" s="55"/>
-      <c r="S60" s="55"/>
-      <c r="T60" s="55"/>
-      <c r="U60" s="55"/>
-      <c r="V60" s="55"/>
-      <c r="W60" s="55"/>
-      <c r="X60" s="55"/>
-      <c r="Y60" s="55"/>
-      <c r="Z60" s="55"/>
-      <c r="AA60" s="55"/>
-      <c r="AB60" s="55"/>
-      <c r="AC60" s="55"/>
-      <c r="AD60" s="55"/>
-      <c r="AE60" s="55"/>
-      <c r="AF60" s="55"/>
-      <c r="AG60" s="55"/>
-      <c r="AH60" s="55"/>
+      <c r="B60" s="38"/>
+      <c r="C60" s="38"/>
+      <c r="D60" s="38"/>
+      <c r="E60" s="38"/>
+      <c r="F60" s="38"/>
+      <c r="G60" s="38"/>
+      <c r="H60" s="38"/>
+      <c r="I60" s="38"/>
+      <c r="J60" s="38"/>
+      <c r="K60" s="38"/>
+      <c r="L60" s="38"/>
+      <c r="M60" s="38"/>
+      <c r="N60" s="38"/>
+      <c r="O60" s="38"/>
+      <c r="P60" s="38"/>
+      <c r="Q60" s="38"/>
+      <c r="R60" s="38"/>
+      <c r="S60" s="38"/>
+      <c r="T60" s="38"/>
+      <c r="U60" s="38"/>
+      <c r="V60" s="38"/>
+      <c r="W60" s="38"/>
+      <c r="X60" s="38"/>
+      <c r="Y60" s="38"/>
+      <c r="Z60" s="38"/>
+      <c r="AA60" s="38"/>
+      <c r="AB60" s="38"/>
+      <c r="AC60" s="38"/>
+      <c r="AD60" s="38"/>
+      <c r="AE60" s="38"/>
+      <c r="AF60" s="38"/>
+      <c r="AG60" s="38"/>
+      <c r="AH60" s="38"/>
       <c r="AI60" s="39"/>
       <c r="AJ60" s="40"/>
       <c r="AK60" s="40"/>
@@ -7266,39 +7083,39 @@
     </row>
     <row r="61" spans="1:40">
       <c r="A61" s="37"/>
-      <c r="B61" s="55"/>
-      <c r="C61" s="55"/>
-      <c r="D61" s="55"/>
-      <c r="E61" s="55"/>
-      <c r="F61" s="55"/>
-      <c r="G61" s="55"/>
-      <c r="H61" s="55"/>
-      <c r="I61" s="55"/>
-      <c r="J61" s="55"/>
-      <c r="K61" s="55"/>
-      <c r="L61" s="55"/>
-      <c r="M61" s="55"/>
-      <c r="N61" s="55"/>
-      <c r="O61" s="55"/>
-      <c r="P61" s="55"/>
-      <c r="Q61" s="55"/>
-      <c r="R61" s="55"/>
-      <c r="S61" s="55"/>
-      <c r="T61" s="55"/>
-      <c r="U61" s="55"/>
-      <c r="V61" s="55"/>
-      <c r="W61" s="55"/>
-      <c r="X61" s="55"/>
-      <c r="Y61" s="55"/>
-      <c r="Z61" s="55"/>
-      <c r="AA61" s="55"/>
-      <c r="AB61" s="55"/>
-      <c r="AC61" s="55"/>
-      <c r="AD61" s="55"/>
-      <c r="AE61" s="55"/>
-      <c r="AF61" s="55"/>
-      <c r="AG61" s="55"/>
-      <c r="AH61" s="55"/>
+      <c r="B61" s="38"/>
+      <c r="C61" s="38"/>
+      <c r="D61" s="38"/>
+      <c r="E61" s="38"/>
+      <c r="F61" s="38"/>
+      <c r="G61" s="38"/>
+      <c r="H61" s="38"/>
+      <c r="I61" s="38"/>
+      <c r="J61" s="38"/>
+      <c r="K61" s="38"/>
+      <c r="L61" s="38"/>
+      <c r="M61" s="38"/>
+      <c r="N61" s="38"/>
+      <c r="O61" s="38"/>
+      <c r="P61" s="38"/>
+      <c r="Q61" s="38"/>
+      <c r="R61" s="38"/>
+      <c r="S61" s="38"/>
+      <c r="T61" s="38"/>
+      <c r="U61" s="38"/>
+      <c r="V61" s="38"/>
+      <c r="W61" s="38"/>
+      <c r="X61" s="38"/>
+      <c r="Y61" s="38"/>
+      <c r="Z61" s="38"/>
+      <c r="AA61" s="38"/>
+      <c r="AB61" s="38"/>
+      <c r="AC61" s="38"/>
+      <c r="AD61" s="38"/>
+      <c r="AE61" s="38"/>
+      <c r="AF61" s="38"/>
+      <c r="AG61" s="38"/>
+      <c r="AH61" s="38"/>
       <c r="AI61" s="39"/>
       <c r="AJ61" s="40"/>
       <c r="AK61" s="40"/>
@@ -7308,39 +7125,39 @@
     </row>
     <row r="62" spans="1:40">
       <c r="A62" s="37"/>
-      <c r="B62" s="55"/>
-      <c r="C62" s="55"/>
-      <c r="D62" s="55"/>
-      <c r="E62" s="55"/>
-      <c r="F62" s="55"/>
-      <c r="G62" s="55"/>
-      <c r="H62" s="55"/>
-      <c r="I62" s="55"/>
-      <c r="J62" s="55"/>
-      <c r="K62" s="55"/>
-      <c r="L62" s="55"/>
-      <c r="M62" s="55"/>
-      <c r="N62" s="55"/>
-      <c r="O62" s="55"/>
-      <c r="P62" s="55"/>
-      <c r="Q62" s="55"/>
-      <c r="R62" s="55"/>
-      <c r="S62" s="55"/>
-      <c r="T62" s="55"/>
-      <c r="U62" s="55"/>
-      <c r="V62" s="55"/>
-      <c r="W62" s="55"/>
-      <c r="X62" s="55"/>
-      <c r="Y62" s="55"/>
-      <c r="Z62" s="55"/>
-      <c r="AA62" s="55"/>
-      <c r="AB62" s="55"/>
-      <c r="AC62" s="55"/>
-      <c r="AD62" s="55"/>
-      <c r="AE62" s="55"/>
-      <c r="AF62" s="55"/>
-      <c r="AG62" s="55"/>
-      <c r="AH62" s="55"/>
+      <c r="B62" s="38"/>
+      <c r="C62" s="38"/>
+      <c r="D62" s="38"/>
+      <c r="E62" s="38"/>
+      <c r="F62" s="38"/>
+      <c r="G62" s="38"/>
+      <c r="H62" s="38"/>
+      <c r="I62" s="38"/>
+      <c r="J62" s="38"/>
+      <c r="K62" s="38"/>
+      <c r="L62" s="38"/>
+      <c r="M62" s="38"/>
+      <c r="N62" s="38"/>
+      <c r="O62" s="38"/>
+      <c r="P62" s="38"/>
+      <c r="Q62" s="38"/>
+      <c r="R62" s="38"/>
+      <c r="S62" s="38"/>
+      <c r="T62" s="38"/>
+      <c r="U62" s="38"/>
+      <c r="V62" s="38"/>
+      <c r="W62" s="38"/>
+      <c r="X62" s="38"/>
+      <c r="Y62" s="38"/>
+      <c r="Z62" s="38"/>
+      <c r="AA62" s="38"/>
+      <c r="AB62" s="38"/>
+      <c r="AC62" s="38"/>
+      <c r="AD62" s="38"/>
+      <c r="AE62" s="38"/>
+      <c r="AF62" s="38"/>
+      <c r="AG62" s="38"/>
+      <c r="AH62" s="38"/>
       <c r="AI62" s="39"/>
       <c r="AJ62" s="40"/>
       <c r="AK62" s="40"/>
@@ -7350,39 +7167,39 @@
     </row>
     <row r="63" spans="1:40">
       <c r="A63" s="37"/>
-      <c r="B63" s="55"/>
-      <c r="C63" s="55"/>
-      <c r="D63" s="55"/>
-      <c r="E63" s="55"/>
-      <c r="F63" s="55"/>
-      <c r="G63" s="55"/>
-      <c r="H63" s="55"/>
-      <c r="I63" s="55"/>
-      <c r="J63" s="55"/>
-      <c r="K63" s="55"/>
-      <c r="L63" s="55"/>
-      <c r="M63" s="55"/>
-      <c r="N63" s="55"/>
-      <c r="O63" s="55"/>
-      <c r="P63" s="55"/>
-      <c r="Q63" s="55"/>
-      <c r="R63" s="55"/>
-      <c r="S63" s="55"/>
-      <c r="T63" s="55"/>
-      <c r="U63" s="55"/>
-      <c r="V63" s="55"/>
-      <c r="W63" s="55"/>
-      <c r="X63" s="55"/>
-      <c r="Y63" s="55"/>
-      <c r="Z63" s="55"/>
-      <c r="AA63" s="55"/>
-      <c r="AB63" s="55"/>
-      <c r="AC63" s="55"/>
-      <c r="AD63" s="55"/>
-      <c r="AE63" s="55"/>
-      <c r="AF63" s="55"/>
-      <c r="AG63" s="55"/>
-      <c r="AH63" s="55"/>
+      <c r="B63" s="38"/>
+      <c r="C63" s="38"/>
+      <c r="D63" s="38"/>
+      <c r="E63" s="38"/>
+      <c r="F63" s="38"/>
+      <c r="G63" s="38"/>
+      <c r="H63" s="38"/>
+      <c r="I63" s="38"/>
+      <c r="J63" s="38"/>
+      <c r="K63" s="38"/>
+      <c r="L63" s="38"/>
+      <c r="M63" s="38"/>
+      <c r="N63" s="38"/>
+      <c r="O63" s="38"/>
+      <c r="P63" s="38"/>
+      <c r="Q63" s="38"/>
+      <c r="R63" s="38"/>
+      <c r="S63" s="38"/>
+      <c r="T63" s="38"/>
+      <c r="U63" s="38"/>
+      <c r="V63" s="38"/>
+      <c r="W63" s="38"/>
+      <c r="X63" s="38"/>
+      <c r="Y63" s="38"/>
+      <c r="Z63" s="38"/>
+      <c r="AA63" s="38"/>
+      <c r="AB63" s="38"/>
+      <c r="AC63" s="38"/>
+      <c r="AD63" s="38"/>
+      <c r="AE63" s="38"/>
+      <c r="AF63" s="38"/>
+      <c r="AG63" s="38"/>
+      <c r="AH63" s="38"/>
       <c r="AI63" s="39"/>
       <c r="AJ63" s="40"/>
       <c r="AK63" s="40"/>
@@ -7393,38 +7210,38 @@
     <row r="64" spans="1:40">
       <c r="A64" s="37"/>
       <c r="B64" s="38"/>
-      <c r="C64" s="55"/>
-      <c r="D64" s="55"/>
-      <c r="E64" s="55"/>
-      <c r="F64" s="55"/>
-      <c r="G64" s="55"/>
-      <c r="H64" s="55"/>
-      <c r="I64" s="55"/>
-      <c r="J64" s="55"/>
-      <c r="K64" s="55"/>
-      <c r="L64" s="55"/>
-      <c r="M64" s="55"/>
-      <c r="N64" s="55"/>
-      <c r="O64" s="55"/>
-      <c r="P64" s="55"/>
-      <c r="Q64" s="55"/>
-      <c r="R64" s="55"/>
-      <c r="S64" s="55"/>
-      <c r="T64" s="55"/>
-      <c r="U64" s="55"/>
-      <c r="V64" s="55"/>
-      <c r="W64" s="55"/>
-      <c r="X64" s="55"/>
-      <c r="Y64" s="55"/>
-      <c r="Z64" s="55"/>
-      <c r="AA64" s="55"/>
-      <c r="AB64" s="55"/>
-      <c r="AC64" s="55"/>
-      <c r="AD64" s="55"/>
-      <c r="AE64" s="55"/>
-      <c r="AF64" s="55"/>
-      <c r="AG64" s="55"/>
-      <c r="AH64" s="55"/>
+      <c r="C64" s="38"/>
+      <c r="D64" s="38"/>
+      <c r="E64" s="38"/>
+      <c r="F64" s="38"/>
+      <c r="G64" s="38"/>
+      <c r="H64" s="38"/>
+      <c r="I64" s="38"/>
+      <c r="J64" s="38"/>
+      <c r="K64" s="38"/>
+      <c r="L64" s="38"/>
+      <c r="M64" s="38"/>
+      <c r="N64" s="38"/>
+      <c r="O64" s="38"/>
+      <c r="P64" s="38"/>
+      <c r="Q64" s="38"/>
+      <c r="R64" s="38"/>
+      <c r="S64" s="38"/>
+      <c r="T64" s="38"/>
+      <c r="U64" s="38"/>
+      <c r="V64" s="38"/>
+      <c r="W64" s="38"/>
+      <c r="X64" s="38"/>
+      <c r="Y64" s="38"/>
+      <c r="Z64" s="38"/>
+      <c r="AA64" s="38"/>
+      <c r="AB64" s="38"/>
+      <c r="AC64" s="38"/>
+      <c r="AD64" s="38"/>
+      <c r="AE64" s="38"/>
+      <c r="AF64" s="38"/>
+      <c r="AG64" s="38"/>
+      <c r="AH64" s="38"/>
       <c r="AI64" s="39"/>
       <c r="AJ64" s="40"/>
       <c r="AK64" s="40"/>
@@ -7434,39 +7251,39 @@
     </row>
     <row r="65" spans="1:38">
       <c r="A65" s="36"/>
-      <c r="B65" s="56"/>
-      <c r="C65" s="56"/>
-      <c r="D65" s="56"/>
-      <c r="E65" s="56"/>
-      <c r="F65" s="56"/>
-      <c r="G65" s="56"/>
-      <c r="H65" s="56"/>
-      <c r="I65" s="56"/>
-      <c r="J65" s="56"/>
-      <c r="K65" s="56"/>
-      <c r="L65" s="56"/>
-      <c r="M65" s="56"/>
-      <c r="N65" s="56"/>
-      <c r="O65" s="56"/>
-      <c r="P65" s="56"/>
-      <c r="Q65" s="56"/>
-      <c r="R65" s="56"/>
-      <c r="S65" s="56"/>
-      <c r="T65" s="56"/>
-      <c r="U65" s="56"/>
-      <c r="V65" s="56"/>
-      <c r="W65" s="56"/>
-      <c r="X65" s="56"/>
-      <c r="Y65" s="56"/>
-      <c r="Z65" s="56"/>
-      <c r="AA65" s="56"/>
-      <c r="AB65" s="56"/>
-      <c r="AC65" s="56"/>
-      <c r="AD65" s="56"/>
-      <c r="AE65" s="56"/>
-      <c r="AF65" s="56"/>
-      <c r="AG65" s="56"/>
-      <c r="AH65" s="56"/>
+      <c r="B65" s="33"/>
+      <c r="C65" s="33"/>
+      <c r="D65" s="33"/>
+      <c r="E65" s="33"/>
+      <c r="F65" s="33"/>
+      <c r="G65" s="33"/>
+      <c r="H65" s="33"/>
+      <c r="I65" s="33"/>
+      <c r="J65" s="33"/>
+      <c r="K65" s="33"/>
+      <c r="L65" s="33"/>
+      <c r="M65" s="33"/>
+      <c r="N65" s="33"/>
+      <c r="O65" s="33"/>
+      <c r="P65" s="33"/>
+      <c r="Q65" s="33"/>
+      <c r="R65" s="33"/>
+      <c r="S65" s="33"/>
+      <c r="T65" s="33"/>
+      <c r="U65" s="33"/>
+      <c r="V65" s="33"/>
+      <c r="W65" s="33"/>
+      <c r="X65" s="33"/>
+      <c r="Y65" s="33"/>
+      <c r="Z65" s="33"/>
+      <c r="AA65" s="33"/>
+      <c r="AB65" s="33"/>
+      <c r="AC65" s="33"/>
+      <c r="AD65" s="33"/>
+      <c r="AE65" s="33"/>
+      <c r="AF65" s="33"/>
+      <c r="AG65" s="33"/>
+      <c r="AH65" s="33"/>
       <c r="AI65" s="35"/>
       <c r="AJ65" s="22"/>
       <c r="AK65" s="22"/>
@@ -7474,291 +7291,291 @@
     </row>
     <row r="66" spans="1:38">
       <c r="A66" s="36"/>
-      <c r="B66" s="56"/>
-      <c r="C66" s="56"/>
-      <c r="D66" s="56"/>
-      <c r="E66" s="56"/>
-      <c r="F66" s="56"/>
-      <c r="G66" s="56"/>
-      <c r="H66" s="56"/>
-      <c r="I66" s="56"/>
-      <c r="J66" s="56"/>
-      <c r="K66" s="56"/>
-      <c r="L66" s="56"/>
-      <c r="M66" s="56"/>
-      <c r="N66" s="56"/>
-      <c r="O66" s="56"/>
-      <c r="P66" s="56"/>
-      <c r="Q66" s="56"/>
-      <c r="R66" s="56"/>
-      <c r="S66" s="56"/>
-      <c r="T66" s="56"/>
-      <c r="U66" s="56"/>
-      <c r="V66" s="56"/>
-      <c r="W66" s="56"/>
-      <c r="X66" s="56"/>
-      <c r="Y66" s="56"/>
-      <c r="Z66" s="56"/>
-      <c r="AA66" s="56"/>
-      <c r="AB66" s="56"/>
-      <c r="AC66" s="56"/>
-      <c r="AD66" s="56"/>
-      <c r="AE66" s="56"/>
-      <c r="AF66" s="56"/>
-      <c r="AG66" s="56"/>
-      <c r="AH66" s="56"/>
+      <c r="B66" s="33"/>
+      <c r="C66" s="33"/>
+      <c r="D66" s="33"/>
+      <c r="E66" s="33"/>
+      <c r="F66" s="33"/>
+      <c r="G66" s="33"/>
+      <c r="H66" s="33"/>
+      <c r="I66" s="33"/>
+      <c r="J66" s="33"/>
+      <c r="K66" s="33"/>
+      <c r="L66" s="33"/>
+      <c r="M66" s="33"/>
+      <c r="N66" s="33"/>
+      <c r="O66" s="33"/>
+      <c r="P66" s="33"/>
+      <c r="Q66" s="33"/>
+      <c r="R66" s="33"/>
+      <c r="S66" s="33"/>
+      <c r="T66" s="33"/>
+      <c r="U66" s="33"/>
+      <c r="V66" s="33"/>
+      <c r="W66" s="33"/>
+      <c r="X66" s="33"/>
+      <c r="Y66" s="33"/>
+      <c r="Z66" s="33"/>
+      <c r="AA66" s="33"/>
+      <c r="AB66" s="33"/>
+      <c r="AC66" s="33"/>
+      <c r="AD66" s="33"/>
+      <c r="AE66" s="33"/>
+      <c r="AF66" s="33"/>
+      <c r="AG66" s="33"/>
+      <c r="AH66" s="33"/>
     </row>
     <row r="67" spans="1:38">
       <c r="A67" s="36"/>
-      <c r="B67" s="56"/>
-      <c r="C67" s="56"/>
-      <c r="D67" s="56"/>
-      <c r="E67" s="56"/>
-      <c r="F67" s="56"/>
-      <c r="G67" s="56"/>
-      <c r="H67" s="56"/>
-      <c r="I67" s="56"/>
-      <c r="J67" s="56"/>
-      <c r="K67" s="56"/>
-      <c r="L67" s="56"/>
-      <c r="M67" s="56"/>
-      <c r="N67" s="56"/>
-      <c r="O67" s="56"/>
-      <c r="P67" s="56"/>
-      <c r="Q67" s="56"/>
-      <c r="R67" s="56"/>
-      <c r="S67" s="56"/>
-      <c r="T67" s="56"/>
-      <c r="U67" s="56"/>
-      <c r="V67" s="56"/>
-      <c r="W67" s="56"/>
-      <c r="X67" s="56"/>
-      <c r="Y67" s="56"/>
-      <c r="Z67" s="56"/>
-      <c r="AA67" s="56"/>
-      <c r="AB67" s="56"/>
-      <c r="AC67" s="56"/>
-      <c r="AD67" s="56"/>
-      <c r="AE67" s="56"/>
-      <c r="AF67" s="56"/>
-      <c r="AG67" s="56"/>
-      <c r="AH67" s="56"/>
+      <c r="B67" s="33"/>
+      <c r="C67" s="33"/>
+      <c r="D67" s="33"/>
+      <c r="E67" s="33"/>
+      <c r="F67" s="33"/>
+      <c r="G67" s="33"/>
+      <c r="H67" s="33"/>
+      <c r="I67" s="33"/>
+      <c r="J67" s="33"/>
+      <c r="K67" s="33"/>
+      <c r="L67" s="33"/>
+      <c r="M67" s="33"/>
+      <c r="N67" s="33"/>
+      <c r="O67" s="33"/>
+      <c r="P67" s="33"/>
+      <c r="Q67" s="33"/>
+      <c r="R67" s="33"/>
+      <c r="S67" s="33"/>
+      <c r="T67" s="33"/>
+      <c r="U67" s="33"/>
+      <c r="V67" s="33"/>
+      <c r="W67" s="33"/>
+      <c r="X67" s="33"/>
+      <c r="Y67" s="33"/>
+      <c r="Z67" s="33"/>
+      <c r="AA67" s="33"/>
+      <c r="AB67" s="33"/>
+      <c r="AC67" s="33"/>
+      <c r="AD67" s="33"/>
+      <c r="AE67" s="33"/>
+      <c r="AF67" s="33"/>
+      <c r="AG67" s="33"/>
+      <c r="AH67" s="33"/>
     </row>
     <row r="68" spans="1:38">
       <c r="A68" s="36"/>
-      <c r="B68" s="56"/>
-      <c r="C68" s="56"/>
-      <c r="D68" s="56"/>
-      <c r="E68" s="56"/>
-      <c r="F68" s="56"/>
-      <c r="G68" s="56"/>
-      <c r="H68" s="56"/>
-      <c r="I68" s="56"/>
-      <c r="J68" s="56"/>
-      <c r="K68" s="56"/>
-      <c r="L68" s="56"/>
-      <c r="M68" s="56"/>
-      <c r="N68" s="56"/>
-      <c r="O68" s="56"/>
-      <c r="P68" s="56"/>
-      <c r="Q68" s="56"/>
-      <c r="R68" s="56"/>
-      <c r="S68" s="56"/>
-      <c r="T68" s="56"/>
-      <c r="U68" s="56"/>
-      <c r="V68" s="56"/>
-      <c r="W68" s="56"/>
-      <c r="X68" s="56"/>
-      <c r="Y68" s="56"/>
-      <c r="Z68" s="56"/>
-      <c r="AA68" s="56"/>
-      <c r="AB68" s="56"/>
-      <c r="AC68" s="56"/>
-      <c r="AD68" s="56"/>
-      <c r="AE68" s="56"/>
-      <c r="AF68" s="56"/>
-      <c r="AG68" s="56"/>
-      <c r="AH68" s="56"/>
+      <c r="B68" s="33"/>
+      <c r="C68" s="33"/>
+      <c r="D68" s="33"/>
+      <c r="E68" s="33"/>
+      <c r="F68" s="33"/>
+      <c r="G68" s="33"/>
+      <c r="H68" s="33"/>
+      <c r="I68" s="33"/>
+      <c r="J68" s="33"/>
+      <c r="K68" s="33"/>
+      <c r="L68" s="33"/>
+      <c r="M68" s="33"/>
+      <c r="N68" s="33"/>
+      <c r="O68" s="33"/>
+      <c r="P68" s="33"/>
+      <c r="Q68" s="33"/>
+      <c r="R68" s="33"/>
+      <c r="S68" s="33"/>
+      <c r="T68" s="33"/>
+      <c r="U68" s="33"/>
+      <c r="V68" s="33"/>
+      <c r="W68" s="33"/>
+      <c r="X68" s="33"/>
+      <c r="Y68" s="33"/>
+      <c r="Z68" s="33"/>
+      <c r="AA68" s="33"/>
+      <c r="AB68" s="33"/>
+      <c r="AC68" s="33"/>
+      <c r="AD68" s="33"/>
+      <c r="AE68" s="33"/>
+      <c r="AF68" s="33"/>
+      <c r="AG68" s="33"/>
+      <c r="AH68" s="33"/>
     </row>
     <row r="69" spans="1:38">
       <c r="A69" s="36"/>
-      <c r="B69" s="56"/>
-      <c r="C69" s="56"/>
-      <c r="D69" s="56"/>
-      <c r="E69" s="56"/>
-      <c r="F69" s="56"/>
-      <c r="G69" s="56"/>
-      <c r="H69" s="56"/>
-      <c r="I69" s="56"/>
-      <c r="J69" s="56"/>
-      <c r="K69" s="56"/>
-      <c r="L69" s="56"/>
-      <c r="M69" s="56"/>
-      <c r="N69" s="56"/>
-      <c r="O69" s="56"/>
-      <c r="P69" s="56"/>
-      <c r="Q69" s="56"/>
-      <c r="R69" s="56"/>
-      <c r="S69" s="56"/>
-      <c r="T69" s="56"/>
-      <c r="U69" s="56"/>
-      <c r="V69" s="56"/>
-      <c r="W69" s="56"/>
-      <c r="X69" s="56"/>
-      <c r="Y69" s="56"/>
-      <c r="Z69" s="56"/>
-      <c r="AA69" s="56"/>
-      <c r="AB69" s="56"/>
-      <c r="AC69" s="56"/>
-      <c r="AD69" s="56"/>
-      <c r="AE69" s="56"/>
-      <c r="AF69" s="56"/>
-      <c r="AG69" s="56"/>
-      <c r="AH69" s="56"/>
+      <c r="B69" s="33"/>
+      <c r="C69" s="33"/>
+      <c r="D69" s="33"/>
+      <c r="E69" s="33"/>
+      <c r="F69" s="33"/>
+      <c r="G69" s="33"/>
+      <c r="H69" s="33"/>
+      <c r="I69" s="33"/>
+      <c r="J69" s="33"/>
+      <c r="K69" s="33"/>
+      <c r="L69" s="33"/>
+      <c r="M69" s="33"/>
+      <c r="N69" s="33"/>
+      <c r="O69" s="33"/>
+      <c r="P69" s="33"/>
+      <c r="Q69" s="33"/>
+      <c r="R69" s="33"/>
+      <c r="S69" s="33"/>
+      <c r="T69" s="33"/>
+      <c r="U69" s="33"/>
+      <c r="V69" s="33"/>
+      <c r="W69" s="33"/>
+      <c r="X69" s="33"/>
+      <c r="Y69" s="33"/>
+      <c r="Z69" s="33"/>
+      <c r="AA69" s="33"/>
+      <c r="AB69" s="33"/>
+      <c r="AC69" s="33"/>
+      <c r="AD69" s="33"/>
+      <c r="AE69" s="33"/>
+      <c r="AF69" s="33"/>
+      <c r="AG69" s="33"/>
+      <c r="AH69" s="33"/>
     </row>
     <row r="70" spans="1:38">
       <c r="A70" s="36"/>
-      <c r="B70" s="56"/>
-      <c r="C70" s="56"/>
-      <c r="D70" s="56"/>
-      <c r="E70" s="56"/>
-      <c r="F70" s="56"/>
-      <c r="G70" s="56"/>
-      <c r="H70" s="56"/>
-      <c r="I70" s="56"/>
-      <c r="J70" s="56"/>
-      <c r="K70" s="56"/>
-      <c r="L70" s="56"/>
-      <c r="M70" s="56"/>
-      <c r="N70" s="56"/>
-      <c r="O70" s="56"/>
-      <c r="P70" s="56"/>
-      <c r="Q70" s="56"/>
-      <c r="R70" s="56"/>
-      <c r="S70" s="56"/>
-      <c r="T70" s="56"/>
-      <c r="U70" s="56"/>
-      <c r="V70" s="56"/>
-      <c r="W70" s="56"/>
-      <c r="X70" s="56"/>
-      <c r="Y70" s="56"/>
-      <c r="Z70" s="56"/>
-      <c r="AA70" s="56"/>
-      <c r="AB70" s="56"/>
-      <c r="AC70" s="56"/>
-      <c r="AD70" s="56"/>
-      <c r="AE70" s="56"/>
-      <c r="AF70" s="56"/>
-      <c r="AG70" s="56"/>
-      <c r="AH70" s="56"/>
+      <c r="B70" s="33"/>
+      <c r="C70" s="33"/>
+      <c r="D70" s="33"/>
+      <c r="E70" s="33"/>
+      <c r="F70" s="33"/>
+      <c r="G70" s="33"/>
+      <c r="H70" s="33"/>
+      <c r="I70" s="33"/>
+      <c r="J70" s="33"/>
+      <c r="K70" s="33"/>
+      <c r="L70" s="33"/>
+      <c r="M70" s="33"/>
+      <c r="N70" s="33"/>
+      <c r="O70" s="33"/>
+      <c r="P70" s="33"/>
+      <c r="Q70" s="33"/>
+      <c r="R70" s="33"/>
+      <c r="S70" s="33"/>
+      <c r="T70" s="33"/>
+      <c r="U70" s="33"/>
+      <c r="V70" s="33"/>
+      <c r="W70" s="33"/>
+      <c r="X70" s="33"/>
+      <c r="Y70" s="33"/>
+      <c r="Z70" s="33"/>
+      <c r="AA70" s="33"/>
+      <c r="AB70" s="33"/>
+      <c r="AC70" s="33"/>
+      <c r="AD70" s="33"/>
+      <c r="AE70" s="33"/>
+      <c r="AF70" s="33"/>
+      <c r="AG70" s="33"/>
+      <c r="AH70" s="33"/>
     </row>
     <row r="71" spans="1:38">
       <c r="A71" s="36"/>
-      <c r="B71" s="56"/>
-      <c r="C71" s="56"/>
-      <c r="D71" s="56"/>
-      <c r="E71" s="56"/>
-      <c r="F71" s="56"/>
-      <c r="G71" s="56"/>
-      <c r="H71" s="56"/>
-      <c r="I71" s="56"/>
-      <c r="J71" s="56"/>
-      <c r="K71" s="56"/>
-      <c r="L71" s="56"/>
-      <c r="M71" s="56"/>
-      <c r="N71" s="56"/>
-      <c r="O71" s="56"/>
-      <c r="P71" s="56"/>
-      <c r="Q71" s="56"/>
-      <c r="R71" s="56"/>
-      <c r="S71" s="56"/>
-      <c r="T71" s="56"/>
-      <c r="U71" s="56"/>
-      <c r="V71" s="56"/>
-      <c r="W71" s="56"/>
-      <c r="X71" s="56"/>
-      <c r="Y71" s="56"/>
-      <c r="Z71" s="56"/>
-      <c r="AA71" s="56"/>
-      <c r="AB71" s="56"/>
-      <c r="AC71" s="56"/>
-      <c r="AD71" s="56"/>
-      <c r="AE71" s="56"/>
-      <c r="AF71" s="56"/>
-      <c r="AG71" s="56"/>
-      <c r="AH71" s="56"/>
+      <c r="B71" s="33"/>
+      <c r="C71" s="33"/>
+      <c r="D71" s="33"/>
+      <c r="E71" s="33"/>
+      <c r="F71" s="33"/>
+      <c r="G71" s="33"/>
+      <c r="H71" s="33"/>
+      <c r="I71" s="33"/>
+      <c r="J71" s="33"/>
+      <c r="K71" s="33"/>
+      <c r="L71" s="33"/>
+      <c r="M71" s="33"/>
+      <c r="N71" s="33"/>
+      <c r="O71" s="33"/>
+      <c r="P71" s="33"/>
+      <c r="Q71" s="33"/>
+      <c r="R71" s="33"/>
+      <c r="S71" s="33"/>
+      <c r="T71" s="33"/>
+      <c r="U71" s="33"/>
+      <c r="V71" s="33"/>
+      <c r="W71" s="33"/>
+      <c r="X71" s="33"/>
+      <c r="Y71" s="33"/>
+      <c r="Z71" s="33"/>
+      <c r="AA71" s="33"/>
+      <c r="AB71" s="33"/>
+      <c r="AC71" s="33"/>
+      <c r="AD71" s="33"/>
+      <c r="AE71" s="33"/>
+      <c r="AF71" s="33"/>
+      <c r="AG71" s="33"/>
+      <c r="AH71" s="33"/>
     </row>
     <row r="72" spans="1:38">
       <c r="A72" s="36"/>
-      <c r="B72" s="56"/>
-      <c r="C72" s="56"/>
-      <c r="D72" s="56"/>
-      <c r="E72" s="56"/>
-      <c r="F72" s="56"/>
-      <c r="G72" s="56"/>
-      <c r="H72" s="56"/>
-      <c r="I72" s="56"/>
-      <c r="J72" s="56"/>
-      <c r="K72" s="56"/>
-      <c r="L72" s="56"/>
-      <c r="M72" s="56"/>
-      <c r="N72" s="56"/>
-      <c r="O72" s="56"/>
-      <c r="P72" s="56"/>
-      <c r="Q72" s="56"/>
-      <c r="R72" s="56"/>
-      <c r="S72" s="56"/>
-      <c r="T72" s="56"/>
-      <c r="U72" s="56"/>
-      <c r="V72" s="56"/>
-      <c r="W72" s="56"/>
-      <c r="X72" s="56"/>
-      <c r="Y72" s="56"/>
-      <c r="Z72" s="56"/>
-      <c r="AA72" s="56"/>
-      <c r="AB72" s="56"/>
-      <c r="AC72" s="56"/>
-      <c r="AD72" s="56"/>
-      <c r="AE72" s="56"/>
-      <c r="AF72" s="56"/>
-      <c r="AG72" s="56"/>
-      <c r="AH72" s="56"/>
+      <c r="B72" s="33"/>
+      <c r="C72" s="33"/>
+      <c r="D72" s="33"/>
+      <c r="E72" s="33"/>
+      <c r="F72" s="33"/>
+      <c r="G72" s="33"/>
+      <c r="H72" s="33"/>
+      <c r="I72" s="33"/>
+      <c r="J72" s="33"/>
+      <c r="K72" s="33"/>
+      <c r="L72" s="33"/>
+      <c r="M72" s="33"/>
+      <c r="N72" s="33"/>
+      <c r="O72" s="33"/>
+      <c r="P72" s="33"/>
+      <c r="Q72" s="33"/>
+      <c r="R72" s="33"/>
+      <c r="S72" s="33"/>
+      <c r="T72" s="33"/>
+      <c r="U72" s="33"/>
+      <c r="V72" s="33"/>
+      <c r="W72" s="33"/>
+      <c r="X72" s="33"/>
+      <c r="Y72" s="33"/>
+      <c r="Z72" s="33"/>
+      <c r="AA72" s="33"/>
+      <c r="AB72" s="33"/>
+      <c r="AC72" s="33"/>
+      <c r="AD72" s="33"/>
+      <c r="AE72" s="33"/>
+      <c r="AF72" s="33"/>
+      <c r="AG72" s="33"/>
+      <c r="AH72" s="33"/>
     </row>
     <row r="73" spans="1:38">
       <c r="A73" s="36"/>
-      <c r="B73" s="56"/>
-      <c r="C73" s="56"/>
-      <c r="D73" s="56"/>
-      <c r="E73" s="56"/>
-      <c r="F73" s="56"/>
-      <c r="G73" s="56"/>
-      <c r="H73" s="56"/>
-      <c r="I73" s="56"/>
-      <c r="J73" s="56"/>
-      <c r="K73" s="56"/>
-      <c r="L73" s="56"/>
-      <c r="M73" s="56"/>
-      <c r="N73" s="56"/>
-      <c r="O73" s="56"/>
-      <c r="P73" s="56"/>
-      <c r="Q73" s="56"/>
-      <c r="R73" s="56"/>
-      <c r="S73" s="56"/>
-      <c r="T73" s="56"/>
-      <c r="U73" s="56"/>
-      <c r="V73" s="56"/>
-      <c r="W73" s="56"/>
-      <c r="X73" s="56"/>
-      <c r="Y73" s="56"/>
-      <c r="Z73" s="56"/>
-      <c r="AA73" s="56"/>
-      <c r="AB73" s="56"/>
-      <c r="AC73" s="56"/>
-      <c r="AD73" s="56"/>
-      <c r="AE73" s="56"/>
-      <c r="AF73" s="56"/>
-      <c r="AG73" s="56"/>
-      <c r="AH73" s="56"/>
+      <c r="B73" s="33"/>
+      <c r="C73" s="33"/>
+      <c r="D73" s="33"/>
+      <c r="E73" s="33"/>
+      <c r="F73" s="33"/>
+      <c r="G73" s="33"/>
+      <c r="H73" s="33"/>
+      <c r="I73" s="33"/>
+      <c r="J73" s="33"/>
+      <c r="K73" s="33"/>
+      <c r="L73" s="33"/>
+      <c r="M73" s="33"/>
+      <c r="N73" s="33"/>
+      <c r="O73" s="33"/>
+      <c r="P73" s="33"/>
+      <c r="Q73" s="33"/>
+      <c r="R73" s="33"/>
+      <c r="S73" s="33"/>
+      <c r="T73" s="33"/>
+      <c r="U73" s="33"/>
+      <c r="V73" s="33"/>
+      <c r="W73" s="33"/>
+      <c r="X73" s="33"/>
+      <c r="Y73" s="33"/>
+      <c r="Z73" s="33"/>
+      <c r="AA73" s="33"/>
+      <c r="AB73" s="33"/>
+      <c r="AC73" s="33"/>
+      <c r="AD73" s="33"/>
+      <c r="AE73" s="33"/>
+      <c r="AF73" s="33"/>
+      <c r="AG73" s="33"/>
+      <c r="AH73" s="33"/>
     </row>
     <row r="74" spans="1:38">
       <c r="A74" s="43" t="s">
@@ -7769,36 +7586,36 @@
       <c r="D74" s="44"/>
       <c r="E74" s="44"/>
       <c r="F74" s="44"/>
-      <c r="G74" s="56"/>
+      <c r="G74" s="33"/>
       <c r="H74" s="43" t="s">
         <v>281</v>
       </c>
-      <c r="I74" s="56"/>
-      <c r="J74" s="56"/>
-      <c r="K74" s="56"/>
-      <c r="L74" s="56"/>
-      <c r="M74" s="56"/>
-      <c r="N74" s="56"/>
-      <c r="O74" s="56"/>
-      <c r="P74" s="56"/>
-      <c r="Q74" s="56"/>
-      <c r="R74" s="56"/>
-      <c r="S74" s="56"/>
-      <c r="T74" s="56"/>
-      <c r="U74" s="56"/>
-      <c r="V74" s="56"/>
-      <c r="W74" s="56"/>
-      <c r="X74" s="56"/>
-      <c r="Y74" s="56"/>
-      <c r="Z74" s="56"/>
-      <c r="AA74" s="56"/>
-      <c r="AB74" s="56"/>
-      <c r="AC74" s="56"/>
-      <c r="AD74" s="56"/>
-      <c r="AE74" s="56"/>
-      <c r="AF74" s="56"/>
-      <c r="AG74" s="56"/>
-      <c r="AH74" s="56"/>
+      <c r="I74" s="33"/>
+      <c r="J74" s="33"/>
+      <c r="K74" s="33"/>
+      <c r="L74" s="33"/>
+      <c r="M74" s="33"/>
+      <c r="N74" s="33"/>
+      <c r="O74" s="33"/>
+      <c r="P74" s="33"/>
+      <c r="Q74" s="33"/>
+      <c r="R74" s="33"/>
+      <c r="S74" s="33"/>
+      <c r="T74" s="33"/>
+      <c r="U74" s="33"/>
+      <c r="V74" s="33"/>
+      <c r="W74" s="33"/>
+      <c r="X74" s="33"/>
+      <c r="Y74" s="33"/>
+      <c r="Z74" s="33"/>
+      <c r="AA74" s="33"/>
+      <c r="AB74" s="33"/>
+      <c r="AC74" s="33"/>
+      <c r="AD74" s="33"/>
+      <c r="AE74" s="33"/>
+      <c r="AF74" s="33"/>
+      <c r="AG74" s="33"/>
+      <c r="AH74" s="33"/>
     </row>
     <row r="75" spans="1:38">
       <c r="A75" s="43" t="s">
@@ -7811,7 +7628,7 @@
       <c r="D75" s="44"/>
       <c r="E75" s="44"/>
       <c r="F75" s="44"/>
-      <c r="G75" s="56"/>
+      <c r="G75" s="33"/>
       <c r="H75" s="36" t="s">
         <v>291</v>
       </c>
@@ -7845,7 +7662,7 @@
       <c r="R75" s="44" t="s">
         <v>168</v>
       </c>
-      <c r="S75" s="111" t="s">
+      <c r="S75" s="101" t="s">
         <v>171</v>
       </c>
       <c r="T75" s="44" t="s">
@@ -7857,18 +7674,18 @@
       <c r="V75" s="44" t="s">
         <v>144</v>
       </c>
-      <c r="W75" s="56"/>
-      <c r="X75" s="56"/>
-      <c r="Y75" s="56"/>
-      <c r="Z75" s="56"/>
-      <c r="AA75" s="56"/>
-      <c r="AB75" s="56"/>
-      <c r="AC75" s="56"/>
-      <c r="AD75" s="56"/>
-      <c r="AE75" s="56"/>
-      <c r="AF75" s="56"/>
-      <c r="AG75" s="56"/>
-      <c r="AH75" s="56"/>
+      <c r="W75" s="33"/>
+      <c r="X75" s="33"/>
+      <c r="Y75" s="33"/>
+      <c r="Z75" s="33"/>
+      <c r="AA75" s="33"/>
+      <c r="AB75" s="33"/>
+      <c r="AC75" s="33"/>
+      <c r="AD75" s="33"/>
+      <c r="AE75" s="33"/>
+      <c r="AF75" s="33"/>
+      <c r="AG75" s="33"/>
+      <c r="AH75" s="33"/>
     </row>
     <row r="76" spans="1:38">
       <c r="A76" s="43" t="s">
@@ -7883,7 +7700,7 @@
       <c r="D76" s="44"/>
       <c r="E76" s="44"/>
       <c r="F76" s="44"/>
-      <c r="G76" s="56"/>
+      <c r="G76" s="33"/>
       <c r="H76" s="44">
         <f>SUM(I76:V76,H78:V78)</f>
         <v>100</v>
@@ -7894,7 +7711,7 @@
       <c r="J76" s="44">
         <v>15</v>
       </c>
-      <c r="K76" s="111">
+      <c r="K76" s="101">
         <v>2.5</v>
       </c>
       <c r="L76" s="44">
@@ -7927,21 +7744,21 @@
       <c r="U76" s="44">
         <v>5</v>
       </c>
-      <c r="V76" s="111">
+      <c r="V76" s="101">
         <v>5</v>
       </c>
       <c r="W76" s="44"/>
-      <c r="X76" s="111"/>
-      <c r="Y76" s="56"/>
-      <c r="Z76" s="56"/>
-      <c r="AA76" s="56"/>
-      <c r="AB76" s="56"/>
-      <c r="AC76" s="56"/>
-      <c r="AD76" s="56"/>
-      <c r="AE76" s="56"/>
-      <c r="AF76" s="56"/>
-      <c r="AG76" s="56"/>
-      <c r="AH76" s="56"/>
+      <c r="X76" s="101"/>
+      <c r="Y76" s="33"/>
+      <c r="Z76" s="33"/>
+      <c r="AA76" s="33"/>
+      <c r="AB76" s="33"/>
+      <c r="AC76" s="33"/>
+      <c r="AD76" s="33"/>
+      <c r="AE76" s="33"/>
+      <c r="AF76" s="33"/>
+      <c r="AG76" s="33"/>
+      <c r="AH76" s="33"/>
     </row>
     <row r="77" spans="1:38">
       <c r="A77" s="43" t="s">
@@ -7956,7 +7773,7 @@
       <c r="D77" s="44"/>
       <c r="E77" s="44"/>
       <c r="F77" s="44"/>
-      <c r="G77" s="56"/>
+      <c r="G77" s="33"/>
       <c r="H77" s="44"/>
       <c r="I77" s="44" t="s">
         <v>142</v>
@@ -7964,7 +7781,7 @@
       <c r="J77" s="44" t="s">
         <v>156</v>
       </c>
-      <c r="K77" s="111" t="s">
+      <c r="K77" s="101" t="s">
         <v>157</v>
       </c>
       <c r="L77" s="44" t="s">
@@ -7991,7 +7808,7 @@
       <c r="S77" s="44"/>
       <c r="T77" s="44"/>
       <c r="U77" s="44"/>
-      <c r="V77" s="111"/>
+      <c r="V77" s="101"/>
       <c r="W77" s="44"/>
       <c r="X77" s="44"/>
       <c r="Y77" s="44"/>
@@ -7999,11 +7816,11 @@
       <c r="AA77" s="44"/>
       <c r="AB77" s="44"/>
       <c r="AC77" s="44"/>
-      <c r="AD77" s="111"/>
-      <c r="AE77" s="56"/>
-      <c r="AF77" s="56"/>
-      <c r="AG77" s="56"/>
-      <c r="AH77" s="56"/>
+      <c r="AD77" s="101"/>
+      <c r="AE77" s="33"/>
+      <c r="AF77" s="33"/>
+      <c r="AG77" s="33"/>
+      <c r="AH77" s="33"/>
     </row>
     <row r="78" spans="1:38">
       <c r="A78" s="43" t="s">
@@ -8018,7 +7835,7 @@
       <c r="D78" s="44"/>
       <c r="E78" s="44"/>
       <c r="F78" s="44"/>
-      <c r="G78" s="56"/>
+      <c r="G78" s="33"/>
       <c r="H78" s="36"/>
       <c r="I78" s="44">
         <v>4</v>
@@ -8054,18 +7871,18 @@
       <c r="T78" s="44"/>
       <c r="U78" s="44"/>
       <c r="V78" s="44"/>
-      <c r="W78" s="56"/>
-      <c r="X78" s="56"/>
-      <c r="Y78" s="56"/>
-      <c r="Z78" s="56"/>
-      <c r="AA78" s="56"/>
-      <c r="AB78" s="56"/>
-      <c r="AC78" s="56"/>
-      <c r="AD78" s="56"/>
-      <c r="AE78" s="56"/>
-      <c r="AF78" s="56"/>
-      <c r="AG78" s="56"/>
-      <c r="AH78" s="56"/>
+      <c r="W78" s="33"/>
+      <c r="X78" s="33"/>
+      <c r="Y78" s="33"/>
+      <c r="Z78" s="33"/>
+      <c r="AA78" s="33"/>
+      <c r="AB78" s="33"/>
+      <c r="AC78" s="33"/>
+      <c r="AD78" s="33"/>
+      <c r="AE78" s="33"/>
+      <c r="AF78" s="33"/>
+      <c r="AG78" s="33"/>
+      <c r="AH78" s="33"/>
     </row>
     <row r="79" spans="1:38">
       <c r="A79" s="43" t="s">
@@ -8080,7 +7897,7 @@
       <c r="D79" s="44"/>
       <c r="E79" s="44"/>
       <c r="F79" s="44"/>
-      <c r="G79" s="56"/>
+      <c r="G79" s="33"/>
       <c r="H79" s="36" t="s">
         <v>282</v>
       </c>
@@ -8126,18 +7943,18 @@
       <c r="V79" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="W79" s="56"/>
-      <c r="X79" s="56"/>
-      <c r="Y79" s="56"/>
-      <c r="Z79" s="56"/>
-      <c r="AA79" s="56"/>
-      <c r="AB79" s="56"/>
-      <c r="AC79" s="56"/>
-      <c r="AD79" s="56"/>
-      <c r="AE79" s="56"/>
-      <c r="AF79" s="56"/>
-      <c r="AG79" s="56"/>
-      <c r="AH79" s="56"/>
+      <c r="W79" s="33"/>
+      <c r="X79" s="33"/>
+      <c r="Y79" s="33"/>
+      <c r="Z79" s="33"/>
+      <c r="AA79" s="33"/>
+      <c r="AB79" s="33"/>
+      <c r="AC79" s="33"/>
+      <c r="AD79" s="33"/>
+      <c r="AE79" s="33"/>
+      <c r="AF79" s="33"/>
+      <c r="AG79" s="33"/>
+      <c r="AH79" s="33"/>
     </row>
     <row r="80" spans="1:38">
       <c r="A80" s="43" t="s">
@@ -8152,7 +7969,7 @@
       <c r="D80" s="44"/>
       <c r="E80" s="44"/>
       <c r="F80" s="44"/>
-      <c r="G80" s="56"/>
+      <c r="G80" s="33"/>
       <c r="H80" s="44">
         <f>SUM(H82:R82,I80:V80)</f>
         <v>100</v>
@@ -8175,7 +7992,7 @@
       <c r="N80" s="44">
         <v>4</v>
       </c>
-      <c r="O80" s="111">
+      <c r="O80" s="101">
         <v>4</v>
       </c>
       <c r="P80" s="44">
@@ -8187,30 +8004,30 @@
       <c r="R80" s="44">
         <v>4</v>
       </c>
-      <c r="S80" s="56">
+      <c r="S80" s="33">
         <v>4</v>
       </c>
-      <c r="T80" s="56">
+      <c r="T80" s="33">
         <v>4</v>
       </c>
-      <c r="U80" s="56">
+      <c r="U80" s="33">
         <v>0.5</v>
       </c>
-      <c r="V80" s="56">
+      <c r="V80" s="33">
         <v>2</v>
       </c>
-      <c r="W80" s="56"/>
-      <c r="X80" s="56"/>
-      <c r="Y80" s="56"/>
-      <c r="Z80" s="56"/>
-      <c r="AA80" s="56"/>
-      <c r="AB80" s="56"/>
-      <c r="AC80" s="56"/>
-      <c r="AD80" s="56"/>
-      <c r="AE80" s="56"/>
-      <c r="AF80" s="56"/>
-      <c r="AG80" s="56"/>
-      <c r="AH80" s="56"/>
+      <c r="W80" s="33"/>
+      <c r="X80" s="33"/>
+      <c r="Y80" s="33"/>
+      <c r="Z80" s="33"/>
+      <c r="AA80" s="33"/>
+      <c r="AB80" s="33"/>
+      <c r="AC80" s="33"/>
+      <c r="AD80" s="33"/>
+      <c r="AE80" s="33"/>
+      <c r="AF80" s="33"/>
+      <c r="AG80" s="33"/>
+      <c r="AH80" s="33"/>
     </row>
     <row r="81" spans="1:34">
       <c r="A81" s="43" t="s">
@@ -8223,7 +8040,7 @@
       <c r="D81" s="44"/>
       <c r="E81" s="44"/>
       <c r="F81" s="44"/>
-      <c r="G81" s="56"/>
+      <c r="G81" s="33"/>
       <c r="H81" s="44" t="s">
         <v>122</v>
       </c>
@@ -8245,7 +8062,7 @@
       <c r="N81" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="O81" s="111" t="s">
+      <c r="O81" s="101" t="s">
         <v>131</v>
       </c>
       <c r="P81" s="44" t="s">
@@ -8257,22 +8074,22 @@
       <c r="R81" s="44" t="s">
         <v>174</v>
       </c>
-      <c r="S81" s="56"/>
-      <c r="T81" s="56"/>
-      <c r="U81" s="56"/>
-      <c r="V81" s="56"/>
+      <c r="S81" s="33"/>
+      <c r="T81" s="33"/>
+      <c r="U81" s="33"/>
+      <c r="V81" s="33"/>
       <c r="W81" s="44"/>
       <c r="X81" s="44"/>
       <c r="Y81" s="44"/>
       <c r="Z81" s="44"/>
       <c r="AA81" s="44"/>
-      <c r="AB81" s="111"/>
-      <c r="AC81" s="56"/>
-      <c r="AD81" s="56"/>
-      <c r="AE81" s="56"/>
-      <c r="AF81" s="56"/>
-      <c r="AG81" s="56"/>
-      <c r="AH81" s="56"/>
+      <c r="AB81" s="101"/>
+      <c r="AC81" s="33"/>
+      <c r="AD81" s="33"/>
+      <c r="AE81" s="33"/>
+      <c r="AF81" s="33"/>
+      <c r="AG81" s="33"/>
+      <c r="AH81" s="33"/>
     </row>
     <row r="82" spans="1:34">
       <c r="A82" s="43" t="s">
@@ -8285,7 +8102,7 @@
       <c r="D82" s="44"/>
       <c r="E82" s="44"/>
       <c r="F82" s="44"/>
-      <c r="G82" s="56"/>
+      <c r="G82" s="33"/>
       <c r="H82" s="33">
         <v>2</v>
       </c>
@@ -8307,7 +8124,7 @@
       <c r="N82" s="44">
         <v>4</v>
       </c>
-      <c r="O82" s="111">
+      <c r="O82" s="101">
         <v>1</v>
       </c>
       <c r="P82" s="44">
@@ -8319,22 +8136,22 @@
       <c r="R82" s="44">
         <v>3.49</v>
       </c>
-      <c r="S82" s="56"/>
-      <c r="T82" s="56"/>
-      <c r="U82" s="56"/>
-      <c r="V82" s="56"/>
-      <c r="W82" s="56"/>
-      <c r="X82" s="56"/>
-      <c r="Y82" s="56"/>
-      <c r="Z82" s="56"/>
-      <c r="AA82" s="56"/>
-      <c r="AB82" s="56"/>
-      <c r="AC82" s="56"/>
-      <c r="AD82" s="56"/>
-      <c r="AE82" s="56"/>
-      <c r="AF82" s="56"/>
-      <c r="AG82" s="56"/>
-      <c r="AH82" s="56"/>
+      <c r="S82" s="33"/>
+      <c r="T82" s="33"/>
+      <c r="U82" s="33"/>
+      <c r="V82" s="33"/>
+      <c r="W82" s="33"/>
+      <c r="X82" s="33"/>
+      <c r="Y82" s="33"/>
+      <c r="Z82" s="33"/>
+      <c r="AA82" s="33"/>
+      <c r="AB82" s="33"/>
+      <c r="AC82" s="33"/>
+      <c r="AD82" s="33"/>
+      <c r="AE82" s="33"/>
+      <c r="AF82" s="33"/>
+      <c r="AG82" s="33"/>
+      <c r="AH82" s="33"/>
     </row>
     <row r="83" spans="1:34">
       <c r="A83" s="43" t="s">
@@ -8349,7 +8166,7 @@
       <c r="D83" s="44"/>
       <c r="E83" s="44"/>
       <c r="F83" s="44"/>
-      <c r="G83" s="56"/>
+      <c r="G83" s="33"/>
       <c r="H83" s="36" t="s">
         <v>283</v>
       </c>
@@ -8371,7 +8188,7 @@
       <c r="N83" s="44" t="s">
         <v>203</v>
       </c>
-      <c r="O83" s="111" t="s">
+      <c r="O83" s="101" t="s">
         <v>206</v>
       </c>
       <c r="P83" s="44" t="s">
@@ -8383,22 +8200,22 @@
       <c r="R83" s="44" t="s">
         <v>122</v>
       </c>
-      <c r="S83" s="56"/>
-      <c r="T83" s="56"/>
-      <c r="U83" s="56"/>
-      <c r="V83" s="56"/>
-      <c r="W83" s="56"/>
-      <c r="X83" s="56"/>
-      <c r="Y83" s="56"/>
-      <c r="Z83" s="56"/>
-      <c r="AA83" s="56"/>
-      <c r="AB83" s="56"/>
-      <c r="AC83" s="56"/>
-      <c r="AD83" s="56"/>
-      <c r="AE83" s="56"/>
-      <c r="AF83" s="56"/>
-      <c r="AG83" s="56"/>
-      <c r="AH83" s="56"/>
+      <c r="S83" s="33"/>
+      <c r="T83" s="33"/>
+      <c r="U83" s="33"/>
+      <c r="V83" s="33"/>
+      <c r="W83" s="33"/>
+      <c r="X83" s="33"/>
+      <c r="Y83" s="33"/>
+      <c r="Z83" s="33"/>
+      <c r="AA83" s="33"/>
+      <c r="AB83" s="33"/>
+      <c r="AC83" s="33"/>
+      <c r="AD83" s="33"/>
+      <c r="AE83" s="33"/>
+      <c r="AF83" s="33"/>
+      <c r="AG83" s="33"/>
+      <c r="AH83" s="33"/>
     </row>
     <row r="84" spans="1:34">
       <c r="A84" s="43" t="s">
@@ -8407,13 +8224,13 @@
       <c r="B84" s="44" t="s">
         <v>154</v>
       </c>
-      <c r="C84" s="55" t="s">
+      <c r="C84" s="38" t="s">
         <v>144</v>
       </c>
       <c r="D84" s="44"/>
       <c r="E84" s="44"/>
       <c r="F84" s="44"/>
-      <c r="G84" s="56"/>
+      <c r="G84" s="33"/>
       <c r="H84" s="36">
         <f>SUM(I84:R84)</f>
         <v>100</v>
@@ -8436,49 +8253,49 @@
       <c r="N84" s="44">
         <v>10</v>
       </c>
-      <c r="O84" s="56">
+      <c r="O84" s="33">
         <v>5</v>
       </c>
-      <c r="P84" s="56">
+      <c r="P84" s="33">
         <v>10</v>
       </c>
-      <c r="Q84" s="56">
+      <c r="Q84" s="33">
         <v>3</v>
       </c>
-      <c r="R84" s="56">
+      <c r="R84" s="33">
         <v>2</v>
       </c>
-      <c r="S84" s="56"/>
-      <c r="T84" s="56"/>
-      <c r="U84" s="56"/>
-      <c r="V84" s="56"/>
-      <c r="W84" s="56"/>
-      <c r="X84" s="56"/>
-      <c r="Y84" s="56"/>
-      <c r="Z84" s="56"/>
-      <c r="AA84" s="56"/>
-      <c r="AB84" s="56"/>
-      <c r="AC84" s="56"/>
-      <c r="AD84" s="56"/>
-      <c r="AE84" s="56"/>
-      <c r="AF84" s="56"/>
-      <c r="AG84" s="56"/>
-      <c r="AH84" s="56"/>
+      <c r="S84" s="33"/>
+      <c r="T84" s="33"/>
+      <c r="U84" s="33"/>
+      <c r="V84" s="33"/>
+      <c r="W84" s="33"/>
+      <c r="X84" s="33"/>
+      <c r="Y84" s="33"/>
+      <c r="Z84" s="33"/>
+      <c r="AA84" s="33"/>
+      <c r="AB84" s="33"/>
+      <c r="AC84" s="33"/>
+      <c r="AD84" s="33"/>
+      <c r="AE84" s="33"/>
+      <c r="AF84" s="33"/>
+      <c r="AG84" s="33"/>
+      <c r="AH84" s="33"/>
     </row>
     <row r="85" spans="1:34">
       <c r="A85" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="B85" s="54" t="s">
+      <c r="B85" s="44" t="s">
         <v>190</v>
       </c>
-      <c r="C85" s="54" t="s">
+      <c r="C85" s="44" t="s">
         <v>142</v>
       </c>
-      <c r="D85" s="54"/>
-      <c r="E85" s="54"/>
-      <c r="F85" s="54"/>
-      <c r="G85" s="56"/>
+      <c r="D85" s="44"/>
+      <c r="E85" s="44"/>
+      <c r="F85" s="44"/>
+      <c r="G85" s="33"/>
       <c r="H85" s="36" t="s">
         <v>298</v>
       </c>
@@ -8500,47 +8317,47 @@
       <c r="N85" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="O85" s="56"/>
-      <c r="P85" s="56"/>
-      <c r="Q85" s="56"/>
-      <c r="R85" s="56"/>
-      <c r="S85" s="56"/>
-      <c r="T85" s="56"/>
-      <c r="U85" s="56"/>
-      <c r="V85" s="56"/>
-      <c r="W85" s="56"/>
-      <c r="X85" s="56"/>
-      <c r="Y85" s="56"/>
-      <c r="Z85" s="56"/>
-      <c r="AA85" s="56"/>
-      <c r="AB85" s="56"/>
-      <c r="AC85" s="56"/>
-      <c r="AD85" s="56"/>
-      <c r="AE85" s="56"/>
-      <c r="AF85" s="56"/>
-      <c r="AG85" s="56"/>
-      <c r="AH85" s="56"/>
+      <c r="O85" s="33"/>
+      <c r="P85" s="33"/>
+      <c r="Q85" s="33"/>
+      <c r="R85" s="33"/>
+      <c r="S85" s="33"/>
+      <c r="T85" s="33"/>
+      <c r="U85" s="33"/>
+      <c r="V85" s="33"/>
+      <c r="W85" s="33"/>
+      <c r="X85" s="33"/>
+      <c r="Y85" s="33"/>
+      <c r="Z85" s="33"/>
+      <c r="AA85" s="33"/>
+      <c r="AB85" s="33"/>
+      <c r="AC85" s="33"/>
+      <c r="AD85" s="33"/>
+      <c r="AE85" s="33"/>
+      <c r="AF85" s="33"/>
+      <c r="AG85" s="33"/>
+      <c r="AH85" s="33"/>
     </row>
     <row r="86" spans="1:34">
       <c r="A86" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="B86" s="54" t="s">
+      <c r="B86" s="44" t="s">
         <v>122</v>
       </c>
-      <c r="C86" s="54" t="s">
+      <c r="C86" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="D86" s="54" t="s">
+      <c r="D86" s="44" t="s">
         <v>134</v>
       </c>
-      <c r="E86" s="54" t="s">
+      <c r="E86" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="F86" s="54" t="s">
+      <c r="F86" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="G86" s="56"/>
+      <c r="G86" s="33"/>
       <c r="H86" s="36">
         <f>SUM(I86:N86)</f>
         <v>100</v>
@@ -8571,31 +8388,31 @@
       <c r="T86" s="44"/>
       <c r="U86" s="44"/>
       <c r="V86" s="44"/>
-      <c r="W86" s="56"/>
-      <c r="X86" s="56"/>
-      <c r="Y86" s="56"/>
-      <c r="Z86" s="56"/>
-      <c r="AA86" s="56"/>
-      <c r="AB86" s="56"/>
-      <c r="AC86" s="56"/>
-      <c r="AD86" s="56"/>
-      <c r="AE86" s="56"/>
-      <c r="AF86" s="56"/>
-      <c r="AG86" s="56"/>
-      <c r="AH86" s="56"/>
+      <c r="W86" s="33"/>
+      <c r="X86" s="33"/>
+      <c r="Y86" s="33"/>
+      <c r="Z86" s="33"/>
+      <c r="AA86" s="33"/>
+      <c r="AB86" s="33"/>
+      <c r="AC86" s="33"/>
+      <c r="AD86" s="33"/>
+      <c r="AE86" s="33"/>
+      <c r="AF86" s="33"/>
+      <c r="AG86" s="33"/>
+      <c r="AH86" s="33"/>
     </row>
     <row r="87" spans="1:34">
       <c r="A87" s="43" t="s">
         <v>193</v>
       </c>
-      <c r="B87" s="54" t="s">
+      <c r="B87" s="44" t="s">
         <v>142</v>
       </c>
-      <c r="C87" s="54"/>
-      <c r="D87" s="54"/>
-      <c r="E87" s="54"/>
-      <c r="F87" s="54"/>
-      <c r="G87" s="56"/>
+      <c r="C87" s="44"/>
+      <c r="D87" s="44"/>
+      <c r="E87" s="44"/>
+      <c r="F87" s="44"/>
+      <c r="G87" s="33"/>
       <c r="H87" s="36" t="s">
         <v>295</v>
       </c>
@@ -8641,33 +8458,33 @@
       <c r="V87" s="44" t="s">
         <v>123</v>
       </c>
-      <c r="W87" s="56"/>
-      <c r="X87" s="56"/>
-      <c r="Y87" s="56"/>
-      <c r="Z87" s="56"/>
-      <c r="AA87" s="56"/>
-      <c r="AB87" s="56"/>
-      <c r="AC87" s="56"/>
-      <c r="AD87" s="56"/>
-      <c r="AE87" s="56"/>
-      <c r="AF87" s="56"/>
-      <c r="AG87" s="56"/>
-      <c r="AH87" s="56"/>
+      <c r="W87" s="33"/>
+      <c r="X87" s="33"/>
+      <c r="Y87" s="33"/>
+      <c r="Z87" s="33"/>
+      <c r="AA87" s="33"/>
+      <c r="AB87" s="33"/>
+      <c r="AC87" s="33"/>
+      <c r="AD87" s="33"/>
+      <c r="AE87" s="33"/>
+      <c r="AF87" s="33"/>
+      <c r="AG87" s="33"/>
+      <c r="AH87" s="33"/>
     </row>
     <row r="88" spans="1:34">
       <c r="A88" s="43" t="s">
         <v>194</v>
       </c>
-      <c r="B88" s="54" t="s">
+      <c r="B88" s="44" t="s">
         <v>142</v>
       </c>
-      <c r="C88" s="54" t="s">
+      <c r="C88" s="44" t="s">
         <v>155</v>
       </c>
-      <c r="D88" s="54"/>
-      <c r="E88" s="54"/>
-      <c r="F88" s="54"/>
-      <c r="G88" s="56"/>
+      <c r="D88" s="44"/>
+      <c r="E88" s="44"/>
+      <c r="F88" s="44"/>
+      <c r="G88" s="33"/>
       <c r="H88" s="44">
         <f>SUM(I88:V88,H90:M90)</f>
         <v>100</v>
@@ -8684,63 +8501,63 @@
       <c r="L88" s="44">
         <v>6</v>
       </c>
-      <c r="M88" s="111">
+      <c r="M88" s="101">
         <v>6</v>
       </c>
-      <c r="N88" s="56">
+      <c r="N88" s="33">
         <v>3</v>
       </c>
-      <c r="O88" s="56">
+      <c r="O88" s="33">
         <v>6</v>
       </c>
-      <c r="P88" s="56">
+      <c r="P88" s="33">
         <v>6</v>
       </c>
-      <c r="Q88" s="56">
+      <c r="Q88" s="33">
         <v>6</v>
       </c>
-      <c r="R88" s="56">
+      <c r="R88" s="33">
         <v>6</v>
       </c>
-      <c r="S88" s="56">
+      <c r="S88" s="33">
         <v>1</v>
       </c>
-      <c r="T88" s="56">
+      <c r="T88" s="33">
         <v>3</v>
       </c>
-      <c r="U88" s="56">
+      <c r="U88" s="33">
         <v>3</v>
       </c>
-      <c r="V88" s="56">
+      <c r="V88" s="33">
         <v>6</v>
       </c>
-      <c r="W88" s="56"/>
-      <c r="X88" s="56"/>
-      <c r="Y88" s="56"/>
-      <c r="Z88" s="56"/>
-      <c r="AA88" s="56"/>
-      <c r="AB88" s="56"/>
-      <c r="AC88" s="56"/>
-      <c r="AD88" s="56"/>
-      <c r="AE88" s="56"/>
-      <c r="AF88" s="56"/>
-      <c r="AG88" s="56"/>
-      <c r="AH88" s="56"/>
+      <c r="W88" s="33"/>
+      <c r="X88" s="33"/>
+      <c r="Y88" s="33"/>
+      <c r="Z88" s="33"/>
+      <c r="AA88" s="33"/>
+      <c r="AB88" s="33"/>
+      <c r="AC88" s="33"/>
+      <c r="AD88" s="33"/>
+      <c r="AE88" s="33"/>
+      <c r="AF88" s="33"/>
+      <c r="AG88" s="33"/>
+      <c r="AH88" s="33"/>
     </row>
     <row r="89" spans="1:34">
       <c r="A89" s="37" t="s">
         <v>206</v>
       </c>
-      <c r="B89" s="55" t="s">
+      <c r="B89" s="38" t="s">
         <v>153</v>
       </c>
-      <c r="C89" s="55" t="s">
+      <c r="C89" s="38" t="s">
         <v>203</v>
       </c>
-      <c r="D89" s="55"/>
-      <c r="E89" s="55"/>
-      <c r="F89" s="55"/>
-      <c r="G89" s="56"/>
+      <c r="D89" s="38"/>
+      <c r="E89" s="38"/>
+      <c r="F89" s="38"/>
+      <c r="G89" s="33"/>
       <c r="H89" s="44" t="s">
         <v>124</v>
       </c>
@@ -8756,95 +8573,95 @@
       <c r="L89" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="M89" s="111" t="s">
+      <c r="M89" s="101" t="s">
         <v>131</v>
       </c>
-      <c r="N89" s="56"/>
-      <c r="O89" s="56"/>
-      <c r="P89" s="56"/>
-      <c r="Q89" s="56"/>
-      <c r="R89" s="56"/>
-      <c r="S89" s="56"/>
-      <c r="T89" s="56"/>
-      <c r="U89" s="56"/>
-      <c r="V89" s="56"/>
-      <c r="W89" s="56"/>
-      <c r="X89" s="56"/>
-      <c r="Y89" s="56"/>
-      <c r="Z89" s="56"/>
-      <c r="AA89" s="56"/>
-      <c r="AB89" s="56"/>
-      <c r="AC89" s="56"/>
-      <c r="AD89" s="56"/>
-      <c r="AE89" s="56"/>
-      <c r="AF89" s="56"/>
-      <c r="AG89" s="56"/>
-      <c r="AH89" s="56"/>
+      <c r="N89" s="33"/>
+      <c r="O89" s="33"/>
+      <c r="P89" s="33"/>
+      <c r="Q89" s="33"/>
+      <c r="R89" s="33"/>
+      <c r="S89" s="33"/>
+      <c r="T89" s="33"/>
+      <c r="U89" s="33"/>
+      <c r="V89" s="33"/>
+      <c r="W89" s="33"/>
+      <c r="X89" s="33"/>
+      <c r="Y89" s="33"/>
+      <c r="Z89" s="33"/>
+      <c r="AA89" s="33"/>
+      <c r="AB89" s="33"/>
+      <c r="AC89" s="33"/>
+      <c r="AD89" s="33"/>
+      <c r="AE89" s="33"/>
+      <c r="AF89" s="33"/>
+      <c r="AG89" s="33"/>
+      <c r="AH89" s="33"/>
     </row>
     <row r="90" spans="1:34">
       <c r="A90" s="37" t="s">
         <v>221</v>
       </c>
-      <c r="B90" s="55" t="s">
+      <c r="B90" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="C90" s="55"/>
-      <c r="D90" s="55"/>
-      <c r="E90" s="55"/>
-      <c r="F90" s="55"/>
-      <c r="G90" s="56"/>
+      <c r="C90" s="38"/>
+      <c r="D90" s="38"/>
+      <c r="E90" s="38"/>
+      <c r="F90" s="38"/>
+      <c r="G90" s="33"/>
       <c r="H90" s="33">
         <v>5</v>
       </c>
-      <c r="I90" s="56">
+      <c r="I90" s="33">
         <v>6</v>
       </c>
-      <c r="J90" s="56">
+      <c r="J90" s="33">
         <v>6</v>
       </c>
-      <c r="K90" s="56">
+      <c r="K90" s="33">
         <v>6</v>
       </c>
-      <c r="L90" s="56">
+      <c r="L90" s="33">
         <v>5</v>
       </c>
-      <c r="M90" s="56">
+      <c r="M90" s="33">
         <v>3</v>
       </c>
-      <c r="N90" s="56"/>
-      <c r="O90" s="56"/>
-      <c r="P90" s="56"/>
-      <c r="Q90" s="56"/>
-      <c r="R90" s="56"/>
-      <c r="S90" s="56"/>
-      <c r="T90" s="56"/>
-      <c r="U90" s="56"/>
-      <c r="V90" s="56"/>
-      <c r="W90" s="56"/>
-      <c r="X90" s="56"/>
-      <c r="Y90" s="56"/>
-      <c r="Z90" s="56"/>
-      <c r="AA90" s="56"/>
-      <c r="AB90" s="56"/>
-      <c r="AC90" s="56"/>
-      <c r="AD90" s="56"/>
-      <c r="AE90" s="56"/>
-      <c r="AF90" s="56"/>
-      <c r="AG90" s="56"/>
-      <c r="AH90" s="56"/>
+      <c r="N90" s="33"/>
+      <c r="O90" s="33"/>
+      <c r="P90" s="33"/>
+      <c r="Q90" s="33"/>
+      <c r="R90" s="33"/>
+      <c r="S90" s="33"/>
+      <c r="T90" s="33"/>
+      <c r="U90" s="33"/>
+      <c r="V90" s="33"/>
+      <c r="W90" s="33"/>
+      <c r="X90" s="33"/>
+      <c r="Y90" s="33"/>
+      <c r="Z90" s="33"/>
+      <c r="AA90" s="33"/>
+      <c r="AB90" s="33"/>
+      <c r="AC90" s="33"/>
+      <c r="AD90" s="33"/>
+      <c r="AE90" s="33"/>
+      <c r="AF90" s="33"/>
+      <c r="AG90" s="33"/>
+      <c r="AH90" s="33"/>
     </row>
     <row r="91" spans="1:34">
       <c r="A91" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="B91" s="55" t="s">
+      <c r="B91" s="38" t="s">
         <v>220</v>
       </c>
-      <c r="C91" s="55"/>
-      <c r="D91" s="55"/>
-      <c r="E91" s="55"/>
-      <c r="F91" s="55"/>
-      <c r="G91" s="56"/>
+      <c r="C91" s="38"/>
+      <c r="D91" s="38"/>
+      <c r="E91" s="38"/>
+      <c r="F91" s="38"/>
+      <c r="G91" s="33"/>
       <c r="H91" s="36" t="s">
         <v>299</v>
       </c>
@@ -8866,83 +8683,83 @@
       <c r="N91" s="44" t="s">
         <v>154</v>
       </c>
-      <c r="O91" s="56"/>
-      <c r="P91" s="56"/>
-      <c r="Q91" s="56"/>
-      <c r="R91" s="56"/>
-      <c r="S91" s="56"/>
-      <c r="T91" s="56"/>
-      <c r="U91" s="56"/>
-      <c r="V91" s="56"/>
-      <c r="W91" s="56"/>
-      <c r="X91" s="56"/>
-      <c r="Y91" s="56"/>
-      <c r="Z91" s="56"/>
-      <c r="AA91" s="56"/>
-      <c r="AB91" s="56"/>
-      <c r="AC91" s="56"/>
-      <c r="AD91" s="56"/>
-      <c r="AE91" s="56"/>
-      <c r="AF91" s="56"/>
-      <c r="AG91" s="56"/>
-      <c r="AH91" s="56"/>
+      <c r="O91" s="33"/>
+      <c r="P91" s="33"/>
+      <c r="Q91" s="33"/>
+      <c r="R91" s="33"/>
+      <c r="S91" s="33"/>
+      <c r="T91" s="33"/>
+      <c r="U91" s="33"/>
+      <c r="V91" s="33"/>
+      <c r="W91" s="33"/>
+      <c r="X91" s="33"/>
+      <c r="Y91" s="33"/>
+      <c r="Z91" s="33"/>
+      <c r="AA91" s="33"/>
+      <c r="AB91" s="33"/>
+      <c r="AC91" s="33"/>
+      <c r="AD91" s="33"/>
+      <c r="AE91" s="33"/>
+      <c r="AF91" s="33"/>
+      <c r="AG91" s="33"/>
+      <c r="AH91" s="33"/>
     </row>
     <row r="92" spans="1:34">
       <c r="A92" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="B92" s="55" t="s">
+      <c r="B92" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="C92" s="55" t="s">
+      <c r="C92" s="38" t="s">
         <v>144</v>
       </c>
-      <c r="D92" s="55"/>
-      <c r="E92" s="55"/>
-      <c r="F92" s="55"/>
-      <c r="G92" s="56"/>
+      <c r="D92" s="38"/>
+      <c r="E92" s="38"/>
+      <c r="F92" s="38"/>
+      <c r="G92" s="33"/>
       <c r="H92" s="36">
         <f>SUM(I92:X92)</f>
         <v>100</v>
       </c>
-      <c r="I92" s="56">
+      <c r="I92" s="33">
         <v>25</v>
       </c>
-      <c r="J92" s="56">
+      <c r="J92" s="33">
         <v>10</v>
       </c>
-      <c r="K92" s="56">
+      <c r="K92" s="33">
         <v>25</v>
       </c>
-      <c r="L92" s="56">
+      <c r="L92" s="33">
         <v>20</v>
       </c>
-      <c r="M92" s="56">
+      <c r="M92" s="33">
         <v>3</v>
       </c>
-      <c r="N92" s="56">
+      <c r="N92" s="33">
         <v>17</v>
       </c>
-      <c r="O92" s="56"/>
-      <c r="P92" s="56"/>
-      <c r="Q92" s="56"/>
-      <c r="R92" s="56"/>
-      <c r="S92" s="56"/>
-      <c r="T92" s="56"/>
-      <c r="U92" s="56"/>
-      <c r="V92" s="56"/>
-      <c r="W92" s="56"/>
-      <c r="X92" s="56"/>
-      <c r="Y92" s="56"/>
-      <c r="Z92" s="56"/>
-      <c r="AA92" s="56"/>
-      <c r="AB92" s="56"/>
-      <c r="AC92" s="56"/>
-      <c r="AD92" s="56"/>
-      <c r="AE92" s="56"/>
-      <c r="AF92" s="56"/>
-      <c r="AG92" s="56"/>
-      <c r="AH92" s="56"/>
+      <c r="O92" s="33"/>
+      <c r="P92" s="33"/>
+      <c r="Q92" s="33"/>
+      <c r="R92" s="33"/>
+      <c r="S92" s="33"/>
+      <c r="T92" s="33"/>
+      <c r="U92" s="33"/>
+      <c r="V92" s="33"/>
+      <c r="W92" s="33"/>
+      <c r="X92" s="33"/>
+      <c r="Y92" s="33"/>
+      <c r="Z92" s="33"/>
+      <c r="AA92" s="33"/>
+      <c r="AB92" s="33"/>
+      <c r="AC92" s="33"/>
+      <c r="AD92" s="33"/>
+      <c r="AE92" s="33"/>
+      <c r="AF92" s="33"/>
+      <c r="AG92" s="33"/>
+      <c r="AH92" s="33"/>
     </row>
     <row r="93" spans="1:34">
       <c r="A93" s="37" t="s">
@@ -8951,15 +8768,15 @@
       <c r="B93" s="38" t="s">
         <v>223</v>
       </c>
-      <c r="C93" s="55" t="s">
+      <c r="C93" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="D93" s="55" t="s">
+      <c r="D93" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="E93" s="55"/>
-      <c r="F93" s="55"/>
-      <c r="G93" s="56"/>
+      <c r="E93" s="38"/>
+      <c r="F93" s="38"/>
+      <c r="G93" s="33"/>
       <c r="H93" s="36" t="s">
         <v>300</v>
       </c>
@@ -8993,98 +8810,98 @@
       <c r="R93" s="44" t="s">
         <v>154</v>
       </c>
-      <c r="S93" s="56"/>
-      <c r="T93" s="56"/>
-      <c r="U93" s="56"/>
-      <c r="V93" s="56"/>
-      <c r="W93" s="56"/>
-      <c r="X93" s="56"/>
-      <c r="Y93" s="56"/>
-      <c r="Z93" s="56"/>
-      <c r="AA93" s="56"/>
-      <c r="AB93" s="56"/>
-      <c r="AC93" s="56"/>
-      <c r="AD93" s="56"/>
-      <c r="AE93" s="56"/>
-      <c r="AF93" s="56"/>
-      <c r="AG93" s="56"/>
-      <c r="AH93" s="56"/>
+      <c r="S93" s="33"/>
+      <c r="T93" s="33"/>
+      <c r="U93" s="33"/>
+      <c r="V93" s="33"/>
+      <c r="W93" s="33"/>
+      <c r="X93" s="33"/>
+      <c r="Y93" s="33"/>
+      <c r="Z93" s="33"/>
+      <c r="AA93" s="33"/>
+      <c r="AB93" s="33"/>
+      <c r="AC93" s="33"/>
+      <c r="AD93" s="33"/>
+      <c r="AE93" s="33"/>
+      <c r="AF93" s="33"/>
+      <c r="AG93" s="33"/>
+      <c r="AH93" s="33"/>
     </row>
     <row r="94" spans="1:34">
       <c r="A94" s="36" t="s">
         <v>225</v>
       </c>
-      <c r="B94" s="56" t="s">
+      <c r="B94" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="C94" s="56"/>
-      <c r="D94" s="56"/>
-      <c r="E94" s="56"/>
-      <c r="F94" s="56"/>
-      <c r="G94" s="56"/>
+      <c r="C94" s="33"/>
+      <c r="D94" s="33"/>
+      <c r="E94" s="33"/>
+      <c r="F94" s="33"/>
+      <c r="G94" s="33"/>
       <c r="H94" s="36">
         <f>SUM(I94:V94)</f>
         <v>100</v>
       </c>
-      <c r="I94" s="56">
+      <c r="I94" s="33">
         <v>20</v>
       </c>
-      <c r="J94" s="56">
+      <c r="J94" s="33">
         <v>20</v>
       </c>
-      <c r="K94" s="56">
+      <c r="K94" s="33">
         <v>5</v>
       </c>
-      <c r="L94" s="56">
+      <c r="L94" s="33">
         <v>5</v>
       </c>
-      <c r="M94" s="56">
+      <c r="M94" s="33">
         <v>20</v>
       </c>
-      <c r="N94" s="56">
+      <c r="N94" s="33">
         <v>10</v>
       </c>
-      <c r="O94" s="56">
+      <c r="O94" s="33">
         <v>10</v>
       </c>
-      <c r="P94" s="56">
+      <c r="P94" s="33">
         <v>5</v>
       </c>
-      <c r="Q94" s="56">
+      <c r="Q94" s="33">
         <v>1</v>
       </c>
-      <c r="R94" s="56">
+      <c r="R94" s="33">
         <v>4</v>
       </c>
-      <c r="S94" s="56"/>
-      <c r="T94" s="56"/>
-      <c r="U94" s="56"/>
-      <c r="V94" s="56"/>
-      <c r="W94" s="56"/>
-      <c r="X94" s="56"/>
-      <c r="Y94" s="56"/>
-      <c r="Z94" s="56"/>
-      <c r="AA94" s="56"/>
-      <c r="AB94" s="56"/>
-      <c r="AC94" s="56"/>
-      <c r="AD94" s="56"/>
-      <c r="AE94" s="56"/>
-      <c r="AF94" s="56"/>
-      <c r="AG94" s="56"/>
-      <c r="AH94" s="56"/>
+      <c r="S94" s="33"/>
+      <c r="T94" s="33"/>
+      <c r="U94" s="33"/>
+      <c r="V94" s="33"/>
+      <c r="W94" s="33"/>
+      <c r="X94" s="33"/>
+      <c r="Y94" s="33"/>
+      <c r="Z94" s="33"/>
+      <c r="AA94" s="33"/>
+      <c r="AB94" s="33"/>
+      <c r="AC94" s="33"/>
+      <c r="AD94" s="33"/>
+      <c r="AE94" s="33"/>
+      <c r="AF94" s="33"/>
+      <c r="AG94" s="33"/>
+      <c r="AH94" s="33"/>
     </row>
     <row r="95" spans="1:34">
       <c r="A95" s="36" t="s">
         <v>224</v>
       </c>
-      <c r="B95" s="56" t="s">
+      <c r="B95" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="C95" s="56"/>
-      <c r="D95" s="56"/>
-      <c r="E95" s="56"/>
-      <c r="F95" s="56"/>
-      <c r="G95" s="56"/>
+      <c r="C95" s="33"/>
+      <c r="D95" s="33"/>
+      <c r="E95" s="33"/>
+      <c r="F95" s="33"/>
+      <c r="G95" s="33"/>
       <c r="H95" s="36" t="s">
         <v>294</v>
       </c>
@@ -9103,95 +8920,95 @@
       <c r="M95" s="44" t="s">
         <v>154</v>
       </c>
-      <c r="N95" s="56"/>
-      <c r="O95" s="56"/>
-      <c r="P95" s="56"/>
-      <c r="Q95" s="56"/>
-      <c r="R95" s="56"/>
-      <c r="S95" s="56"/>
-      <c r="T95" s="56"/>
-      <c r="U95" s="56"/>
-      <c r="V95" s="56"/>
-      <c r="W95" s="56"/>
-      <c r="X95" s="56"/>
-      <c r="Y95" s="56"/>
-      <c r="Z95" s="56"/>
-      <c r="AA95" s="56"/>
-      <c r="AB95" s="56"/>
-      <c r="AC95" s="56"/>
-      <c r="AD95" s="56"/>
-      <c r="AE95" s="56"/>
-      <c r="AF95" s="56"/>
-      <c r="AG95" s="56"/>
-      <c r="AH95" s="56"/>
+      <c r="N95" s="33"/>
+      <c r="O95" s="33"/>
+      <c r="P95" s="33"/>
+      <c r="Q95" s="33"/>
+      <c r="R95" s="33"/>
+      <c r="S95" s="33"/>
+      <c r="T95" s="33"/>
+      <c r="U95" s="33"/>
+      <c r="V95" s="33"/>
+      <c r="W95" s="33"/>
+      <c r="X95" s="33"/>
+      <c r="Y95" s="33"/>
+      <c r="Z95" s="33"/>
+      <c r="AA95" s="33"/>
+      <c r="AB95" s="33"/>
+      <c r="AC95" s="33"/>
+      <c r="AD95" s="33"/>
+      <c r="AE95" s="33"/>
+      <c r="AF95" s="33"/>
+      <c r="AG95" s="33"/>
+      <c r="AH95" s="33"/>
     </row>
     <row r="96" spans="1:34">
       <c r="A96" s="36" t="s">
         <v>226</v>
       </c>
-      <c r="B96" s="56" t="s">
+      <c r="B96" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="C96" s="56"/>
-      <c r="D96" s="56"/>
-      <c r="E96" s="56"/>
-      <c r="F96" s="56"/>
-      <c r="G96" s="56"/>
+      <c r="C96" s="33"/>
+      <c r="D96" s="33"/>
+      <c r="E96" s="33"/>
+      <c r="F96" s="33"/>
+      <c r="G96" s="33"/>
       <c r="H96" s="36">
         <f>SUM(I96:V96)</f>
         <v>100</v>
       </c>
-      <c r="I96" s="56">
+      <c r="I96" s="33">
         <v>25</v>
       </c>
-      <c r="J96" s="56">
+      <c r="J96" s="33">
         <v>25</v>
       </c>
-      <c r="K96" s="56">
+      <c r="K96" s="33">
         <v>20</v>
       </c>
-      <c r="L96" s="56">
+      <c r="L96" s="33">
         <v>25</v>
       </c>
-      <c r="M96" s="56">
+      <c r="M96" s="33">
         <v>5</v>
       </c>
-      <c r="N96" s="56"/>
-      <c r="O96" s="56"/>
-      <c r="P96" s="56"/>
-      <c r="Q96" s="56"/>
-      <c r="R96" s="56"/>
-      <c r="S96" s="56"/>
-      <c r="T96" s="56"/>
-      <c r="U96" s="56"/>
-      <c r="V96" s="56"/>
-      <c r="W96" s="138"/>
-      <c r="X96" s="138"/>
-      <c r="Y96" s="138"/>
-      <c r="Z96" s="138"/>
-      <c r="AA96" s="138"/>
-      <c r="AB96" s="138"/>
-      <c r="AC96" s="138"/>
-      <c r="AD96" s="138"/>
-      <c r="AE96" s="138"/>
-      <c r="AF96" s="138"/>
-      <c r="AG96" s="138"/>
-      <c r="AH96" s="138"/>
+      <c r="N96" s="33"/>
+      <c r="O96" s="33"/>
+      <c r="P96" s="33"/>
+      <c r="Q96" s="33"/>
+      <c r="R96" s="33"/>
+      <c r="S96" s="33"/>
+      <c r="T96" s="33"/>
+      <c r="U96" s="33"/>
+      <c r="V96" s="33"/>
+      <c r="W96" s="125"/>
+      <c r="X96" s="125"/>
+      <c r="Y96" s="125"/>
+      <c r="Z96" s="125"/>
+      <c r="AA96" s="125"/>
+      <c r="AB96" s="125"/>
+      <c r="AC96" s="125"/>
+      <c r="AD96" s="125"/>
+      <c r="AE96" s="125"/>
+      <c r="AF96" s="125"/>
+      <c r="AG96" s="125"/>
+      <c r="AH96" s="125"/>
     </row>
     <row r="97" spans="1:34">
       <c r="A97" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="B97" s="56" t="s">
+      <c r="B97" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="C97" s="56" t="s">
+      <c r="C97" s="33" t="s">
         <v>222</v>
       </c>
-      <c r="D97" s="56"/>
-      <c r="E97" s="56"/>
-      <c r="F97" s="56"/>
-      <c r="G97" s="56"/>
+      <c r="D97" s="33"/>
+      <c r="E97" s="33"/>
+      <c r="F97" s="33"/>
+      <c r="G97" s="33"/>
       <c r="H97" s="36" t="s">
         <v>290</v>
       </c>
@@ -9213,7 +9030,7 @@
       <c r="N97" s="44" t="s">
         <v>252</v>
       </c>
-      <c r="O97" s="111" t="s">
+      <c r="O97" s="101" t="s">
         <v>253</v>
       </c>
       <c r="P97" s="44" t="s">
@@ -9227,20 +9044,20 @@
       </c>
       <c r="S97" s="44"/>
       <c r="T97" s="44"/>
-      <c r="U97" s="56"/>
-      <c r="V97" s="139"/>
-      <c r="W97" s="56"/>
-      <c r="X97" s="56"/>
-      <c r="Y97" s="56"/>
-      <c r="Z97" s="56"/>
-      <c r="AA97" s="56"/>
-      <c r="AB97" s="56"/>
-      <c r="AC97" s="56"/>
-      <c r="AD97" s="56"/>
-      <c r="AE97" s="56"/>
-      <c r="AF97" s="56"/>
-      <c r="AG97" s="56"/>
-      <c r="AH97" s="56"/>
+      <c r="U97" s="33"/>
+      <c r="V97" s="126"/>
+      <c r="W97" s="33"/>
+      <c r="X97" s="33"/>
+      <c r="Y97" s="33"/>
+      <c r="Z97" s="33"/>
+      <c r="AA97" s="33"/>
+      <c r="AB97" s="33"/>
+      <c r="AC97" s="33"/>
+      <c r="AD97" s="33"/>
+      <c r="AE97" s="33"/>
+      <c r="AF97" s="33"/>
+      <c r="AG97" s="33"/>
+      <c r="AH97" s="33"/>
     </row>
     <row r="98" spans="1:34">
       <c r="A98" s="43" t="s">
@@ -9252,60 +9069,60 @@
       <c r="C98" s="44" t="s">
         <v>272</v>
       </c>
-      <c r="D98" s="56"/>
-      <c r="E98" s="56"/>
-      <c r="F98" s="56"/>
-      <c r="G98" s="56"/>
+      <c r="D98" s="33"/>
+      <c r="E98" s="33"/>
+      <c r="F98" s="33"/>
+      <c r="G98" s="33"/>
       <c r="H98" s="36">
         <f>SUM(I98:V98)</f>
         <v>100</v>
       </c>
-      <c r="I98" s="56">
+      <c r="I98" s="33">
         <v>15</v>
       </c>
-      <c r="J98" s="56">
+      <c r="J98" s="33">
         <v>13</v>
       </c>
-      <c r="K98" s="56">
+      <c r="K98" s="33">
         <v>11</v>
       </c>
-      <c r="L98" s="56">
+      <c r="L98" s="33">
         <v>9</v>
       </c>
-      <c r="M98" s="56">
+      <c r="M98" s="33">
         <v>7</v>
       </c>
-      <c r="N98" s="56">
+      <c r="N98" s="33">
         <v>9</v>
       </c>
-      <c r="O98" s="56">
+      <c r="O98" s="33">
         <v>3</v>
       </c>
-      <c r="P98" s="56">
+      <c r="P98" s="33">
         <v>18</v>
       </c>
-      <c r="Q98" s="56">
+      <c r="Q98" s="33">
         <v>5</v>
       </c>
-      <c r="R98" s="56">
+      <c r="R98" s="33">
         <v>10</v>
       </c>
-      <c r="S98" s="56"/>
-      <c r="T98" s="56"/>
-      <c r="U98" s="56"/>
-      <c r="V98" s="139"/>
-      <c r="W98" s="56"/>
-      <c r="X98" s="56"/>
-      <c r="Y98" s="56"/>
-      <c r="Z98" s="56"/>
-      <c r="AA98" s="56"/>
-      <c r="AB98" s="56"/>
-      <c r="AC98" s="56"/>
-      <c r="AD98" s="56"/>
-      <c r="AE98" s="56"/>
-      <c r="AF98" s="56"/>
-      <c r="AG98" s="56"/>
-      <c r="AH98" s="56"/>
+      <c r="S98" s="33"/>
+      <c r="T98" s="33"/>
+      <c r="U98" s="33"/>
+      <c r="V98" s="126"/>
+      <c r="W98" s="33"/>
+      <c r="X98" s="33"/>
+      <c r="Y98" s="33"/>
+      <c r="Z98" s="33"/>
+      <c r="AA98" s="33"/>
+      <c r="AB98" s="33"/>
+      <c r="AC98" s="33"/>
+      <c r="AD98" s="33"/>
+      <c r="AE98" s="33"/>
+      <c r="AF98" s="33"/>
+      <c r="AG98" s="33"/>
+      <c r="AH98" s="33"/>
     </row>
     <row r="99" spans="1:34">
       <c r="A99" s="43" t="s">
@@ -9317,10 +9134,10 @@
       <c r="C99" s="44" t="s">
         <v>272</v>
       </c>
-      <c r="D99" s="56"/>
-      <c r="E99" s="56"/>
-      <c r="F99" s="56"/>
-      <c r="G99" s="56"/>
+      <c r="D99" s="33"/>
+      <c r="E99" s="33"/>
+      <c r="F99" s="33"/>
+      <c r="G99" s="33"/>
       <c r="H99" s="36" t="s">
         <v>296</v>
       </c>
@@ -9345,25 +9162,25 @@
       <c r="O99" s="44" t="s">
         <v>135</v>
       </c>
-      <c r="P99" s="56"/>
-      <c r="Q99" s="56"/>
-      <c r="R99" s="56"/>
-      <c r="S99" s="56"/>
-      <c r="T99" s="56"/>
-      <c r="U99" s="56"/>
-      <c r="V99" s="139"/>
-      <c r="W99" s="56"/>
-      <c r="X99" s="56"/>
-      <c r="Y99" s="56"/>
-      <c r="Z99" s="56"/>
-      <c r="AA99" s="56"/>
-      <c r="AB99" s="56"/>
-      <c r="AC99" s="56"/>
-      <c r="AD99" s="56"/>
-      <c r="AE99" s="56"/>
-      <c r="AF99" s="56"/>
-      <c r="AG99" s="56"/>
-      <c r="AH99" s="56"/>
+      <c r="P99" s="33"/>
+      <c r="Q99" s="33"/>
+      <c r="R99" s="33"/>
+      <c r="S99" s="33"/>
+      <c r="T99" s="33"/>
+      <c r="U99" s="33"/>
+      <c r="V99" s="126"/>
+      <c r="W99" s="33"/>
+      <c r="X99" s="33"/>
+      <c r="Y99" s="33"/>
+      <c r="Z99" s="33"/>
+      <c r="AA99" s="33"/>
+      <c r="AB99" s="33"/>
+      <c r="AC99" s="33"/>
+      <c r="AD99" s="33"/>
+      <c r="AE99" s="33"/>
+      <c r="AF99" s="33"/>
+      <c r="AG99" s="33"/>
+      <c r="AH99" s="33"/>
     </row>
     <row r="100" spans="1:34">
       <c r="A100" s="43" t="s">
@@ -9375,54 +9192,54 @@
       <c r="C100" s="44" t="s">
         <v>275</v>
       </c>
-      <c r="D100" s="56"/>
-      <c r="E100" s="56"/>
-      <c r="F100" s="56"/>
-      <c r="G100" s="56"/>
+      <c r="D100" s="33"/>
+      <c r="E100" s="33"/>
+      <c r="F100" s="33"/>
+      <c r="G100" s="33"/>
       <c r="H100" s="36">
         <f>SUM(I100:V100)</f>
         <v>100</v>
       </c>
-      <c r="I100" s="56">
+      <c r="I100" s="33">
         <v>30</v>
       </c>
-      <c r="J100" s="56">
+      <c r="J100" s="33">
         <v>8</v>
       </c>
-      <c r="K100" s="56">
+      <c r="K100" s="33">
         <v>10</v>
       </c>
-      <c r="L100" s="56">
+      <c r="L100" s="33">
         <v>25</v>
       </c>
-      <c r="M100" s="56">
+      <c r="M100" s="33">
         <v>10</v>
       </c>
-      <c r="N100" s="56">
+      <c r="N100" s="33">
         <v>10</v>
       </c>
-      <c r="O100" s="56">
+      <c r="O100" s="33">
         <v>7</v>
       </c>
-      <c r="P100" s="56"/>
-      <c r="Q100" s="56"/>
-      <c r="R100" s="56"/>
-      <c r="S100" s="56"/>
-      <c r="T100" s="56"/>
-      <c r="U100" s="56"/>
-      <c r="V100" s="139"/>
-      <c r="W100" s="56"/>
-      <c r="X100" s="56"/>
-      <c r="Y100" s="56"/>
-      <c r="Z100" s="56"/>
-      <c r="AA100" s="56"/>
-      <c r="AB100" s="56"/>
-      <c r="AC100" s="56"/>
-      <c r="AD100" s="56"/>
-      <c r="AE100" s="56"/>
-      <c r="AF100" s="56"/>
-      <c r="AG100" s="56"/>
-      <c r="AH100" s="56"/>
+      <c r="P100" s="33"/>
+      <c r="Q100" s="33"/>
+      <c r="R100" s="33"/>
+      <c r="S100" s="33"/>
+      <c r="T100" s="33"/>
+      <c r="U100" s="33"/>
+      <c r="V100" s="126"/>
+      <c r="W100" s="33"/>
+      <c r="X100" s="33"/>
+      <c r="Y100" s="33"/>
+      <c r="Z100" s="33"/>
+      <c r="AA100" s="33"/>
+      <c r="AB100" s="33"/>
+      <c r="AC100" s="33"/>
+      <c r="AD100" s="33"/>
+      <c r="AE100" s="33"/>
+      <c r="AF100" s="33"/>
+      <c r="AG100" s="33"/>
+      <c r="AH100" s="33"/>
     </row>
     <row r="101" spans="1:34">
       <c r="A101" s="43" t="s">
@@ -9434,10 +9251,10 @@
       <c r="C101" s="44" t="s">
         <v>275</v>
       </c>
-      <c r="D101" s="56"/>
-      <c r="E101" s="56"/>
-      <c r="F101" s="56"/>
-      <c r="G101" s="56"/>
+      <c r="D101" s="33"/>
+      <c r="E101" s="33"/>
+      <c r="F101" s="33"/>
+      <c r="G101" s="33"/>
       <c r="H101" s="36" t="s">
         <v>293</v>
       </c>
@@ -9465,7 +9282,7 @@
       <c r="P101" s="44" t="s">
         <v>168</v>
       </c>
-      <c r="Q101" s="111" t="s">
+      <c r="Q101" s="101" t="s">
         <v>171</v>
       </c>
       <c r="R101" s="44" t="s">
@@ -9474,21 +9291,21 @@
       <c r="S101" s="44" t="s">
         <v>173</v>
       </c>
-      <c r="T101" s="56"/>
-      <c r="U101" s="56"/>
-      <c r="V101" s="139"/>
-      <c r="W101" s="56"/>
-      <c r="X101" s="56"/>
-      <c r="Y101" s="56"/>
-      <c r="Z101" s="56"/>
-      <c r="AA101" s="56"/>
-      <c r="AB101" s="56"/>
-      <c r="AC101" s="56"/>
-      <c r="AD101" s="56"/>
-      <c r="AE101" s="56"/>
-      <c r="AF101" s="56"/>
-      <c r="AG101" s="56"/>
-      <c r="AH101" s="56"/>
+      <c r="T101" s="33"/>
+      <c r="U101" s="33"/>
+      <c r="V101" s="126"/>
+      <c r="W101" s="33"/>
+      <c r="X101" s="33"/>
+      <c r="Y101" s="33"/>
+      <c r="Z101" s="33"/>
+      <c r="AA101" s="33"/>
+      <c r="AB101" s="33"/>
+      <c r="AC101" s="33"/>
+      <c r="AD101" s="33"/>
+      <c r="AE101" s="33"/>
+      <c r="AF101" s="33"/>
+      <c r="AG101" s="33"/>
+      <c r="AH101" s="33"/>
     </row>
     <row r="102" spans="1:34">
       <c r="A102" s="43" t="s">
@@ -9500,1322 +9317,1322 @@
       <c r="C102" s="44" t="s">
         <v>275</v>
       </c>
-      <c r="D102" s="56"/>
-      <c r="E102" s="56"/>
-      <c r="F102" s="56"/>
-      <c r="G102" s="56"/>
+      <c r="D102" s="33"/>
+      <c r="E102" s="33"/>
+      <c r="F102" s="33"/>
+      <c r="G102" s="33"/>
       <c r="H102" s="36">
         <f>SUM(I102:V102)</f>
         <v>100</v>
       </c>
-      <c r="I102" s="56">
+      <c r="I102" s="33">
         <v>10</v>
       </c>
-      <c r="J102" s="56">
+      <c r="J102" s="33">
         <v>20</v>
       </c>
-      <c r="K102" s="56">
+      <c r="K102" s="33">
         <v>7</v>
       </c>
-      <c r="L102" s="56">
+      <c r="L102" s="33">
         <v>7</v>
       </c>
-      <c r="M102" s="56">
+      <c r="M102" s="33">
         <v>5</v>
       </c>
-      <c r="N102" s="56">
+      <c r="N102" s="33">
         <v>10</v>
       </c>
-      <c r="O102" s="56">
+      <c r="O102" s="33">
         <v>7</v>
       </c>
-      <c r="P102" s="56">
+      <c r="P102" s="33">
         <v>7</v>
       </c>
-      <c r="Q102" s="56">
+      <c r="Q102" s="33">
         <v>18</v>
       </c>
-      <c r="R102" s="56">
+      <c r="R102" s="33">
         <v>8</v>
       </c>
-      <c r="S102" s="56">
+      <c r="S102" s="33">
         <v>1</v>
       </c>
-      <c r="T102" s="56"/>
-      <c r="U102" s="56"/>
-      <c r="V102" s="139"/>
-      <c r="W102" s="56"/>
-      <c r="X102" s="56"/>
-      <c r="Y102" s="56"/>
-      <c r="Z102" s="56"/>
-      <c r="AA102" s="56"/>
-      <c r="AB102" s="56"/>
-      <c r="AC102" s="56"/>
-      <c r="AD102" s="56"/>
-      <c r="AE102" s="56"/>
-      <c r="AF102" s="56"/>
-      <c r="AG102" s="56"/>
-      <c r="AH102" s="56"/>
+      <c r="T102" s="33"/>
+      <c r="U102" s="33"/>
+      <c r="V102" s="126"/>
+      <c r="W102" s="33"/>
+      <c r="X102" s="33"/>
+      <c r="Y102" s="33"/>
+      <c r="Z102" s="33"/>
+      <c r="AA102" s="33"/>
+      <c r="AB102" s="33"/>
+      <c r="AC102" s="33"/>
+      <c r="AD102" s="33"/>
+      <c r="AE102" s="33"/>
+      <c r="AF102" s="33"/>
+      <c r="AG102" s="33"/>
+      <c r="AH102" s="33"/>
     </row>
     <row r="103" spans="1:34">
       <c r="A103" s="43"/>
-      <c r="B103" s="56"/>
-      <c r="C103" s="56"/>
-      <c r="D103" s="56"/>
-      <c r="E103" s="56"/>
-      <c r="F103" s="56"/>
-      <c r="G103" s="56"/>
+      <c r="B103" s="33"/>
+      <c r="C103" s="33"/>
+      <c r="D103" s="33"/>
+      <c r="E103" s="33"/>
+      <c r="F103" s="33"/>
+      <c r="G103" s="33"/>
       <c r="H103" s="36"/>
-      <c r="I103" s="56"/>
-      <c r="J103" s="56"/>
-      <c r="K103" s="56"/>
-      <c r="L103" s="56"/>
-      <c r="M103" s="56"/>
-      <c r="N103" s="56"/>
-      <c r="O103" s="56"/>
-      <c r="P103" s="56"/>
-      <c r="Q103" s="56"/>
-      <c r="R103" s="56"/>
-      <c r="S103" s="56"/>
-      <c r="T103" s="56"/>
-      <c r="U103" s="56"/>
-      <c r="V103" s="139"/>
-      <c r="W103" s="56"/>
-      <c r="X103" s="56"/>
-      <c r="Y103" s="56"/>
-      <c r="Z103" s="56"/>
-      <c r="AA103" s="56"/>
-      <c r="AB103" s="56"/>
-      <c r="AC103" s="56"/>
-      <c r="AD103" s="56"/>
-      <c r="AE103" s="56"/>
-      <c r="AF103" s="56"/>
-      <c r="AG103" s="56"/>
-      <c r="AH103" s="56"/>
+      <c r="I103" s="33"/>
+      <c r="J103" s="33"/>
+      <c r="K103" s="33"/>
+      <c r="L103" s="33"/>
+      <c r="M103" s="33"/>
+      <c r="N103" s="33"/>
+      <c r="O103" s="33"/>
+      <c r="P103" s="33"/>
+      <c r="Q103" s="33"/>
+      <c r="R103" s="33"/>
+      <c r="S103" s="33"/>
+      <c r="T103" s="33"/>
+      <c r="U103" s="33"/>
+      <c r="V103" s="126"/>
+      <c r="W103" s="33"/>
+      <c r="X103" s="33"/>
+      <c r="Y103" s="33"/>
+      <c r="Z103" s="33"/>
+      <c r="AA103" s="33"/>
+      <c r="AB103" s="33"/>
+      <c r="AC103" s="33"/>
+      <c r="AD103" s="33"/>
+      <c r="AE103" s="33"/>
+      <c r="AF103" s="33"/>
+      <c r="AG103" s="33"/>
+      <c r="AH103" s="33"/>
     </row>
     <row r="104" spans="1:34">
       <c r="A104" s="43"/>
-      <c r="B104" s="56"/>
-      <c r="C104" s="56"/>
-      <c r="D104" s="56"/>
-      <c r="E104" s="56"/>
-      <c r="F104" s="56"/>
-      <c r="G104" s="56"/>
+      <c r="B104" s="33"/>
+      <c r="C104" s="33"/>
+      <c r="D104" s="33"/>
+      <c r="E104" s="33"/>
+      <c r="F104" s="33"/>
+      <c r="G104" s="33"/>
       <c r="H104" s="36"/>
-      <c r="I104" s="56"/>
-      <c r="J104" s="56"/>
-      <c r="K104" s="56"/>
-      <c r="L104" s="56"/>
-      <c r="M104" s="56"/>
-      <c r="N104" s="56"/>
-      <c r="O104" s="56"/>
-      <c r="P104" s="56"/>
-      <c r="Q104" s="56"/>
-      <c r="R104" s="56"/>
-      <c r="S104" s="56"/>
-      <c r="T104" s="56"/>
-      <c r="U104" s="56"/>
-      <c r="V104" s="139"/>
-      <c r="W104" s="56"/>
-      <c r="X104" s="56"/>
-      <c r="Y104" s="56"/>
-      <c r="Z104" s="56"/>
-      <c r="AA104" s="56"/>
-      <c r="AB104" s="56"/>
-      <c r="AC104" s="56"/>
-      <c r="AD104" s="56"/>
-      <c r="AE104" s="56"/>
-      <c r="AF104" s="56"/>
-      <c r="AG104" s="56"/>
-      <c r="AH104" s="56"/>
+      <c r="I104" s="33"/>
+      <c r="J104" s="33"/>
+      <c r="K104" s="33"/>
+      <c r="L104" s="33"/>
+      <c r="M104" s="33"/>
+      <c r="N104" s="33"/>
+      <c r="O104" s="33"/>
+      <c r="P104" s="33"/>
+      <c r="Q104" s="33"/>
+      <c r="R104" s="33"/>
+      <c r="S104" s="33"/>
+      <c r="T104" s="33"/>
+      <c r="U104" s="33"/>
+      <c r="V104" s="126"/>
+      <c r="W104" s="33"/>
+      <c r="X104" s="33"/>
+      <c r="Y104" s="33"/>
+      <c r="Z104" s="33"/>
+      <c r="AA104" s="33"/>
+      <c r="AB104" s="33"/>
+      <c r="AC104" s="33"/>
+      <c r="AD104" s="33"/>
+      <c r="AE104" s="33"/>
+      <c r="AF104" s="33"/>
+      <c r="AG104" s="33"/>
+      <c r="AH104" s="33"/>
     </row>
     <row r="105" spans="1:34">
       <c r="A105" s="43"/>
-      <c r="B105" s="56"/>
-      <c r="C105" s="56"/>
-      <c r="D105" s="56"/>
-      <c r="E105" s="56"/>
-      <c r="F105" s="56"/>
-      <c r="G105" s="56"/>
+      <c r="B105" s="33"/>
+      <c r="C105" s="33"/>
+      <c r="D105" s="33"/>
+      <c r="E105" s="33"/>
+      <c r="F105" s="33"/>
+      <c r="G105" s="33"/>
       <c r="H105" s="36"/>
-      <c r="I105" s="56"/>
-      <c r="J105" s="56"/>
-      <c r="K105" s="56"/>
-      <c r="L105" s="56"/>
-      <c r="M105" s="56"/>
-      <c r="N105" s="56"/>
-      <c r="O105" s="56"/>
-      <c r="P105" s="56"/>
-      <c r="Q105" s="56"/>
-      <c r="R105" s="56"/>
-      <c r="S105" s="56"/>
-      <c r="T105" s="56"/>
-      <c r="U105" s="56"/>
-      <c r="V105" s="139"/>
-      <c r="W105" s="56"/>
-      <c r="X105" s="56"/>
-      <c r="Y105" s="56"/>
-      <c r="Z105" s="56"/>
-      <c r="AA105" s="56"/>
-      <c r="AB105" s="56"/>
-      <c r="AC105" s="56"/>
-      <c r="AD105" s="56"/>
-      <c r="AE105" s="56"/>
-      <c r="AF105" s="56"/>
-      <c r="AG105" s="56"/>
-      <c r="AH105" s="56"/>
+      <c r="I105" s="33"/>
+      <c r="J105" s="33"/>
+      <c r="K105" s="33"/>
+      <c r="L105" s="33"/>
+      <c r="M105" s="33"/>
+      <c r="N105" s="33"/>
+      <c r="O105" s="33"/>
+      <c r="P105" s="33"/>
+      <c r="Q105" s="33"/>
+      <c r="R105" s="33"/>
+      <c r="S105" s="33"/>
+      <c r="T105" s="33"/>
+      <c r="U105" s="33"/>
+      <c r="V105" s="126"/>
+      <c r="W105" s="33"/>
+      <c r="X105" s="33"/>
+      <c r="Y105" s="33"/>
+      <c r="Z105" s="33"/>
+      <c r="AA105" s="33"/>
+      <c r="AB105" s="33"/>
+      <c r="AC105" s="33"/>
+      <c r="AD105" s="33"/>
+      <c r="AE105" s="33"/>
+      <c r="AF105" s="33"/>
+      <c r="AG105" s="33"/>
+      <c r="AH105" s="33"/>
     </row>
     <row r="106" spans="1:34">
       <c r="A106" s="43"/>
-      <c r="B106" s="56"/>
-      <c r="C106" s="56"/>
-      <c r="D106" s="56"/>
-      <c r="E106" s="56"/>
-      <c r="F106" s="56"/>
-      <c r="G106" s="56"/>
+      <c r="B106" s="33"/>
+      <c r="C106" s="33"/>
+      <c r="D106" s="33"/>
+      <c r="E106" s="33"/>
+      <c r="F106" s="33"/>
+      <c r="G106" s="33"/>
       <c r="H106" s="36"/>
-      <c r="I106" s="56"/>
-      <c r="J106" s="56"/>
-      <c r="K106" s="56"/>
-      <c r="L106" s="56"/>
-      <c r="M106" s="56"/>
-      <c r="N106" s="56"/>
-      <c r="O106" s="56"/>
-      <c r="P106" s="56"/>
-      <c r="Q106" s="56"/>
-      <c r="R106" s="56"/>
-      <c r="S106" s="56"/>
-      <c r="T106" s="56"/>
-      <c r="U106" s="56"/>
-      <c r="V106" s="139"/>
-      <c r="W106" s="56"/>
-      <c r="X106" s="56"/>
-      <c r="Y106" s="56"/>
-      <c r="Z106" s="56"/>
-      <c r="AA106" s="56"/>
-      <c r="AB106" s="56"/>
-      <c r="AC106" s="56"/>
-      <c r="AD106" s="56"/>
-      <c r="AE106" s="56"/>
-      <c r="AF106" s="56"/>
-      <c r="AG106" s="56"/>
-      <c r="AH106" s="56"/>
+      <c r="I106" s="33"/>
+      <c r="J106" s="33"/>
+      <c r="K106" s="33"/>
+      <c r="L106" s="33"/>
+      <c r="M106" s="33"/>
+      <c r="N106" s="33"/>
+      <c r="O106" s="33"/>
+      <c r="P106" s="33"/>
+      <c r="Q106" s="33"/>
+      <c r="R106" s="33"/>
+      <c r="S106" s="33"/>
+      <c r="T106" s="33"/>
+      <c r="U106" s="33"/>
+      <c r="V106" s="126"/>
+      <c r="W106" s="33"/>
+      <c r="X106" s="33"/>
+      <c r="Y106" s="33"/>
+      <c r="Z106" s="33"/>
+      <c r="AA106" s="33"/>
+      <c r="AB106" s="33"/>
+      <c r="AC106" s="33"/>
+      <c r="AD106" s="33"/>
+      <c r="AE106" s="33"/>
+      <c r="AF106" s="33"/>
+      <c r="AG106" s="33"/>
+      <c r="AH106" s="33"/>
     </row>
     <row r="107" spans="1:34">
-      <c r="A107" s="56"/>
-      <c r="B107" s="56"/>
-      <c r="C107" s="56"/>
-      <c r="D107" s="56"/>
-      <c r="E107" s="56"/>
-      <c r="F107" s="56"/>
-      <c r="G107" s="56"/>
+      <c r="A107" s="33"/>
+      <c r="B107" s="33"/>
+      <c r="C107" s="33"/>
+      <c r="D107" s="33"/>
+      <c r="E107" s="33"/>
+      <c r="F107" s="33"/>
+      <c r="G107" s="33"/>
       <c r="H107" s="36"/>
-      <c r="I107" s="56"/>
-      <c r="J107" s="56"/>
-      <c r="K107" s="56"/>
-      <c r="L107" s="56"/>
-      <c r="M107" s="56"/>
-      <c r="N107" s="56"/>
-      <c r="O107" s="56"/>
-      <c r="P107" s="56"/>
-      <c r="Q107" s="56"/>
-      <c r="R107" s="56"/>
-      <c r="S107" s="56"/>
-      <c r="T107" s="56"/>
-      <c r="U107" s="56"/>
-      <c r="V107" s="139"/>
-      <c r="W107" s="56"/>
-      <c r="X107" s="56"/>
-      <c r="Y107" s="56"/>
-      <c r="Z107" s="56"/>
-      <c r="AA107" s="56"/>
-      <c r="AB107" s="56"/>
-      <c r="AC107" s="56"/>
-      <c r="AD107" s="56"/>
-      <c r="AE107" s="56"/>
-      <c r="AF107" s="56"/>
-      <c r="AG107" s="56"/>
-      <c r="AH107" s="56"/>
+      <c r="I107" s="33"/>
+      <c r="J107" s="33"/>
+      <c r="K107" s="33"/>
+      <c r="L107" s="33"/>
+      <c r="M107" s="33"/>
+      <c r="N107" s="33"/>
+      <c r="O107" s="33"/>
+      <c r="P107" s="33"/>
+      <c r="Q107" s="33"/>
+      <c r="R107" s="33"/>
+      <c r="S107" s="33"/>
+      <c r="T107" s="33"/>
+      <c r="U107" s="33"/>
+      <c r="V107" s="126"/>
+      <c r="W107" s="33"/>
+      <c r="X107" s="33"/>
+      <c r="Y107" s="33"/>
+      <c r="Z107" s="33"/>
+      <c r="AA107" s="33"/>
+      <c r="AB107" s="33"/>
+      <c r="AC107" s="33"/>
+      <c r="AD107" s="33"/>
+      <c r="AE107" s="33"/>
+      <c r="AF107" s="33"/>
+      <c r="AG107" s="33"/>
+      <c r="AH107" s="33"/>
     </row>
     <row r="108" spans="1:34">
-      <c r="A108" s="56"/>
-      <c r="B108" s="56"/>
-      <c r="C108" s="56"/>
-      <c r="D108" s="56"/>
-      <c r="E108" s="56"/>
-      <c r="F108" s="56"/>
-      <c r="G108" s="56"/>
+      <c r="A108" s="33"/>
+      <c r="B108" s="33"/>
+      <c r="C108" s="33"/>
+      <c r="D108" s="33"/>
+      <c r="E108" s="33"/>
+      <c r="F108" s="33"/>
+      <c r="G108" s="33"/>
       <c r="H108" s="36"/>
-      <c r="I108" s="56"/>
-      <c r="J108" s="56"/>
-      <c r="K108" s="56"/>
-      <c r="L108" s="56"/>
-      <c r="M108" s="56"/>
-      <c r="N108" s="56"/>
-      <c r="O108" s="56"/>
-      <c r="P108" s="56"/>
-      <c r="Q108" s="56"/>
-      <c r="R108" s="56"/>
-      <c r="S108" s="56"/>
-      <c r="T108" s="56"/>
-      <c r="U108" s="56"/>
-      <c r="V108" s="139"/>
-      <c r="W108" s="56"/>
-      <c r="X108" s="56"/>
-      <c r="Y108" s="56"/>
-      <c r="Z108" s="56"/>
-      <c r="AA108" s="56"/>
-      <c r="AB108" s="56"/>
-      <c r="AC108" s="56"/>
-      <c r="AD108" s="56"/>
-      <c r="AE108" s="56"/>
-      <c r="AF108" s="56"/>
-      <c r="AG108" s="56"/>
-      <c r="AH108" s="56"/>
+      <c r="I108" s="33"/>
+      <c r="J108" s="33"/>
+      <c r="K108" s="33"/>
+      <c r="L108" s="33"/>
+      <c r="M108" s="33"/>
+      <c r="N108" s="33"/>
+      <c r="O108" s="33"/>
+      <c r="P108" s="33"/>
+      <c r="Q108" s="33"/>
+      <c r="R108" s="33"/>
+      <c r="S108" s="33"/>
+      <c r="T108" s="33"/>
+      <c r="U108" s="33"/>
+      <c r="V108" s="126"/>
+      <c r="W108" s="33"/>
+      <c r="X108" s="33"/>
+      <c r="Y108" s="33"/>
+      <c r="Z108" s="33"/>
+      <c r="AA108" s="33"/>
+      <c r="AB108" s="33"/>
+      <c r="AC108" s="33"/>
+      <c r="AD108" s="33"/>
+      <c r="AE108" s="33"/>
+      <c r="AF108" s="33"/>
+      <c r="AG108" s="33"/>
+      <c r="AH108" s="33"/>
     </row>
     <row r="109" spans="1:34">
-      <c r="A109" s="56"/>
-      <c r="B109" s="56"/>
-      <c r="C109" s="56"/>
-      <c r="D109" s="56"/>
-      <c r="E109" s="56"/>
-      <c r="F109" s="56"/>
-      <c r="G109" s="56"/>
+      <c r="A109" s="33"/>
+      <c r="B109" s="33"/>
+      <c r="C109" s="33"/>
+      <c r="D109" s="33"/>
+      <c r="E109" s="33"/>
+      <c r="F109" s="33"/>
+      <c r="G109" s="33"/>
       <c r="H109" s="36"/>
-      <c r="I109" s="56"/>
-      <c r="J109" s="56"/>
-      <c r="K109" s="56"/>
-      <c r="L109" s="56"/>
-      <c r="M109" s="56"/>
-      <c r="N109" s="56"/>
-      <c r="O109" s="56"/>
-      <c r="P109" s="56"/>
-      <c r="Q109" s="56"/>
-      <c r="R109" s="56"/>
-      <c r="S109" s="56"/>
-      <c r="T109" s="56"/>
-      <c r="U109" s="56"/>
-      <c r="V109" s="139"/>
-      <c r="W109" s="56"/>
-      <c r="X109" s="56"/>
-      <c r="Y109" s="56"/>
-      <c r="Z109" s="56"/>
-      <c r="AA109" s="56"/>
-      <c r="AB109" s="56"/>
-      <c r="AC109" s="56"/>
-      <c r="AD109" s="56"/>
-      <c r="AE109" s="56"/>
-      <c r="AF109" s="56"/>
-      <c r="AG109" s="56"/>
-      <c r="AH109" s="56"/>
+      <c r="I109" s="33"/>
+      <c r="J109" s="33"/>
+      <c r="K109" s="33"/>
+      <c r="L109" s="33"/>
+      <c r="M109" s="33"/>
+      <c r="N109" s="33"/>
+      <c r="O109" s="33"/>
+      <c r="P109" s="33"/>
+      <c r="Q109" s="33"/>
+      <c r="R109" s="33"/>
+      <c r="S109" s="33"/>
+      <c r="T109" s="33"/>
+      <c r="U109" s="33"/>
+      <c r="V109" s="126"/>
+      <c r="W109" s="33"/>
+      <c r="X109" s="33"/>
+      <c r="Y109" s="33"/>
+      <c r="Z109" s="33"/>
+      <c r="AA109" s="33"/>
+      <c r="AB109" s="33"/>
+      <c r="AC109" s="33"/>
+      <c r="AD109" s="33"/>
+      <c r="AE109" s="33"/>
+      <c r="AF109" s="33"/>
+      <c r="AG109" s="33"/>
+      <c r="AH109" s="33"/>
     </row>
     <row r="110" spans="1:34">
-      <c r="A110" s="56"/>
-      <c r="B110" s="56"/>
-      <c r="C110" s="56"/>
-      <c r="D110" s="56"/>
-      <c r="E110" s="56"/>
-      <c r="F110" s="56"/>
-      <c r="G110" s="56"/>
+      <c r="A110" s="33"/>
+      <c r="B110" s="33"/>
+      <c r="C110" s="33"/>
+      <c r="D110" s="33"/>
+      <c r="E110" s="33"/>
+      <c r="F110" s="33"/>
+      <c r="G110" s="33"/>
       <c r="H110" s="36"/>
-      <c r="I110" s="56"/>
-      <c r="J110" s="56"/>
-      <c r="K110" s="56"/>
-      <c r="L110" s="56"/>
-      <c r="M110" s="56"/>
-      <c r="N110" s="56"/>
-      <c r="O110" s="56"/>
-      <c r="P110" s="56"/>
-      <c r="Q110" s="56"/>
-      <c r="R110" s="56"/>
-      <c r="S110" s="56"/>
-      <c r="T110" s="56"/>
-      <c r="U110" s="56"/>
-      <c r="V110" s="139"/>
-      <c r="W110" s="56"/>
-      <c r="X110" s="56"/>
-      <c r="Y110" s="56"/>
-      <c r="Z110" s="56"/>
-      <c r="AA110" s="56"/>
-      <c r="AB110" s="56"/>
-      <c r="AC110" s="56"/>
-      <c r="AD110" s="56"/>
-      <c r="AE110" s="56"/>
-      <c r="AF110" s="56"/>
-      <c r="AG110" s="56"/>
-      <c r="AH110" s="56"/>
+      <c r="I110" s="33"/>
+      <c r="J110" s="33"/>
+      <c r="K110" s="33"/>
+      <c r="L110" s="33"/>
+      <c r="M110" s="33"/>
+      <c r="N110" s="33"/>
+      <c r="O110" s="33"/>
+      <c r="P110" s="33"/>
+      <c r="Q110" s="33"/>
+      <c r="R110" s="33"/>
+      <c r="S110" s="33"/>
+      <c r="T110" s="33"/>
+      <c r="U110" s="33"/>
+      <c r="V110" s="126"/>
+      <c r="W110" s="33"/>
+      <c r="X110" s="33"/>
+      <c r="Y110" s="33"/>
+      <c r="Z110" s="33"/>
+      <c r="AA110" s="33"/>
+      <c r="AB110" s="33"/>
+      <c r="AC110" s="33"/>
+      <c r="AD110" s="33"/>
+      <c r="AE110" s="33"/>
+      <c r="AF110" s="33"/>
+      <c r="AG110" s="33"/>
+      <c r="AH110" s="33"/>
     </row>
     <row r="111" spans="1:34">
-      <c r="A111" s="56"/>
-      <c r="B111" s="56"/>
-      <c r="C111" s="56"/>
-      <c r="D111" s="56"/>
-      <c r="E111" s="56"/>
-      <c r="F111" s="56"/>
-      <c r="G111" s="56"/>
+      <c r="A111" s="33"/>
+      <c r="B111" s="33"/>
+      <c r="C111" s="33"/>
+      <c r="D111" s="33"/>
+      <c r="E111" s="33"/>
+      <c r="F111" s="33"/>
+      <c r="G111" s="33"/>
       <c r="H111" s="36"/>
-      <c r="I111" s="56"/>
-      <c r="J111" s="56"/>
-      <c r="K111" s="56"/>
-      <c r="L111" s="56"/>
-      <c r="M111" s="56"/>
-      <c r="N111" s="56"/>
-      <c r="O111" s="56"/>
-      <c r="P111" s="56"/>
-      <c r="Q111" s="56"/>
-      <c r="R111" s="56"/>
-      <c r="S111" s="56"/>
-      <c r="T111" s="56"/>
-      <c r="U111" s="56"/>
-      <c r="V111" s="139"/>
-      <c r="W111" s="56"/>
-      <c r="X111" s="56"/>
-      <c r="Y111" s="56"/>
-      <c r="Z111" s="56"/>
-      <c r="AA111" s="56"/>
-      <c r="AB111" s="56"/>
-      <c r="AC111" s="56"/>
-      <c r="AD111" s="56"/>
-      <c r="AE111" s="56"/>
-      <c r="AF111" s="56"/>
-      <c r="AG111" s="56"/>
-      <c r="AH111" s="56"/>
+      <c r="I111" s="33"/>
+      <c r="J111" s="33"/>
+      <c r="K111" s="33"/>
+      <c r="L111" s="33"/>
+      <c r="M111" s="33"/>
+      <c r="N111" s="33"/>
+      <c r="O111" s="33"/>
+      <c r="P111" s="33"/>
+      <c r="Q111" s="33"/>
+      <c r="R111" s="33"/>
+      <c r="S111" s="33"/>
+      <c r="T111" s="33"/>
+      <c r="U111" s="33"/>
+      <c r="V111" s="126"/>
+      <c r="W111" s="33"/>
+      <c r="X111" s="33"/>
+      <c r="Y111" s="33"/>
+      <c r="Z111" s="33"/>
+      <c r="AA111" s="33"/>
+      <c r="AB111" s="33"/>
+      <c r="AC111" s="33"/>
+      <c r="AD111" s="33"/>
+      <c r="AE111" s="33"/>
+      <c r="AF111" s="33"/>
+      <c r="AG111" s="33"/>
+      <c r="AH111" s="33"/>
     </row>
     <row r="112" spans="1:34">
-      <c r="A112" s="56"/>
-      <c r="B112" s="56"/>
-      <c r="C112" s="56"/>
-      <c r="D112" s="56"/>
-      <c r="E112" s="56"/>
-      <c r="F112" s="56"/>
-      <c r="G112" s="56"/>
+      <c r="A112" s="33"/>
+      <c r="B112" s="33"/>
+      <c r="C112" s="33"/>
+      <c r="D112" s="33"/>
+      <c r="E112" s="33"/>
+      <c r="F112" s="33"/>
+      <c r="G112" s="33"/>
       <c r="H112" s="36"/>
-      <c r="I112" s="56"/>
-      <c r="J112" s="56"/>
-      <c r="K112" s="56"/>
-      <c r="L112" s="56"/>
-      <c r="M112" s="56"/>
-      <c r="N112" s="56"/>
-      <c r="O112" s="56"/>
-      <c r="P112" s="56"/>
-      <c r="Q112" s="56"/>
-      <c r="R112" s="56"/>
-      <c r="S112" s="56"/>
-      <c r="T112" s="56"/>
-      <c r="U112" s="56"/>
-      <c r="V112" s="139"/>
-      <c r="W112" s="56"/>
-      <c r="X112" s="56"/>
-      <c r="Y112" s="56"/>
-      <c r="Z112" s="56"/>
-      <c r="AA112" s="56"/>
-      <c r="AB112" s="56"/>
-      <c r="AC112" s="56"/>
-      <c r="AD112" s="56"/>
-      <c r="AE112" s="56"/>
-      <c r="AF112" s="56"/>
-      <c r="AG112" s="56"/>
-      <c r="AH112" s="56"/>
+      <c r="I112" s="33"/>
+      <c r="J112" s="33"/>
+      <c r="K112" s="33"/>
+      <c r="L112" s="33"/>
+      <c r="M112" s="33"/>
+      <c r="N112" s="33"/>
+      <c r="O112" s="33"/>
+      <c r="P112" s="33"/>
+      <c r="Q112" s="33"/>
+      <c r="R112" s="33"/>
+      <c r="S112" s="33"/>
+      <c r="T112" s="33"/>
+      <c r="U112" s="33"/>
+      <c r="V112" s="126"/>
+      <c r="W112" s="33"/>
+      <c r="X112" s="33"/>
+      <c r="Y112" s="33"/>
+      <c r="Z112" s="33"/>
+      <c r="AA112" s="33"/>
+      <c r="AB112" s="33"/>
+      <c r="AC112" s="33"/>
+      <c r="AD112" s="33"/>
+      <c r="AE112" s="33"/>
+      <c r="AF112" s="33"/>
+      <c r="AG112" s="33"/>
+      <c r="AH112" s="33"/>
     </row>
     <row r="113" spans="1:34">
-      <c r="A113" s="56"/>
-      <c r="B113" s="56"/>
-      <c r="C113" s="56"/>
-      <c r="D113" s="56"/>
-      <c r="E113" s="56"/>
-      <c r="F113" s="56"/>
-      <c r="G113" s="56"/>
+      <c r="A113" s="33"/>
+      <c r="B113" s="33"/>
+      <c r="C113" s="33"/>
+      <c r="D113" s="33"/>
+      <c r="E113" s="33"/>
+      <c r="F113" s="33"/>
+      <c r="G113" s="33"/>
       <c r="H113" s="36"/>
-      <c r="I113" s="56"/>
-      <c r="J113" s="56"/>
-      <c r="K113" s="56"/>
-      <c r="L113" s="56"/>
-      <c r="M113" s="56"/>
-      <c r="N113" s="56"/>
-      <c r="O113" s="56"/>
-      <c r="P113" s="56"/>
-      <c r="Q113" s="56"/>
-      <c r="R113" s="56"/>
-      <c r="S113" s="56"/>
-      <c r="T113" s="56"/>
-      <c r="U113" s="56"/>
-      <c r="V113" s="139"/>
-      <c r="W113" s="56"/>
-      <c r="X113" s="56"/>
-      <c r="Y113" s="56"/>
-      <c r="Z113" s="56"/>
-      <c r="AA113" s="56"/>
-      <c r="AB113" s="56"/>
-      <c r="AC113" s="56"/>
-      <c r="AD113" s="56"/>
-      <c r="AE113" s="56"/>
-      <c r="AF113" s="56"/>
-      <c r="AG113" s="56"/>
-      <c r="AH113" s="56"/>
+      <c r="I113" s="33"/>
+      <c r="J113" s="33"/>
+      <c r="K113" s="33"/>
+      <c r="L113" s="33"/>
+      <c r="M113" s="33"/>
+      <c r="N113" s="33"/>
+      <c r="O113" s="33"/>
+      <c r="P113" s="33"/>
+      <c r="Q113" s="33"/>
+      <c r="R113" s="33"/>
+      <c r="S113" s="33"/>
+      <c r="T113" s="33"/>
+      <c r="U113" s="33"/>
+      <c r="V113" s="126"/>
+      <c r="W113" s="33"/>
+      <c r="X113" s="33"/>
+      <c r="Y113" s="33"/>
+      <c r="Z113" s="33"/>
+      <c r="AA113" s="33"/>
+      <c r="AB113" s="33"/>
+      <c r="AC113" s="33"/>
+      <c r="AD113" s="33"/>
+      <c r="AE113" s="33"/>
+      <c r="AF113" s="33"/>
+      <c r="AG113" s="33"/>
+      <c r="AH113" s="33"/>
     </row>
     <row r="114" spans="1:34">
-      <c r="A114" s="56"/>
-      <c r="B114" s="56"/>
-      <c r="C114" s="56"/>
-      <c r="D114" s="56"/>
-      <c r="E114" s="56"/>
-      <c r="F114" s="56"/>
-      <c r="G114" s="56"/>
+      <c r="A114" s="33"/>
+      <c r="B114" s="33"/>
+      <c r="C114" s="33"/>
+      <c r="D114" s="33"/>
+      <c r="E114" s="33"/>
+      <c r="F114" s="33"/>
+      <c r="G114" s="33"/>
       <c r="H114" s="36"/>
-      <c r="I114" s="56"/>
-      <c r="J114" s="56"/>
-      <c r="K114" s="56"/>
-      <c r="L114" s="56"/>
-      <c r="M114" s="56"/>
-      <c r="N114" s="56"/>
-      <c r="O114" s="56"/>
-      <c r="P114" s="56"/>
-      <c r="Q114" s="56"/>
-      <c r="R114" s="56"/>
-      <c r="S114" s="56"/>
-      <c r="T114" s="56"/>
-      <c r="U114" s="56"/>
-      <c r="V114" s="139"/>
-      <c r="W114" s="56"/>
-      <c r="X114" s="56"/>
-      <c r="Y114" s="56"/>
-      <c r="Z114" s="56"/>
-      <c r="AA114" s="56"/>
-      <c r="AB114" s="56"/>
-      <c r="AC114" s="56"/>
-      <c r="AD114" s="56"/>
-      <c r="AE114" s="56"/>
-      <c r="AF114" s="56"/>
-      <c r="AG114" s="56"/>
-      <c r="AH114" s="56"/>
+      <c r="I114" s="33"/>
+      <c r="J114" s="33"/>
+      <c r="K114" s="33"/>
+      <c r="L114" s="33"/>
+      <c r="M114" s="33"/>
+      <c r="N114" s="33"/>
+      <c r="O114" s="33"/>
+      <c r="P114" s="33"/>
+      <c r="Q114" s="33"/>
+      <c r="R114" s="33"/>
+      <c r="S114" s="33"/>
+      <c r="T114" s="33"/>
+      <c r="U114" s="33"/>
+      <c r="V114" s="126"/>
+      <c r="W114" s="33"/>
+      <c r="X114" s="33"/>
+      <c r="Y114" s="33"/>
+      <c r="Z114" s="33"/>
+      <c r="AA114" s="33"/>
+      <c r="AB114" s="33"/>
+      <c r="AC114" s="33"/>
+      <c r="AD114" s="33"/>
+      <c r="AE114" s="33"/>
+      <c r="AF114" s="33"/>
+      <c r="AG114" s="33"/>
+      <c r="AH114" s="33"/>
     </row>
     <row r="115" spans="1:34">
-      <c r="A115" s="56"/>
-      <c r="B115" s="56"/>
-      <c r="C115" s="56"/>
-      <c r="D115" s="56"/>
-      <c r="E115" s="56"/>
-      <c r="F115" s="56"/>
-      <c r="G115" s="56"/>
+      <c r="A115" s="33"/>
+      <c r="B115" s="33"/>
+      <c r="C115" s="33"/>
+      <c r="D115" s="33"/>
+      <c r="E115" s="33"/>
+      <c r="F115" s="33"/>
+      <c r="G115" s="33"/>
       <c r="H115" s="36"/>
-      <c r="I115" s="56"/>
-      <c r="J115" s="56"/>
-      <c r="K115" s="56"/>
-      <c r="L115" s="56"/>
-      <c r="M115" s="56"/>
-      <c r="N115" s="56"/>
-      <c r="O115" s="56"/>
-      <c r="P115" s="56"/>
-      <c r="Q115" s="56"/>
-      <c r="R115" s="56"/>
-      <c r="S115" s="56"/>
-      <c r="T115" s="56"/>
-      <c r="U115" s="56"/>
-      <c r="V115" s="139"/>
-      <c r="W115" s="56"/>
-      <c r="X115" s="56"/>
-      <c r="Y115" s="56"/>
-      <c r="Z115" s="56"/>
-      <c r="AA115" s="56"/>
-      <c r="AB115" s="56"/>
-      <c r="AC115" s="56"/>
-      <c r="AD115" s="56"/>
-      <c r="AE115" s="56"/>
-      <c r="AF115" s="56"/>
-      <c r="AG115" s="56"/>
-      <c r="AH115" s="56"/>
+      <c r="I115" s="33"/>
+      <c r="J115" s="33"/>
+      <c r="K115" s="33"/>
+      <c r="L115" s="33"/>
+      <c r="M115" s="33"/>
+      <c r="N115" s="33"/>
+      <c r="O115" s="33"/>
+      <c r="P115" s="33"/>
+      <c r="Q115" s="33"/>
+      <c r="R115" s="33"/>
+      <c r="S115" s="33"/>
+      <c r="T115" s="33"/>
+      <c r="U115" s="33"/>
+      <c r="V115" s="126"/>
+      <c r="W115" s="33"/>
+      <c r="X115" s="33"/>
+      <c r="Y115" s="33"/>
+      <c r="Z115" s="33"/>
+      <c r="AA115" s="33"/>
+      <c r="AB115" s="33"/>
+      <c r="AC115" s="33"/>
+      <c r="AD115" s="33"/>
+      <c r="AE115" s="33"/>
+      <c r="AF115" s="33"/>
+      <c r="AG115" s="33"/>
+      <c r="AH115" s="33"/>
     </row>
     <row r="116" spans="1:34">
-      <c r="A116" s="56"/>
-      <c r="B116" s="56"/>
-      <c r="C116" s="56"/>
-      <c r="D116" s="56"/>
-      <c r="E116" s="56"/>
-      <c r="F116" s="56"/>
-      <c r="G116" s="56"/>
+      <c r="A116" s="33"/>
+      <c r="B116" s="33"/>
+      <c r="C116" s="33"/>
+      <c r="D116" s="33"/>
+      <c r="E116" s="33"/>
+      <c r="F116" s="33"/>
+      <c r="G116" s="33"/>
       <c r="H116" s="36"/>
-      <c r="I116" s="56"/>
-      <c r="J116" s="56"/>
-      <c r="K116" s="56"/>
-      <c r="L116" s="56"/>
-      <c r="M116" s="56"/>
-      <c r="N116" s="56"/>
-      <c r="O116" s="56"/>
-      <c r="P116" s="56"/>
-      <c r="Q116" s="56"/>
-      <c r="R116" s="56"/>
-      <c r="S116" s="56"/>
-      <c r="T116" s="56"/>
-      <c r="U116" s="56"/>
-      <c r="V116" s="139"/>
-      <c r="W116" s="56"/>
-      <c r="X116" s="56"/>
-      <c r="Y116" s="56"/>
-      <c r="Z116" s="56"/>
-      <c r="AA116" s="56"/>
-      <c r="AB116" s="56"/>
-      <c r="AC116" s="56"/>
-      <c r="AD116" s="56"/>
-      <c r="AE116" s="56"/>
-      <c r="AF116" s="56"/>
-      <c r="AG116" s="56"/>
-      <c r="AH116" s="56"/>
+      <c r="I116" s="33"/>
+      <c r="J116" s="33"/>
+      <c r="K116" s="33"/>
+      <c r="L116" s="33"/>
+      <c r="M116" s="33"/>
+      <c r="N116" s="33"/>
+      <c r="O116" s="33"/>
+      <c r="P116" s="33"/>
+      <c r="Q116" s="33"/>
+      <c r="R116" s="33"/>
+      <c r="S116" s="33"/>
+      <c r="T116" s="33"/>
+      <c r="U116" s="33"/>
+      <c r="V116" s="126"/>
+      <c r="W116" s="33"/>
+      <c r="X116" s="33"/>
+      <c r="Y116" s="33"/>
+      <c r="Z116" s="33"/>
+      <c r="AA116" s="33"/>
+      <c r="AB116" s="33"/>
+      <c r="AC116" s="33"/>
+      <c r="AD116" s="33"/>
+      <c r="AE116" s="33"/>
+      <c r="AF116" s="33"/>
+      <c r="AG116" s="33"/>
+      <c r="AH116" s="33"/>
     </row>
     <row r="117" spans="1:34">
-      <c r="A117" s="56"/>
-      <c r="B117" s="56"/>
-      <c r="C117" s="56"/>
-      <c r="D117" s="56"/>
-      <c r="E117" s="56"/>
-      <c r="F117" s="56"/>
-      <c r="G117" s="56"/>
+      <c r="A117" s="33"/>
+      <c r="B117" s="33"/>
+      <c r="C117" s="33"/>
+      <c r="D117" s="33"/>
+      <c r="E117" s="33"/>
+      <c r="F117" s="33"/>
+      <c r="G117" s="33"/>
       <c r="H117" s="36"/>
-      <c r="I117" s="56"/>
-      <c r="J117" s="56"/>
-      <c r="K117" s="56"/>
-      <c r="L117" s="56"/>
-      <c r="M117" s="56"/>
-      <c r="N117" s="56"/>
-      <c r="O117" s="56"/>
-      <c r="P117" s="56"/>
-      <c r="Q117" s="56"/>
-      <c r="R117" s="56"/>
-      <c r="S117" s="56"/>
-      <c r="T117" s="56"/>
-      <c r="U117" s="56"/>
-      <c r="V117" s="139"/>
-      <c r="W117" s="56"/>
-      <c r="X117" s="56"/>
-      <c r="Y117" s="56"/>
-      <c r="Z117" s="56"/>
-      <c r="AA117" s="56"/>
-      <c r="AB117" s="56"/>
-      <c r="AC117" s="56"/>
-      <c r="AD117" s="56"/>
-      <c r="AE117" s="56"/>
-      <c r="AF117" s="56"/>
-      <c r="AG117" s="56"/>
-      <c r="AH117" s="56"/>
+      <c r="I117" s="33"/>
+      <c r="J117" s="33"/>
+      <c r="K117" s="33"/>
+      <c r="L117" s="33"/>
+      <c r="M117" s="33"/>
+      <c r="N117" s="33"/>
+      <c r="O117" s="33"/>
+      <c r="P117" s="33"/>
+      <c r="Q117" s="33"/>
+      <c r="R117" s="33"/>
+      <c r="S117" s="33"/>
+      <c r="T117" s="33"/>
+      <c r="U117" s="33"/>
+      <c r="V117" s="126"/>
+      <c r="W117" s="33"/>
+      <c r="X117" s="33"/>
+      <c r="Y117" s="33"/>
+      <c r="Z117" s="33"/>
+      <c r="AA117" s="33"/>
+      <c r="AB117" s="33"/>
+      <c r="AC117" s="33"/>
+      <c r="AD117" s="33"/>
+      <c r="AE117" s="33"/>
+      <c r="AF117" s="33"/>
+      <c r="AG117" s="33"/>
+      <c r="AH117" s="33"/>
     </row>
     <row r="118" spans="1:34">
-      <c r="A118" s="56"/>
-      <c r="B118" s="56"/>
-      <c r="C118" s="56"/>
-      <c r="D118" s="56"/>
-      <c r="E118" s="56"/>
-      <c r="F118" s="56"/>
-      <c r="G118" s="56"/>
-      <c r="H118" s="56"/>
-      <c r="I118" s="56"/>
-      <c r="J118" s="56"/>
-      <c r="K118" s="56"/>
-      <c r="L118" s="56"/>
-      <c r="M118" s="56"/>
-      <c r="N118" s="56"/>
-      <c r="O118" s="56"/>
-      <c r="P118" s="56"/>
-      <c r="Q118" s="56"/>
-      <c r="R118" s="56"/>
-      <c r="S118" s="56"/>
-      <c r="T118" s="56"/>
-      <c r="U118" s="56"/>
-      <c r="V118" s="139"/>
-      <c r="W118" s="56"/>
-      <c r="X118" s="56"/>
-      <c r="Y118" s="56"/>
-      <c r="Z118" s="56"/>
-      <c r="AA118" s="56"/>
-      <c r="AB118" s="56"/>
-      <c r="AC118" s="56"/>
-      <c r="AD118" s="56"/>
-      <c r="AE118" s="56"/>
-      <c r="AF118" s="56"/>
-      <c r="AG118" s="56"/>
-      <c r="AH118" s="56"/>
+      <c r="A118" s="33"/>
+      <c r="B118" s="33"/>
+      <c r="C118" s="33"/>
+      <c r="D118" s="33"/>
+      <c r="E118" s="33"/>
+      <c r="F118" s="33"/>
+      <c r="G118" s="33"/>
+      <c r="H118" s="33"/>
+      <c r="I118" s="33"/>
+      <c r="J118" s="33"/>
+      <c r="K118" s="33"/>
+      <c r="L118" s="33"/>
+      <c r="M118" s="33"/>
+      <c r="N118" s="33"/>
+      <c r="O118" s="33"/>
+      <c r="P118" s="33"/>
+      <c r="Q118" s="33"/>
+      <c r="R118" s="33"/>
+      <c r="S118" s="33"/>
+      <c r="T118" s="33"/>
+      <c r="U118" s="33"/>
+      <c r="V118" s="126"/>
+      <c r="W118" s="33"/>
+      <c r="X118" s="33"/>
+      <c r="Y118" s="33"/>
+      <c r="Z118" s="33"/>
+      <c r="AA118" s="33"/>
+      <c r="AB118" s="33"/>
+      <c r="AC118" s="33"/>
+      <c r="AD118" s="33"/>
+      <c r="AE118" s="33"/>
+      <c r="AF118" s="33"/>
+      <c r="AG118" s="33"/>
+      <c r="AH118" s="33"/>
     </row>
     <row r="119" spans="1:34">
-      <c r="A119" s="56"/>
-      <c r="B119" s="56"/>
-      <c r="C119" s="56"/>
-      <c r="D119" s="56"/>
-      <c r="E119" s="56"/>
-      <c r="F119" s="56"/>
-      <c r="G119" s="56"/>
-      <c r="H119" s="56"/>
-      <c r="I119" s="56"/>
-      <c r="J119" s="56"/>
-      <c r="K119" s="56"/>
-      <c r="L119" s="56"/>
-      <c r="M119" s="56"/>
-      <c r="N119" s="56"/>
-      <c r="O119" s="56"/>
-      <c r="P119" s="56"/>
-      <c r="Q119" s="56"/>
-      <c r="R119" s="56"/>
-      <c r="S119" s="56"/>
-      <c r="T119" s="56"/>
-      <c r="U119" s="56"/>
-      <c r="V119" s="139"/>
-      <c r="W119" s="56"/>
-      <c r="X119" s="56"/>
-      <c r="Y119" s="56"/>
-      <c r="Z119" s="56"/>
-      <c r="AA119" s="56"/>
-      <c r="AB119" s="56"/>
-      <c r="AC119" s="56"/>
-      <c r="AD119" s="56"/>
-      <c r="AE119" s="56"/>
-      <c r="AF119" s="56"/>
-      <c r="AG119" s="56"/>
-      <c r="AH119" s="56"/>
+      <c r="A119" s="33"/>
+      <c r="B119" s="33"/>
+      <c r="C119" s="33"/>
+      <c r="D119" s="33"/>
+      <c r="E119" s="33"/>
+      <c r="F119" s="33"/>
+      <c r="G119" s="33"/>
+      <c r="H119" s="33"/>
+      <c r="I119" s="33"/>
+      <c r="J119" s="33"/>
+      <c r="K119" s="33"/>
+      <c r="L119" s="33"/>
+      <c r="M119" s="33"/>
+      <c r="N119" s="33"/>
+      <c r="O119" s="33"/>
+      <c r="P119" s="33"/>
+      <c r="Q119" s="33"/>
+      <c r="R119" s="33"/>
+      <c r="S119" s="33"/>
+      <c r="T119" s="33"/>
+      <c r="U119" s="33"/>
+      <c r="V119" s="126"/>
+      <c r="W119" s="33"/>
+      <c r="X119" s="33"/>
+      <c r="Y119" s="33"/>
+      <c r="Z119" s="33"/>
+      <c r="AA119" s="33"/>
+      <c r="AB119" s="33"/>
+      <c r="AC119" s="33"/>
+      <c r="AD119" s="33"/>
+      <c r="AE119" s="33"/>
+      <c r="AF119" s="33"/>
+      <c r="AG119" s="33"/>
+      <c r="AH119" s="33"/>
     </row>
     <row r="120" spans="1:34">
-      <c r="A120" s="56"/>
-      <c r="B120" s="56"/>
-      <c r="C120" s="56"/>
-      <c r="D120" s="56"/>
-      <c r="E120" s="56"/>
-      <c r="F120" s="56"/>
-      <c r="G120" s="56"/>
-      <c r="H120" s="56"/>
-      <c r="I120" s="56"/>
-      <c r="J120" s="56"/>
-      <c r="K120" s="56"/>
-      <c r="L120" s="56"/>
-      <c r="M120" s="56"/>
-      <c r="N120" s="56"/>
-      <c r="O120" s="56"/>
-      <c r="P120" s="56"/>
-      <c r="Q120" s="56"/>
-      <c r="R120" s="56"/>
-      <c r="S120" s="56"/>
-      <c r="T120" s="56"/>
-      <c r="U120" s="56"/>
-      <c r="V120" s="139"/>
-      <c r="W120" s="56"/>
-      <c r="X120" s="56"/>
-      <c r="Y120" s="56"/>
-      <c r="Z120" s="56"/>
-      <c r="AA120" s="56"/>
-      <c r="AB120" s="56"/>
-      <c r="AC120" s="56"/>
-      <c r="AD120" s="56"/>
-      <c r="AE120" s="56"/>
-      <c r="AF120" s="56"/>
-      <c r="AG120" s="56"/>
-      <c r="AH120" s="56"/>
+      <c r="A120" s="33"/>
+      <c r="B120" s="33"/>
+      <c r="C120" s="33"/>
+      <c r="D120" s="33"/>
+      <c r="E120" s="33"/>
+      <c r="F120" s="33"/>
+      <c r="G120" s="33"/>
+      <c r="H120" s="33"/>
+      <c r="I120" s="33"/>
+      <c r="J120" s="33"/>
+      <c r="K120" s="33"/>
+      <c r="L120" s="33"/>
+      <c r="M120" s="33"/>
+      <c r="N120" s="33"/>
+      <c r="O120" s="33"/>
+      <c r="P120" s="33"/>
+      <c r="Q120" s="33"/>
+      <c r="R120" s="33"/>
+      <c r="S120" s="33"/>
+      <c r="T120" s="33"/>
+      <c r="U120" s="33"/>
+      <c r="V120" s="126"/>
+      <c r="W120" s="33"/>
+      <c r="X120" s="33"/>
+      <c r="Y120" s="33"/>
+      <c r="Z120" s="33"/>
+      <c r="AA120" s="33"/>
+      <c r="AB120" s="33"/>
+      <c r="AC120" s="33"/>
+      <c r="AD120" s="33"/>
+      <c r="AE120" s="33"/>
+      <c r="AF120" s="33"/>
+      <c r="AG120" s="33"/>
+      <c r="AH120" s="33"/>
     </row>
     <row r="121" spans="1:34">
-      <c r="A121" s="56"/>
-      <c r="B121" s="56"/>
-      <c r="C121" s="56"/>
-      <c r="D121" s="56"/>
-      <c r="E121" s="56"/>
-      <c r="F121" s="56"/>
-      <c r="G121" s="56"/>
-      <c r="H121" s="56"/>
-      <c r="I121" s="56"/>
-      <c r="J121" s="56"/>
-      <c r="K121" s="56"/>
-      <c r="L121" s="56"/>
-      <c r="M121" s="56"/>
-      <c r="N121" s="56"/>
-      <c r="O121" s="56"/>
-      <c r="P121" s="56"/>
-      <c r="Q121" s="56"/>
-      <c r="R121" s="56"/>
-      <c r="S121" s="56"/>
-      <c r="T121" s="56"/>
-      <c r="U121" s="56"/>
-      <c r="V121" s="139"/>
-      <c r="W121" s="56"/>
-      <c r="X121" s="56"/>
-      <c r="Y121" s="56"/>
-      <c r="Z121" s="56"/>
-      <c r="AA121" s="56"/>
-      <c r="AB121" s="56"/>
-      <c r="AC121" s="56"/>
-      <c r="AD121" s="56"/>
-      <c r="AE121" s="56"/>
-      <c r="AF121" s="56"/>
-      <c r="AG121" s="56"/>
-      <c r="AH121" s="56"/>
+      <c r="A121" s="33"/>
+      <c r="B121" s="33"/>
+      <c r="C121" s="33"/>
+      <c r="D121" s="33"/>
+      <c r="E121" s="33"/>
+      <c r="F121" s="33"/>
+      <c r="G121" s="33"/>
+      <c r="H121" s="33"/>
+      <c r="I121" s="33"/>
+      <c r="J121" s="33"/>
+      <c r="K121" s="33"/>
+      <c r="L121" s="33"/>
+      <c r="M121" s="33"/>
+      <c r="N121" s="33"/>
+      <c r="O121" s="33"/>
+      <c r="P121" s="33"/>
+      <c r="Q121" s="33"/>
+      <c r="R121" s="33"/>
+      <c r="S121" s="33"/>
+      <c r="T121" s="33"/>
+      <c r="U121" s="33"/>
+      <c r="V121" s="126"/>
+      <c r="W121" s="33"/>
+      <c r="X121" s="33"/>
+      <c r="Y121" s="33"/>
+      <c r="Z121" s="33"/>
+      <c r="AA121" s="33"/>
+      <c r="AB121" s="33"/>
+      <c r="AC121" s="33"/>
+      <c r="AD121" s="33"/>
+      <c r="AE121" s="33"/>
+      <c r="AF121" s="33"/>
+      <c r="AG121" s="33"/>
+      <c r="AH121" s="33"/>
     </row>
     <row r="122" spans="1:34">
-      <c r="A122" s="56"/>
-      <c r="B122" s="56"/>
-      <c r="C122" s="56"/>
-      <c r="D122" s="56"/>
-      <c r="E122" s="56"/>
-      <c r="F122" s="56"/>
-      <c r="G122" s="56"/>
-      <c r="H122" s="56"/>
-      <c r="I122" s="56"/>
-      <c r="J122" s="56"/>
-      <c r="K122" s="56"/>
-      <c r="L122" s="56"/>
-      <c r="M122" s="56"/>
-      <c r="N122" s="56"/>
-      <c r="O122" s="56"/>
-      <c r="P122" s="56"/>
-      <c r="Q122" s="56"/>
-      <c r="R122" s="56"/>
-      <c r="S122" s="56"/>
-      <c r="T122" s="56"/>
-      <c r="U122" s="56"/>
-      <c r="V122" s="139"/>
-      <c r="W122" s="56"/>
-      <c r="X122" s="56"/>
-      <c r="Y122" s="56"/>
-      <c r="Z122" s="56"/>
-      <c r="AA122" s="56"/>
-      <c r="AB122" s="56"/>
-      <c r="AC122" s="56"/>
-      <c r="AD122" s="56"/>
-      <c r="AE122" s="56"/>
-      <c r="AF122" s="56"/>
-      <c r="AG122" s="56"/>
-      <c r="AH122" s="56"/>
+      <c r="A122" s="33"/>
+      <c r="B122" s="33"/>
+      <c r="C122" s="33"/>
+      <c r="D122" s="33"/>
+      <c r="E122" s="33"/>
+      <c r="F122" s="33"/>
+      <c r="G122" s="33"/>
+      <c r="H122" s="33"/>
+      <c r="I122" s="33"/>
+      <c r="J122" s="33"/>
+      <c r="K122" s="33"/>
+      <c r="L122" s="33"/>
+      <c r="M122" s="33"/>
+      <c r="N122" s="33"/>
+      <c r="O122" s="33"/>
+      <c r="P122" s="33"/>
+      <c r="Q122" s="33"/>
+      <c r="R122" s="33"/>
+      <c r="S122" s="33"/>
+      <c r="T122" s="33"/>
+      <c r="U122" s="33"/>
+      <c r="V122" s="126"/>
+      <c r="W122" s="33"/>
+      <c r="X122" s="33"/>
+      <c r="Y122" s="33"/>
+      <c r="Z122" s="33"/>
+      <c r="AA122" s="33"/>
+      <c r="AB122" s="33"/>
+      <c r="AC122" s="33"/>
+      <c r="AD122" s="33"/>
+      <c r="AE122" s="33"/>
+      <c r="AF122" s="33"/>
+      <c r="AG122" s="33"/>
+      <c r="AH122" s="33"/>
     </row>
     <row r="123" spans="1:34">
-      <c r="A123" s="56"/>
-      <c r="B123" s="56"/>
-      <c r="C123" s="56"/>
-      <c r="D123" s="56"/>
-      <c r="E123" s="56"/>
-      <c r="F123" s="56"/>
-      <c r="G123" s="56"/>
-      <c r="H123" s="56"/>
-      <c r="I123" s="56"/>
-      <c r="J123" s="56"/>
-      <c r="K123" s="56"/>
-      <c r="L123" s="56"/>
-      <c r="M123" s="56"/>
-      <c r="N123" s="56"/>
-      <c r="O123" s="56"/>
-      <c r="P123" s="56"/>
-      <c r="Q123" s="56"/>
-      <c r="R123" s="56"/>
-      <c r="S123" s="56"/>
-      <c r="T123" s="56"/>
-      <c r="U123" s="56"/>
-      <c r="V123" s="139"/>
-      <c r="W123" s="56"/>
-      <c r="X123" s="56"/>
-      <c r="Y123" s="56"/>
-      <c r="Z123" s="56"/>
-      <c r="AA123" s="56"/>
-      <c r="AB123" s="56"/>
-      <c r="AC123" s="56"/>
-      <c r="AD123" s="56"/>
-      <c r="AE123" s="56"/>
-      <c r="AF123" s="56"/>
-      <c r="AG123" s="56"/>
-      <c r="AH123" s="56"/>
+      <c r="A123" s="33"/>
+      <c r="B123" s="33"/>
+      <c r="C123" s="33"/>
+      <c r="D123" s="33"/>
+      <c r="E123" s="33"/>
+      <c r="F123" s="33"/>
+      <c r="G123" s="33"/>
+      <c r="H123" s="33"/>
+      <c r="I123" s="33"/>
+      <c r="J123" s="33"/>
+      <c r="K123" s="33"/>
+      <c r="L123" s="33"/>
+      <c r="M123" s="33"/>
+      <c r="N123" s="33"/>
+      <c r="O123" s="33"/>
+      <c r="P123" s="33"/>
+      <c r="Q123" s="33"/>
+      <c r="R123" s="33"/>
+      <c r="S123" s="33"/>
+      <c r="T123" s="33"/>
+      <c r="U123" s="33"/>
+      <c r="V123" s="126"/>
+      <c r="W123" s="33"/>
+      <c r="X123" s="33"/>
+      <c r="Y123" s="33"/>
+      <c r="Z123" s="33"/>
+      <c r="AA123" s="33"/>
+      <c r="AB123" s="33"/>
+      <c r="AC123" s="33"/>
+      <c r="AD123" s="33"/>
+      <c r="AE123" s="33"/>
+      <c r="AF123" s="33"/>
+      <c r="AG123" s="33"/>
+      <c r="AH123" s="33"/>
     </row>
     <row r="124" spans="1:34">
-      <c r="A124" s="56"/>
-      <c r="B124" s="56"/>
-      <c r="C124" s="56"/>
-      <c r="D124" s="56"/>
-      <c r="E124" s="56"/>
-      <c r="F124" s="56"/>
-      <c r="G124" s="56"/>
-      <c r="H124" s="56"/>
-      <c r="I124" s="56"/>
-      <c r="J124" s="56"/>
-      <c r="K124" s="56"/>
-      <c r="L124" s="56"/>
-      <c r="M124" s="56"/>
-      <c r="N124" s="56"/>
-      <c r="O124" s="56"/>
-      <c r="P124" s="56"/>
-      <c r="Q124" s="56"/>
-      <c r="R124" s="56"/>
-      <c r="S124" s="56"/>
-      <c r="T124" s="56"/>
-      <c r="U124" s="56"/>
-      <c r="V124" s="139"/>
-      <c r="W124" s="56"/>
-      <c r="X124" s="56"/>
-      <c r="Y124" s="56"/>
-      <c r="Z124" s="56"/>
-      <c r="AA124" s="56"/>
-      <c r="AB124" s="56"/>
-      <c r="AC124" s="56"/>
-      <c r="AD124" s="56"/>
-      <c r="AE124" s="56"/>
-      <c r="AF124" s="56"/>
-      <c r="AG124" s="56"/>
-      <c r="AH124" s="56"/>
+      <c r="A124" s="33"/>
+      <c r="B124" s="33"/>
+      <c r="C124" s="33"/>
+      <c r="D124" s="33"/>
+      <c r="E124" s="33"/>
+      <c r="F124" s="33"/>
+      <c r="G124" s="33"/>
+      <c r="H124" s="33"/>
+      <c r="I124" s="33"/>
+      <c r="J124" s="33"/>
+      <c r="K124" s="33"/>
+      <c r="L124" s="33"/>
+      <c r="M124" s="33"/>
+      <c r="N124" s="33"/>
+      <c r="O124" s="33"/>
+      <c r="P124" s="33"/>
+      <c r="Q124" s="33"/>
+      <c r="R124" s="33"/>
+      <c r="S124" s="33"/>
+      <c r="T124" s="33"/>
+      <c r="U124" s="33"/>
+      <c r="V124" s="126"/>
+      <c r="W124" s="33"/>
+      <c r="X124" s="33"/>
+      <c r="Y124" s="33"/>
+      <c r="Z124" s="33"/>
+      <c r="AA124" s="33"/>
+      <c r="AB124" s="33"/>
+      <c r="AC124" s="33"/>
+      <c r="AD124" s="33"/>
+      <c r="AE124" s="33"/>
+      <c r="AF124" s="33"/>
+      <c r="AG124" s="33"/>
+      <c r="AH124" s="33"/>
     </row>
     <row r="125" spans="1:34">
-      <c r="A125" s="56"/>
-      <c r="B125" s="56"/>
-      <c r="C125" s="56"/>
-      <c r="D125" s="56"/>
-      <c r="E125" s="56"/>
-      <c r="F125" s="56"/>
-      <c r="G125" s="56"/>
-      <c r="H125" s="56"/>
-      <c r="I125" s="56"/>
-      <c r="J125" s="56"/>
-      <c r="K125" s="56"/>
-      <c r="L125" s="56"/>
-      <c r="M125" s="56"/>
-      <c r="N125" s="56"/>
-      <c r="O125" s="56"/>
-      <c r="P125" s="56"/>
-      <c r="Q125" s="56"/>
-      <c r="R125" s="56"/>
-      <c r="S125" s="56"/>
-      <c r="T125" s="56"/>
-      <c r="U125" s="56"/>
-      <c r="V125" s="139"/>
-      <c r="W125" s="56"/>
-      <c r="X125" s="56"/>
-      <c r="Y125" s="56"/>
-      <c r="Z125" s="56"/>
-      <c r="AA125" s="56"/>
-      <c r="AB125" s="56"/>
-      <c r="AC125" s="56"/>
-      <c r="AD125" s="56"/>
-      <c r="AE125" s="56"/>
-      <c r="AF125" s="56"/>
-      <c r="AG125" s="56"/>
-      <c r="AH125" s="56"/>
+      <c r="A125" s="33"/>
+      <c r="B125" s="33"/>
+      <c r="C125" s="33"/>
+      <c r="D125" s="33"/>
+      <c r="E125" s="33"/>
+      <c r="F125" s="33"/>
+      <c r="G125" s="33"/>
+      <c r="H125" s="33"/>
+      <c r="I125" s="33"/>
+      <c r="J125" s="33"/>
+      <c r="K125" s="33"/>
+      <c r="L125" s="33"/>
+      <c r="M125" s="33"/>
+      <c r="N125" s="33"/>
+      <c r="O125" s="33"/>
+      <c r="P125" s="33"/>
+      <c r="Q125" s="33"/>
+      <c r="R125" s="33"/>
+      <c r="S125" s="33"/>
+      <c r="T125" s="33"/>
+      <c r="U125" s="33"/>
+      <c r="V125" s="126"/>
+      <c r="W125" s="33"/>
+      <c r="X125" s="33"/>
+      <c r="Y125" s="33"/>
+      <c r="Z125" s="33"/>
+      <c r="AA125" s="33"/>
+      <c r="AB125" s="33"/>
+      <c r="AC125" s="33"/>
+      <c r="AD125" s="33"/>
+      <c r="AE125" s="33"/>
+      <c r="AF125" s="33"/>
+      <c r="AG125" s="33"/>
+      <c r="AH125" s="33"/>
     </row>
     <row r="126" spans="1:34">
-      <c r="A126" s="56"/>
-      <c r="B126" s="56"/>
-      <c r="C126" s="56"/>
-      <c r="D126" s="56"/>
-      <c r="E126" s="56"/>
-      <c r="F126" s="56"/>
-      <c r="G126" s="56"/>
-      <c r="H126" s="56"/>
-      <c r="I126" s="56"/>
-      <c r="J126" s="56"/>
-      <c r="K126" s="56"/>
-      <c r="L126" s="56"/>
-      <c r="M126" s="56"/>
-      <c r="N126" s="56"/>
-      <c r="O126" s="56"/>
-      <c r="P126" s="56"/>
-      <c r="Q126" s="56"/>
-      <c r="R126" s="56"/>
-      <c r="S126" s="56"/>
-      <c r="T126" s="56"/>
-      <c r="U126" s="56"/>
-      <c r="V126" s="139"/>
-      <c r="W126" s="56"/>
-      <c r="X126" s="56"/>
-      <c r="Y126" s="56"/>
-      <c r="Z126" s="56"/>
-      <c r="AA126" s="56"/>
-      <c r="AB126" s="56"/>
-      <c r="AC126" s="56"/>
-      <c r="AD126" s="56"/>
-      <c r="AE126" s="56"/>
-      <c r="AF126" s="56"/>
-      <c r="AG126" s="56"/>
-      <c r="AH126" s="56"/>
+      <c r="A126" s="33"/>
+      <c r="B126" s="33"/>
+      <c r="C126" s="33"/>
+      <c r="D126" s="33"/>
+      <c r="E126" s="33"/>
+      <c r="F126" s="33"/>
+      <c r="G126" s="33"/>
+      <c r="H126" s="33"/>
+      <c r="I126" s="33"/>
+      <c r="J126" s="33"/>
+      <c r="K126" s="33"/>
+      <c r="L126" s="33"/>
+      <c r="M126" s="33"/>
+      <c r="N126" s="33"/>
+      <c r="O126" s="33"/>
+      <c r="P126" s="33"/>
+      <c r="Q126" s="33"/>
+      <c r="R126" s="33"/>
+      <c r="S126" s="33"/>
+      <c r="T126" s="33"/>
+      <c r="U126" s="33"/>
+      <c r="V126" s="126"/>
+      <c r="W126" s="33"/>
+      <c r="X126" s="33"/>
+      <c r="Y126" s="33"/>
+      <c r="Z126" s="33"/>
+      <c r="AA126" s="33"/>
+      <c r="AB126" s="33"/>
+      <c r="AC126" s="33"/>
+      <c r="AD126" s="33"/>
+      <c r="AE126" s="33"/>
+      <c r="AF126" s="33"/>
+      <c r="AG126" s="33"/>
+      <c r="AH126" s="33"/>
     </row>
     <row r="127" spans="1:34">
-      <c r="A127" s="56"/>
-      <c r="B127" s="56"/>
-      <c r="C127" s="56"/>
-      <c r="D127" s="56"/>
-      <c r="E127" s="56"/>
-      <c r="F127" s="56"/>
-      <c r="G127" s="56"/>
-      <c r="H127" s="56"/>
-      <c r="I127" s="56"/>
-      <c r="J127" s="56"/>
-      <c r="K127" s="56"/>
-      <c r="L127" s="56"/>
-      <c r="M127" s="56"/>
-      <c r="N127" s="56"/>
-      <c r="O127" s="56"/>
-      <c r="P127" s="56"/>
-      <c r="Q127" s="56"/>
-      <c r="R127" s="56"/>
-      <c r="S127" s="56"/>
-      <c r="T127" s="56"/>
-      <c r="U127" s="56"/>
-      <c r="V127" s="139"/>
-      <c r="W127" s="56"/>
-      <c r="X127" s="56"/>
-      <c r="Y127" s="56"/>
-      <c r="Z127" s="56"/>
-      <c r="AA127" s="56"/>
-      <c r="AB127" s="56"/>
-      <c r="AC127" s="56"/>
-      <c r="AD127" s="56"/>
-      <c r="AE127" s="56"/>
-      <c r="AF127" s="56"/>
-      <c r="AG127" s="56"/>
-      <c r="AH127" s="56"/>
+      <c r="A127" s="33"/>
+      <c r="B127" s="33"/>
+      <c r="C127" s="33"/>
+      <c r="D127" s="33"/>
+      <c r="E127" s="33"/>
+      <c r="F127" s="33"/>
+      <c r="G127" s="33"/>
+      <c r="H127" s="33"/>
+      <c r="I127" s="33"/>
+      <c r="J127" s="33"/>
+      <c r="K127" s="33"/>
+      <c r="L127" s="33"/>
+      <c r="M127" s="33"/>
+      <c r="N127" s="33"/>
+      <c r="O127" s="33"/>
+      <c r="P127" s="33"/>
+      <c r="Q127" s="33"/>
+      <c r="R127" s="33"/>
+      <c r="S127" s="33"/>
+      <c r="T127" s="33"/>
+      <c r="U127" s="33"/>
+      <c r="V127" s="126"/>
+      <c r="W127" s="33"/>
+      <c r="X127" s="33"/>
+      <c r="Y127" s="33"/>
+      <c r="Z127" s="33"/>
+      <c r="AA127" s="33"/>
+      <c r="AB127" s="33"/>
+      <c r="AC127" s="33"/>
+      <c r="AD127" s="33"/>
+      <c r="AE127" s="33"/>
+      <c r="AF127" s="33"/>
+      <c r="AG127" s="33"/>
+      <c r="AH127" s="33"/>
     </row>
     <row r="128" spans="1:34">
-      <c r="A128" s="56"/>
-      <c r="B128" s="56"/>
-      <c r="C128" s="56"/>
-      <c r="D128" s="56"/>
-      <c r="E128" s="56"/>
-      <c r="F128" s="56"/>
-      <c r="G128" s="56"/>
-      <c r="H128" s="56"/>
-      <c r="I128" s="56"/>
-      <c r="J128" s="56"/>
-      <c r="K128" s="56"/>
-      <c r="L128" s="56"/>
-      <c r="M128" s="56"/>
-      <c r="N128" s="56"/>
-      <c r="O128" s="56"/>
-      <c r="P128" s="56"/>
-      <c r="Q128" s="56"/>
-      <c r="R128" s="56"/>
-      <c r="S128" s="56"/>
-      <c r="T128" s="56"/>
-      <c r="U128" s="56"/>
-      <c r="V128" s="139"/>
-      <c r="W128" s="56"/>
-      <c r="X128" s="56"/>
-      <c r="Y128" s="56"/>
-      <c r="Z128" s="56"/>
-      <c r="AA128" s="56"/>
-      <c r="AB128" s="56"/>
-      <c r="AC128" s="56"/>
-      <c r="AD128" s="56"/>
-      <c r="AE128" s="56"/>
-      <c r="AF128" s="56"/>
-      <c r="AG128" s="56"/>
-      <c r="AH128" s="56"/>
+      <c r="A128" s="33"/>
+      <c r="B128" s="33"/>
+      <c r="C128" s="33"/>
+      <c r="D128" s="33"/>
+      <c r="E128" s="33"/>
+      <c r="F128" s="33"/>
+      <c r="G128" s="33"/>
+      <c r="H128" s="33"/>
+      <c r="I128" s="33"/>
+      <c r="J128" s="33"/>
+      <c r="K128" s="33"/>
+      <c r="L128" s="33"/>
+      <c r="M128" s="33"/>
+      <c r="N128" s="33"/>
+      <c r="O128" s="33"/>
+      <c r="P128" s="33"/>
+      <c r="Q128" s="33"/>
+      <c r="R128" s="33"/>
+      <c r="S128" s="33"/>
+      <c r="T128" s="33"/>
+      <c r="U128" s="33"/>
+      <c r="V128" s="126"/>
+      <c r="W128" s="33"/>
+      <c r="X128" s="33"/>
+      <c r="Y128" s="33"/>
+      <c r="Z128" s="33"/>
+      <c r="AA128" s="33"/>
+      <c r="AB128" s="33"/>
+      <c r="AC128" s="33"/>
+      <c r="AD128" s="33"/>
+      <c r="AE128" s="33"/>
+      <c r="AF128" s="33"/>
+      <c r="AG128" s="33"/>
+      <c r="AH128" s="33"/>
     </row>
     <row r="129" spans="1:34">
-      <c r="A129" s="56"/>
-      <c r="B129" s="56"/>
-      <c r="C129" s="56"/>
-      <c r="D129" s="56"/>
-      <c r="E129" s="56"/>
-      <c r="F129" s="56"/>
-      <c r="G129" s="56"/>
-      <c r="H129" s="56"/>
-      <c r="I129" s="56"/>
-      <c r="J129" s="56"/>
-      <c r="K129" s="56"/>
-      <c r="L129" s="56"/>
-      <c r="M129" s="56"/>
-      <c r="N129" s="56"/>
-      <c r="O129" s="56"/>
-      <c r="P129" s="56"/>
-      <c r="Q129" s="56"/>
-      <c r="R129" s="56"/>
-      <c r="S129" s="56"/>
-      <c r="T129" s="56"/>
-      <c r="U129" s="56"/>
-      <c r="V129" s="139"/>
-      <c r="W129" s="56"/>
-      <c r="X129" s="56"/>
-      <c r="Y129" s="56"/>
-      <c r="Z129" s="56"/>
-      <c r="AA129" s="56"/>
-      <c r="AB129" s="56"/>
-      <c r="AC129" s="56"/>
-      <c r="AD129" s="56"/>
-      <c r="AE129" s="56"/>
-      <c r="AF129" s="56"/>
-      <c r="AG129" s="56"/>
-      <c r="AH129" s="56"/>
+      <c r="A129" s="33"/>
+      <c r="B129" s="33"/>
+      <c r="C129" s="33"/>
+      <c r="D129" s="33"/>
+      <c r="E129" s="33"/>
+      <c r="F129" s="33"/>
+      <c r="G129" s="33"/>
+      <c r="H129" s="33"/>
+      <c r="I129" s="33"/>
+      <c r="J129" s="33"/>
+      <c r="K129" s="33"/>
+      <c r="L129" s="33"/>
+      <c r="M129" s="33"/>
+      <c r="N129" s="33"/>
+      <c r="O129" s="33"/>
+      <c r="P129" s="33"/>
+      <c r="Q129" s="33"/>
+      <c r="R129" s="33"/>
+      <c r="S129" s="33"/>
+      <c r="T129" s="33"/>
+      <c r="U129" s="33"/>
+      <c r="V129" s="126"/>
+      <c r="W129" s="33"/>
+      <c r="X129" s="33"/>
+      <c r="Y129" s="33"/>
+      <c r="Z129" s="33"/>
+      <c r="AA129" s="33"/>
+      <c r="AB129" s="33"/>
+      <c r="AC129" s="33"/>
+      <c r="AD129" s="33"/>
+      <c r="AE129" s="33"/>
+      <c r="AF129" s="33"/>
+      <c r="AG129" s="33"/>
+      <c r="AH129" s="33"/>
     </row>
     <row r="130" spans="1:34">
-      <c r="A130" s="56"/>
-      <c r="B130" s="56"/>
-      <c r="C130" s="56"/>
-      <c r="D130" s="56"/>
-      <c r="E130" s="56"/>
-      <c r="F130" s="56"/>
-      <c r="G130" s="56"/>
-      <c r="H130" s="56"/>
-      <c r="I130" s="56"/>
-      <c r="J130" s="56"/>
-      <c r="K130" s="56"/>
-      <c r="L130" s="56"/>
-      <c r="M130" s="56"/>
-      <c r="N130" s="56"/>
-      <c r="O130" s="56"/>
-      <c r="P130" s="56"/>
-      <c r="Q130" s="56"/>
-      <c r="R130" s="56"/>
-      <c r="S130" s="56"/>
-      <c r="T130" s="56"/>
-      <c r="U130" s="56"/>
-      <c r="V130" s="139"/>
-      <c r="W130" s="56"/>
-      <c r="X130" s="56"/>
-      <c r="Y130" s="56"/>
-      <c r="Z130" s="56"/>
-      <c r="AA130" s="56"/>
-      <c r="AB130" s="56"/>
-      <c r="AC130" s="56"/>
-      <c r="AD130" s="56"/>
-      <c r="AE130" s="56"/>
-      <c r="AF130" s="56"/>
-      <c r="AG130" s="56"/>
-      <c r="AH130" s="56"/>
+      <c r="A130" s="33"/>
+      <c r="B130" s="33"/>
+      <c r="C130" s="33"/>
+      <c r="D130" s="33"/>
+      <c r="E130" s="33"/>
+      <c r="F130" s="33"/>
+      <c r="G130" s="33"/>
+      <c r="H130" s="33"/>
+      <c r="I130" s="33"/>
+      <c r="J130" s="33"/>
+      <c r="K130" s="33"/>
+      <c r="L130" s="33"/>
+      <c r="M130" s="33"/>
+      <c r="N130" s="33"/>
+      <c r="O130" s="33"/>
+      <c r="P130" s="33"/>
+      <c r="Q130" s="33"/>
+      <c r="R130" s="33"/>
+      <c r="S130" s="33"/>
+      <c r="T130" s="33"/>
+      <c r="U130" s="33"/>
+      <c r="V130" s="126"/>
+      <c r="W130" s="33"/>
+      <c r="X130" s="33"/>
+      <c r="Y130" s="33"/>
+      <c r="Z130" s="33"/>
+      <c r="AA130" s="33"/>
+      <c r="AB130" s="33"/>
+      <c r="AC130" s="33"/>
+      <c r="AD130" s="33"/>
+      <c r="AE130" s="33"/>
+      <c r="AF130" s="33"/>
+      <c r="AG130" s="33"/>
+      <c r="AH130" s="33"/>
     </row>
     <row r="131" spans="1:34">
-      <c r="A131" s="56"/>
-      <c r="B131" s="56"/>
-      <c r="C131" s="56"/>
-      <c r="D131" s="56"/>
-      <c r="E131" s="56"/>
-      <c r="F131" s="56"/>
-      <c r="G131" s="56"/>
-      <c r="H131" s="56"/>
-      <c r="I131" s="56"/>
-      <c r="J131" s="56"/>
-      <c r="K131" s="56"/>
-      <c r="L131" s="56"/>
-      <c r="M131" s="56"/>
-      <c r="N131" s="56"/>
-      <c r="O131" s="56"/>
-      <c r="P131" s="56"/>
-      <c r="Q131" s="56"/>
-      <c r="R131" s="56"/>
-      <c r="S131" s="56"/>
-      <c r="T131" s="56"/>
-      <c r="U131" s="56"/>
-      <c r="V131" s="139"/>
-      <c r="W131" s="56"/>
-      <c r="X131" s="56"/>
-      <c r="Y131" s="56"/>
-      <c r="Z131" s="56"/>
-      <c r="AA131" s="56"/>
-      <c r="AB131" s="56"/>
-      <c r="AC131" s="56"/>
-      <c r="AD131" s="56"/>
-      <c r="AE131" s="56"/>
-      <c r="AF131" s="56"/>
-      <c r="AG131" s="56"/>
-      <c r="AH131" s="56"/>
+      <c r="A131" s="33"/>
+      <c r="B131" s="33"/>
+      <c r="C131" s="33"/>
+      <c r="D131" s="33"/>
+      <c r="E131" s="33"/>
+      <c r="F131" s="33"/>
+      <c r="G131" s="33"/>
+      <c r="H131" s="33"/>
+      <c r="I131" s="33"/>
+      <c r="J131" s="33"/>
+      <c r="K131" s="33"/>
+      <c r="L131" s="33"/>
+      <c r="M131" s="33"/>
+      <c r="N131" s="33"/>
+      <c r="O131" s="33"/>
+      <c r="P131" s="33"/>
+      <c r="Q131" s="33"/>
+      <c r="R131" s="33"/>
+      <c r="S131" s="33"/>
+      <c r="T131" s="33"/>
+      <c r="U131" s="33"/>
+      <c r="V131" s="126"/>
+      <c r="W131" s="33"/>
+      <c r="X131" s="33"/>
+      <c r="Y131" s="33"/>
+      <c r="Z131" s="33"/>
+      <c r="AA131" s="33"/>
+      <c r="AB131" s="33"/>
+      <c r="AC131" s="33"/>
+      <c r="AD131" s="33"/>
+      <c r="AE131" s="33"/>
+      <c r="AF131" s="33"/>
+      <c r="AG131" s="33"/>
+      <c r="AH131" s="33"/>
     </row>
     <row r="132" spans="1:34">
-      <c r="A132" s="56"/>
-      <c r="B132" s="56"/>
-      <c r="C132" s="56"/>
-      <c r="D132" s="56"/>
-      <c r="E132" s="56"/>
-      <c r="F132" s="56"/>
-      <c r="G132" s="56"/>
-      <c r="H132" s="56"/>
-      <c r="I132" s="56"/>
-      <c r="J132" s="56"/>
-      <c r="K132" s="56"/>
-      <c r="L132" s="56"/>
-      <c r="M132" s="56"/>
-      <c r="N132" s="56"/>
-      <c r="O132" s="56"/>
-      <c r="P132" s="56"/>
-      <c r="Q132" s="56"/>
-      <c r="R132" s="56"/>
-      <c r="S132" s="56"/>
-      <c r="T132" s="56"/>
-      <c r="U132" s="56"/>
-      <c r="V132" s="139"/>
-      <c r="W132" s="56"/>
-      <c r="X132" s="56"/>
-      <c r="Y132" s="56"/>
-      <c r="Z132" s="56"/>
-      <c r="AA132" s="56"/>
-      <c r="AB132" s="56"/>
-      <c r="AC132" s="56"/>
-      <c r="AD132" s="56"/>
-      <c r="AE132" s="56"/>
-      <c r="AF132" s="56"/>
-      <c r="AG132" s="56"/>
-      <c r="AH132" s="56"/>
+      <c r="A132" s="33"/>
+      <c r="B132" s="33"/>
+      <c r="C132" s="33"/>
+      <c r="D132" s="33"/>
+      <c r="E132" s="33"/>
+      <c r="F132" s="33"/>
+      <c r="G132" s="33"/>
+      <c r="H132" s="33"/>
+      <c r="I132" s="33"/>
+      <c r="J132" s="33"/>
+      <c r="K132" s="33"/>
+      <c r="L132" s="33"/>
+      <c r="M132" s="33"/>
+      <c r="N132" s="33"/>
+      <c r="O132" s="33"/>
+      <c r="P132" s="33"/>
+      <c r="Q132" s="33"/>
+      <c r="R132" s="33"/>
+      <c r="S132" s="33"/>
+      <c r="T132" s="33"/>
+      <c r="U132" s="33"/>
+      <c r="V132" s="126"/>
+      <c r="W132" s="33"/>
+      <c r="X132" s="33"/>
+      <c r="Y132" s="33"/>
+      <c r="Z132" s="33"/>
+      <c r="AA132" s="33"/>
+      <c r="AB132" s="33"/>
+      <c r="AC132" s="33"/>
+      <c r="AD132" s="33"/>
+      <c r="AE132" s="33"/>
+      <c r="AF132" s="33"/>
+      <c r="AG132" s="33"/>
+      <c r="AH132" s="33"/>
     </row>
     <row r="133" spans="1:34">
-      <c r="A133" s="56"/>
-      <c r="B133" s="56"/>
-      <c r="C133" s="56"/>
-      <c r="D133" s="56"/>
-      <c r="E133" s="56"/>
-      <c r="F133" s="56"/>
-      <c r="G133" s="56"/>
-      <c r="H133" s="56"/>
-      <c r="I133" s="56"/>
-      <c r="J133" s="56"/>
-      <c r="K133" s="56"/>
-      <c r="L133" s="56"/>
-      <c r="M133" s="56"/>
-      <c r="N133" s="56"/>
-      <c r="O133" s="56"/>
-      <c r="P133" s="56"/>
-      <c r="Q133" s="56"/>
-      <c r="R133" s="56"/>
-      <c r="S133" s="56"/>
-      <c r="T133" s="56"/>
-      <c r="U133" s="56"/>
-      <c r="V133" s="139"/>
-      <c r="W133" s="56"/>
-      <c r="X133" s="56"/>
-      <c r="Y133" s="56"/>
-      <c r="Z133" s="56"/>
-      <c r="AA133" s="56"/>
-      <c r="AB133" s="56"/>
-      <c r="AC133" s="56"/>
-      <c r="AD133" s="56"/>
-      <c r="AE133" s="56"/>
-      <c r="AF133" s="56"/>
-      <c r="AG133" s="56"/>
-      <c r="AH133" s="56"/>
+      <c r="A133" s="33"/>
+      <c r="B133" s="33"/>
+      <c r="C133" s="33"/>
+      <c r="D133" s="33"/>
+      <c r="E133" s="33"/>
+      <c r="F133" s="33"/>
+      <c r="G133" s="33"/>
+      <c r="H133" s="33"/>
+      <c r="I133" s="33"/>
+      <c r="J133" s="33"/>
+      <c r="K133" s="33"/>
+      <c r="L133" s="33"/>
+      <c r="M133" s="33"/>
+      <c r="N133" s="33"/>
+      <c r="O133" s="33"/>
+      <c r="P133" s="33"/>
+      <c r="Q133" s="33"/>
+      <c r="R133" s="33"/>
+      <c r="S133" s="33"/>
+      <c r="T133" s="33"/>
+      <c r="U133" s="33"/>
+      <c r="V133" s="126"/>
+      <c r="W133" s="33"/>
+      <c r="X133" s="33"/>
+      <c r="Y133" s="33"/>
+      <c r="Z133" s="33"/>
+      <c r="AA133" s="33"/>
+      <c r="AB133" s="33"/>
+      <c r="AC133" s="33"/>
+      <c r="AD133" s="33"/>
+      <c r="AE133" s="33"/>
+      <c r="AF133" s="33"/>
+      <c r="AG133" s="33"/>
+      <c r="AH133" s="33"/>
     </row>
     <row r="134" spans="1:34">
-      <c r="A134" s="56"/>
-      <c r="B134" s="56"/>
-      <c r="C134" s="56"/>
-      <c r="D134" s="56"/>
-      <c r="E134" s="56"/>
-      <c r="F134" s="56"/>
-      <c r="G134" s="56"/>
-      <c r="H134" s="56"/>
-      <c r="I134" s="56"/>
-      <c r="J134" s="56"/>
-      <c r="K134" s="56"/>
-      <c r="L134" s="56"/>
-      <c r="M134" s="56"/>
-      <c r="N134" s="56"/>
-      <c r="O134" s="56"/>
-      <c r="P134" s="56"/>
-      <c r="Q134" s="56"/>
-      <c r="R134" s="56"/>
-      <c r="S134" s="56"/>
-      <c r="T134" s="56"/>
-      <c r="U134" s="56"/>
-      <c r="V134" s="139"/>
-      <c r="W134" s="56"/>
-      <c r="X134" s="56"/>
-      <c r="Y134" s="56"/>
-      <c r="Z134" s="56"/>
-      <c r="AA134" s="56"/>
-      <c r="AB134" s="56"/>
-      <c r="AC134" s="56"/>
-      <c r="AD134" s="56"/>
-      <c r="AE134" s="56"/>
-      <c r="AF134" s="56"/>
-      <c r="AG134" s="56"/>
-      <c r="AH134" s="56"/>
+      <c r="A134" s="33"/>
+      <c r="B134" s="33"/>
+      <c r="C134" s="33"/>
+      <c r="D134" s="33"/>
+      <c r="E134" s="33"/>
+      <c r="F134" s="33"/>
+      <c r="G134" s="33"/>
+      <c r="H134" s="33"/>
+      <c r="I134" s="33"/>
+      <c r="J134" s="33"/>
+      <c r="K134" s="33"/>
+      <c r="L134" s="33"/>
+      <c r="M134" s="33"/>
+      <c r="N134" s="33"/>
+      <c r="O134" s="33"/>
+      <c r="P134" s="33"/>
+      <c r="Q134" s="33"/>
+      <c r="R134" s="33"/>
+      <c r="S134" s="33"/>
+      <c r="T134" s="33"/>
+      <c r="U134" s="33"/>
+      <c r="V134" s="126"/>
+      <c r="W134" s="33"/>
+      <c r="X134" s="33"/>
+      <c r="Y134" s="33"/>
+      <c r="Z134" s="33"/>
+      <c r="AA134" s="33"/>
+      <c r="AB134" s="33"/>
+      <c r="AC134" s="33"/>
+      <c r="AD134" s="33"/>
+      <c r="AE134" s="33"/>
+      <c r="AF134" s="33"/>
+      <c r="AG134" s="33"/>
+      <c r="AH134" s="33"/>
     </row>
     <row r="135" spans="1:34">
-      <c r="A135" s="56"/>
-      <c r="B135" s="56"/>
-      <c r="C135" s="56"/>
-      <c r="D135" s="56"/>
-      <c r="E135" s="56"/>
-      <c r="F135" s="56"/>
-      <c r="G135" s="56"/>
-      <c r="H135" s="56"/>
-      <c r="I135" s="56"/>
-      <c r="J135" s="56"/>
-      <c r="K135" s="56"/>
-      <c r="L135" s="56"/>
-      <c r="M135" s="56"/>
-      <c r="N135" s="56"/>
-      <c r="O135" s="56"/>
-      <c r="P135" s="56"/>
-      <c r="Q135" s="56"/>
-      <c r="R135" s="56"/>
-      <c r="S135" s="56"/>
-      <c r="T135" s="56"/>
-      <c r="U135" s="56"/>
-      <c r="V135" s="139"/>
-      <c r="W135" s="56"/>
-      <c r="X135" s="56"/>
-      <c r="Y135" s="56"/>
-      <c r="Z135" s="56"/>
-      <c r="AA135" s="56"/>
-      <c r="AB135" s="56"/>
-      <c r="AC135" s="56"/>
-      <c r="AD135" s="56"/>
-      <c r="AE135" s="56"/>
-      <c r="AF135" s="56"/>
-      <c r="AG135" s="56"/>
-      <c r="AH135" s="56"/>
+      <c r="A135" s="33"/>
+      <c r="B135" s="33"/>
+      <c r="C135" s="33"/>
+      <c r="D135" s="33"/>
+      <c r="E135" s="33"/>
+      <c r="F135" s="33"/>
+      <c r="G135" s="33"/>
+      <c r="H135" s="33"/>
+      <c r="I135" s="33"/>
+      <c r="J135" s="33"/>
+      <c r="K135" s="33"/>
+      <c r="L135" s="33"/>
+      <c r="M135" s="33"/>
+      <c r="N135" s="33"/>
+      <c r="O135" s="33"/>
+      <c r="P135" s="33"/>
+      <c r="Q135" s="33"/>
+      <c r="R135" s="33"/>
+      <c r="S135" s="33"/>
+      <c r="T135" s="33"/>
+      <c r="U135" s="33"/>
+      <c r="V135" s="126"/>
+      <c r="W135" s="33"/>
+      <c r="X135" s="33"/>
+      <c r="Y135" s="33"/>
+      <c r="Z135" s="33"/>
+      <c r="AA135" s="33"/>
+      <c r="AB135" s="33"/>
+      <c r="AC135" s="33"/>
+      <c r="AD135" s="33"/>
+      <c r="AE135" s="33"/>
+      <c r="AF135" s="33"/>
+      <c r="AG135" s="33"/>
+      <c r="AH135" s="33"/>
     </row>
     <row r="136" spans="1:34">
-      <c r="A136" s="56"/>
-      <c r="B136" s="56"/>
-      <c r="C136" s="56"/>
-      <c r="D136" s="56"/>
-      <c r="E136" s="56"/>
-      <c r="F136" s="56"/>
-      <c r="G136" s="56"/>
-      <c r="H136" s="56"/>
-      <c r="I136" s="56"/>
-      <c r="J136" s="56"/>
-      <c r="K136" s="56"/>
-      <c r="L136" s="56"/>
-      <c r="M136" s="56"/>
-      <c r="N136" s="56"/>
-      <c r="O136" s="56"/>
-      <c r="P136" s="56"/>
-      <c r="Q136" s="56"/>
-      <c r="R136" s="56"/>
-      <c r="S136" s="56"/>
-      <c r="T136" s="56"/>
-      <c r="U136" s="56"/>
-      <c r="V136" s="139"/>
-      <c r="W136" s="56"/>
-      <c r="X136" s="56"/>
-      <c r="Y136" s="56"/>
-      <c r="Z136" s="56"/>
-      <c r="AA136" s="56"/>
-      <c r="AB136" s="56"/>
-      <c r="AC136" s="56"/>
-      <c r="AD136" s="56"/>
-      <c r="AE136" s="56"/>
-      <c r="AF136" s="56"/>
-      <c r="AG136" s="56"/>
-      <c r="AH136" s="56"/>
+      <c r="A136" s="33"/>
+      <c r="B136" s="33"/>
+      <c r="C136" s="33"/>
+      <c r="D136" s="33"/>
+      <c r="E136" s="33"/>
+      <c r="F136" s="33"/>
+      <c r="G136" s="33"/>
+      <c r="H136" s="33"/>
+      <c r="I136" s="33"/>
+      <c r="J136" s="33"/>
+      <c r="K136" s="33"/>
+      <c r="L136" s="33"/>
+      <c r="M136" s="33"/>
+      <c r="N136" s="33"/>
+      <c r="O136" s="33"/>
+      <c r="P136" s="33"/>
+      <c r="Q136" s="33"/>
+      <c r="R136" s="33"/>
+      <c r="S136" s="33"/>
+      <c r="T136" s="33"/>
+      <c r="U136" s="33"/>
+      <c r="V136" s="126"/>
+      <c r="W136" s="33"/>
+      <c r="X136" s="33"/>
+      <c r="Y136" s="33"/>
+      <c r="Z136" s="33"/>
+      <c r="AA136" s="33"/>
+      <c r="AB136" s="33"/>
+      <c r="AC136" s="33"/>
+      <c r="AD136" s="33"/>
+      <c r="AE136" s="33"/>
+      <c r="AF136" s="33"/>
+      <c r="AG136" s="33"/>
+      <c r="AH136" s="33"/>
     </row>
     <row r="137" spans="1:34">
-      <c r="A137" s="56"/>
-      <c r="B137" s="56"/>
-      <c r="C137" s="56"/>
-      <c r="D137" s="56"/>
-      <c r="E137" s="56"/>
-      <c r="F137" s="56"/>
-      <c r="G137" s="56"/>
-      <c r="H137" s="56"/>
-      <c r="I137" s="56"/>
-      <c r="J137" s="56"/>
-      <c r="K137" s="56"/>
-      <c r="L137" s="56"/>
-      <c r="M137" s="56"/>
-      <c r="N137" s="56"/>
-      <c r="O137" s="56"/>
-      <c r="P137" s="56"/>
-      <c r="Q137" s="56"/>
-      <c r="R137" s="56"/>
-      <c r="S137" s="56"/>
-      <c r="T137" s="56"/>
-      <c r="U137" s="56"/>
-      <c r="V137" s="139"/>
-      <c r="W137" s="56"/>
-      <c r="X137" s="56"/>
-      <c r="Y137" s="56"/>
-      <c r="Z137" s="56"/>
-      <c r="AA137" s="56"/>
-      <c r="AB137" s="56"/>
-      <c r="AC137" s="56"/>
-      <c r="AD137" s="56"/>
-      <c r="AE137" s="56"/>
-      <c r="AF137" s="56"/>
-      <c r="AG137" s="56"/>
-      <c r="AH137" s="56"/>
+      <c r="A137" s="33"/>
+      <c r="B137" s="33"/>
+      <c r="C137" s="33"/>
+      <c r="D137" s="33"/>
+      <c r="E137" s="33"/>
+      <c r="F137" s="33"/>
+      <c r="G137" s="33"/>
+      <c r="H137" s="33"/>
+      <c r="I137" s="33"/>
+      <c r="J137" s="33"/>
+      <c r="K137" s="33"/>
+      <c r="L137" s="33"/>
+      <c r="M137" s="33"/>
+      <c r="N137" s="33"/>
+      <c r="O137" s="33"/>
+      <c r="P137" s="33"/>
+      <c r="Q137" s="33"/>
+      <c r="R137" s="33"/>
+      <c r="S137" s="33"/>
+      <c r="T137" s="33"/>
+      <c r="U137" s="33"/>
+      <c r="V137" s="126"/>
+      <c r="W137" s="33"/>
+      <c r="X137" s="33"/>
+      <c r="Y137" s="33"/>
+      <c r="Z137" s="33"/>
+      <c r="AA137" s="33"/>
+      <c r="AB137" s="33"/>
+      <c r="AC137" s="33"/>
+      <c r="AD137" s="33"/>
+      <c r="AE137" s="33"/>
+      <c r="AF137" s="33"/>
+      <c r="AG137" s="33"/>
+      <c r="AH137" s="33"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Distress diary/item_info.xlsx
+++ b/Distress diary/item_info.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="305">
   <si>
     <t>종류</t>
   </si>
@@ -1018,6 +1018,12 @@
   </si>
   <si>
     <t>High Quality Metal ingot</t>
+  </si>
+  <si>
+    <t>Immobilizing Splint</t>
+  </si>
+  <si>
+    <t>Handmade Immobilizing Splint</t>
   </si>
 </sst>
 </file>
@@ -3697,8 +3703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AN137"/>
   <sheetViews>
-    <sheetView topLeftCell="H22" tabSelected="1" zoomScale="110" workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+    <sheetView topLeftCell="A25" tabSelected="1" zoomScale="110" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -5913,10 +5919,10 @@
         <v>215</v>
       </c>
       <c r="C37" s="44" t="s">
-        <v>214</v>
+        <v>304</v>
       </c>
       <c r="D37" s="44" t="s">
-        <v>213</v>
+        <v>303</v>
       </c>
       <c r="E37" s="44" t="s">
         <v>201</v>

--- a/Distress diary/item_info.xlsx
+++ b/Distress diary/item_info.xlsx
@@ -3703,8 +3703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AN137"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" tabSelected="1" zoomScale="110" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView topLeftCell="J1" tabSelected="1" zoomScale="110" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -4782,7 +4782,7 @@
         <v>3</v>
       </c>
       <c r="J15" s="44">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="K15" s="44">
         <v>0.3</v>
@@ -4794,7 +4794,7 @@
         <v>0.1</v>
       </c>
       <c r="N15" s="44">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="O15" s="44">
         <v>0.5</v>

--- a/Distress diary/item_info.xlsx
+++ b/Distress diary/item_info.xlsx
@@ -3703,8 +3703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AN137"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" tabSelected="1" zoomScale="110" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -4821,7 +4821,7 @@
         <v>0.7</v>
       </c>
       <c r="W15" s="44">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="X15" s="101">
         <v>2</v>

--- a/Distress diary/item_info.xlsx
+++ b/Distress diary/item_info.xlsx
@@ -3703,8 +3703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AN137"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView topLeftCell="H76" tabSelected="1" zoomScale="110" workbookViewId="0">
+      <selection activeCell="N90" sqref="N90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>

--- a/Distress diary/item_info.xlsx
+++ b/Distress diary/item_info.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="307">
   <si>
     <t>종류</t>
   </si>
@@ -1024,6 +1024,12 @@
   </si>
   <si>
     <t>Handmade Immobilizing Splint</t>
+  </si>
+  <si>
+    <t>Golden ring</t>
+  </si>
+  <si>
+    <t>골든 링</t>
   </si>
 </sst>
 </file>
@@ -3703,8 +3709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AN137"/>
   <sheetViews>
-    <sheetView topLeftCell="H76" tabSelected="1" zoomScale="110" workbookViewId="0">
-      <selection activeCell="N90" sqref="N90"/>
+    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -5083,7 +5089,9 @@
       <c r="I20" s="101" t="s">
         <v>171</v>
       </c>
-      <c r="J20" s="67"/>
+      <c r="J20" s="67" t="s">
+        <v>306</v>
+      </c>
       <c r="K20" s="44"/>
       <c r="L20" s="44"/>
       <c r="M20" s="44"/>
@@ -5143,7 +5151,9 @@
       <c r="I21" s="101" t="s">
         <v>93</v>
       </c>
-      <c r="J21" s="67"/>
+      <c r="J21" s="67" t="s">
+        <v>305</v>
+      </c>
       <c r="K21" s="44"/>
       <c r="L21" s="44"/>
       <c r="M21" s="44"/>
@@ -5203,7 +5213,9 @@
       <c r="I22" s="101">
         <v>1</v>
       </c>
-      <c r="J22" s="67"/>
+      <c r="J22" s="67">
+        <v>17</v>
+      </c>
       <c r="K22" s="44"/>
       <c r="L22" s="44"/>
       <c r="M22" s="44"/>
@@ -5263,7 +5275,9 @@
       <c r="I23" s="101">
         <v>0.002</v>
       </c>
-      <c r="J23" s="67"/>
+      <c r="J23" s="67">
+        <v>0.002</v>
+      </c>
       <c r="K23" s="44"/>
       <c r="L23" s="44"/>
       <c r="M23" s="44"/>
@@ -6469,7 +6483,7 @@
         <v>2</v>
       </c>
       <c r="G47" s="44">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="H47" s="101">
         <v>2</v>

--- a/Distress diary/item_info.xlsx
+++ b/Distress diary/item_info.xlsx
@@ -3710,7 +3710,7 @@
   <dimension ref="A1:AN137"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -4592,8 +4592,8 @@
       <c r="D13" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="44" t="s">
-        <v>52</v>
+      <c r="E13" s="44">
+        <v>1</v>
       </c>
       <c r="F13" s="44" t="s">
         <v>54</v>
@@ -4776,7 +4776,7 @@
         <v>15</v>
       </c>
       <c r="F15" s="44">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="G15" s="44">
         <v>0.1</v>

--- a/Distress diary/item_info.xlsx
+++ b/Distress diary/item_info.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="326">
   <si>
     <t>종류</t>
   </si>
@@ -1031,13 +1031,70 @@
   <si>
     <t>골든 링</t>
   </si>
+  <si>
+    <t>스타 태그 확률</t>
+  </si>
+  <si>
+    <t>일반</t>
+  </si>
+  <si>
+    <t>global.quickslot_rare = array_create(9,-4);//아이템의 갯수 값 보유</t>
+  </si>
+  <si>
+    <t>블루</t>
+  </si>
+  <si>
+    <t>퍼플</t>
+  </si>
+  <si>
+    <t>골드</t>
+  </si>
+  <si>
+    <t>레드</t>
+  </si>
+  <si>
+    <t>스타 태그</t>
+  </si>
+  <si>
+    <t>30^</t>
+  </si>
+  <si>
+    <t>가치 배율</t>
+  </si>
+  <si>
+    <t>등장 확률</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>x1</t>
+  </si>
+  <si>
+    <t>x1.1</t>
+  </si>
+  <si>
+    <t>x1.2</t>
+  </si>
+  <si>
+    <t>x1.3</t>
+  </si>
+  <si>
+    <t>x1.4</t>
+  </si>
+  <si>
+    <t>x1.5</t>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11.0"/>
       <name val="맑은 고딕"/>
@@ -1154,8 +1211,21 @@
       <name val="roboto"/>
       <color rgb="FF827D77"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="1"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1357,6 +1427,12 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.099980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="113">
     <border>
@@ -2965,7 +3041,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3388,6 +3464,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="112" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="38" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="38" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="33" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="33" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -3709,8 +3809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AN137"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView topLeftCell="A64" tabSelected="1" zoomScale="110" workbookViewId="0">
+      <selection activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -9539,11 +9639,13 @@
       <c r="AH106" s="33"/>
     </row>
     <row r="107" spans="1:34">
-      <c r="A107" s="33"/>
-      <c r="B107" s="33"/>
-      <c r="C107" s="33"/>
-      <c r="D107" s="33"/>
-      <c r="E107" s="33"/>
+      <c r="A107" s="146" t="s">
+        <v>314</v>
+      </c>
+      <c r="B107" s="48"/>
+      <c r="C107" s="48"/>
+      <c r="D107" s="48"/>
+      <c r="E107" s="48"/>
       <c r="F107" s="33"/>
       <c r="G107" s="33"/>
       <c r="H107" s="36"/>
@@ -9575,12 +9677,24 @@
       <c r="AH107" s="33"/>
     </row>
     <row r="108" spans="1:34">
-      <c r="A108" s="33"/>
-      <c r="B108" s="33"/>
-      <c r="C108" s="33"/>
-      <c r="D108" s="33"/>
-      <c r="E108" s="33"/>
-      <c r="F108" s="33"/>
+      <c r="A108" s="145" t="s">
+        <v>0</v>
+      </c>
+      <c r="B108" s="145" t="s">
+        <v>308</v>
+      </c>
+      <c r="C108" s="145" t="s">
+        <v>310</v>
+      </c>
+      <c r="D108" s="145" t="s">
+        <v>311</v>
+      </c>
+      <c r="E108" s="145" t="s">
+        <v>312</v>
+      </c>
+      <c r="F108" s="145" t="s">
+        <v>313</v>
+      </c>
       <c r="G108" s="33"/>
       <c r="H108" s="36"/>
       <c r="I108" s="33"/>
@@ -9611,12 +9725,24 @@
       <c r="AH108" s="33"/>
     </row>
     <row r="109" spans="1:34">
-      <c r="A109" s="33"/>
-      <c r="B109" s="33"/>
-      <c r="C109" s="33"/>
-      <c r="D109" s="33"/>
-      <c r="E109" s="33"/>
-      <c r="F109" s="33"/>
+      <c r="A109" s="148" t="s">
+        <v>317</v>
+      </c>
+      <c r="B109" s="147">
+        <v>0.65</v>
+      </c>
+      <c r="C109" s="147">
+        <v>0.25</v>
+      </c>
+      <c r="D109" s="147">
+        <v>0.07</v>
+      </c>
+      <c r="E109" s="147">
+        <v>0.02</v>
+      </c>
+      <c r="F109" s="147">
+        <v>0.01</v>
+      </c>
       <c r="G109" s="33"/>
       <c r="H109" s="36"/>
       <c r="I109" s="33"/>
@@ -9647,12 +9773,24 @@
       <c r="AH109" s="33"/>
     </row>
     <row r="110" spans="1:34">
-      <c r="A110" s="33"/>
-      <c r="B110" s="33"/>
-      <c r="C110" s="33"/>
-      <c r="D110" s="33"/>
-      <c r="E110" s="33"/>
-      <c r="F110" s="33"/>
+      <c r="A110" s="146" t="s">
+        <v>316</v>
+      </c>
+      <c r="B110" s="48" t="s">
+        <v>319</v>
+      </c>
+      <c r="C110" s="48" t="s">
+        <v>320</v>
+      </c>
+      <c r="D110" s="48" t="s">
+        <v>322</v>
+      </c>
+      <c r="E110" s="48" t="s">
+        <v>324</v>
+      </c>
+      <c r="F110" s="48" t="s">
+        <v>325</v>
+      </c>
       <c r="G110" s="33"/>
       <c r="H110" s="36"/>
       <c r="I110" s="33"/>
@@ -9683,12 +9821,12 @@
       <c r="AH110" s="33"/>
     </row>
     <row r="111" spans="1:34">
-      <c r="A111" s="33"/>
-      <c r="B111" s="33"/>
-      <c r="C111" s="33"/>
-      <c r="D111" s="33"/>
-      <c r="E111" s="33"/>
-      <c r="F111" s="33"/>
+      <c r="A111" s="146"/>
+      <c r="B111" s="48"/>
+      <c r="C111" s="48"/>
+      <c r="D111" s="48"/>
+      <c r="E111" s="48"/>
+      <c r="F111" s="48"/>
       <c r="G111" s="33"/>
       <c r="H111" s="36"/>
       <c r="I111" s="33"/>
@@ -9719,12 +9857,12 @@
       <c r="AH111" s="33"/>
     </row>
     <row r="112" spans="1:34">
-      <c r="A112" s="33"/>
-      <c r="B112" s="33"/>
-      <c r="C112" s="33"/>
-      <c r="D112" s="33"/>
-      <c r="E112" s="33"/>
-      <c r="F112" s="33"/>
+      <c r="A112" s="48"/>
+      <c r="B112" s="48"/>
+      <c r="C112" s="48"/>
+      <c r="D112" s="48"/>
+      <c r="E112" s="48"/>
+      <c r="F112" s="48"/>
       <c r="G112" s="33"/>
       <c r="H112" s="36"/>
       <c r="I112" s="33"/>
@@ -9755,11 +9893,11 @@
       <c r="AH112" s="33"/>
     </row>
     <row r="113" spans="1:34">
-      <c r="A113" s="33"/>
-      <c r="B113" s="33"/>
-      <c r="C113" s="33"/>
-      <c r="D113" s="33"/>
-      <c r="E113" s="33"/>
+      <c r="A113" s="48"/>
+      <c r="B113" s="48"/>
+      <c r="C113" s="48"/>
+      <c r="D113" s="48"/>
+      <c r="E113" s="48"/>
       <c r="F113" s="33"/>
       <c r="G113" s="33"/>
       <c r="H113" s="36"/>
@@ -9791,11 +9929,11 @@
       <c r="AH113" s="33"/>
     </row>
     <row r="114" spans="1:34">
-      <c r="A114" s="33"/>
-      <c r="B114" s="33"/>
-      <c r="C114" s="33"/>
-      <c r="D114" s="33"/>
-      <c r="E114" s="33"/>
+      <c r="A114" s="48"/>
+      <c r="B114" s="48"/>
+      <c r="C114" s="48"/>
+      <c r="D114" s="48"/>
+      <c r="E114" s="48"/>
       <c r="F114" s="33"/>
       <c r="G114" s="33"/>
       <c r="H114" s="36"/>
@@ -9827,11 +9965,11 @@
       <c r="AH114" s="33"/>
     </row>
     <row r="115" spans="1:34">
-      <c r="A115" s="33"/>
-      <c r="B115" s="33"/>
-      <c r="C115" s="33"/>
-      <c r="D115" s="33"/>
-      <c r="E115" s="33"/>
+      <c r="A115" s="48"/>
+      <c r="B115" s="48"/>
+      <c r="C115" s="48"/>
+      <c r="D115" s="48"/>
+      <c r="E115" s="48"/>
       <c r="F115" s="33"/>
       <c r="G115" s="33"/>
       <c r="H115" s="36"/>

--- a/Distress diary/item_info.xlsx
+++ b/Distress diary/item_info.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="328">
   <si>
     <t>종류</t>
   </si>
@@ -1087,6 +1087,12 @@
   </si>
   <si>
     <t>x2</t>
+  </si>
+  <si>
+    <t>x3</t>
+  </si>
+  <si>
+    <t>효과 배율</t>
   </si>
 </sst>
 </file>
@@ -3809,8 +3815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AN137"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" tabSelected="1" zoomScale="110" workbookViewId="0">
-      <selection activeCell="D76" sqref="D76"/>
+    <sheetView topLeftCell="A91" tabSelected="1" zoomScale="110" workbookViewId="0">
+      <selection activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -9780,16 +9786,16 @@
         <v>319</v>
       </c>
       <c r="C110" s="48" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D110" s="48" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="E110" s="48" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F110" s="48" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G110" s="33"/>
       <c r="H110" s="36"/>
@@ -9821,12 +9827,24 @@
       <c r="AH110" s="33"/>
     </row>
     <row r="111" spans="1:34">
-      <c r="A111" s="146"/>
-      <c r="B111" s="48"/>
-      <c r="C111" s="48"/>
-      <c r="D111" s="48"/>
-      <c r="E111" s="48"/>
-      <c r="F111" s="48"/>
+      <c r="A111" s="146" t="s">
+        <v>327</v>
+      </c>
+      <c r="B111" s="48" t="s">
+        <v>319</v>
+      </c>
+      <c r="C111" s="48" t="s">
+        <v>320</v>
+      </c>
+      <c r="D111" s="48" t="s">
+        <v>321</v>
+      </c>
+      <c r="E111" s="48" t="s">
+        <v>322</v>
+      </c>
+      <c r="F111" s="48" t="s">
+        <v>324</v>
+      </c>
       <c r="G111" s="33"/>
       <c r="H111" s="36"/>
       <c r="I111" s="33"/>
